--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{132CEC14-3A47-4165-A1AA-D1E19DCDDF27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3BD44-2A4C-425A-83C2-380928C8E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9645" yWindow="1980" windowWidth="11280" windowHeight="8715" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="27">
   <si>
     <t>Giornata</t>
   </si>
@@ -96,6 +96,24 @@
   </si>
   <si>
     <t>5/9</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO GOAL </t>
+  </si>
+  <si>
+    <t>over 2.5</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>2/9</t>
   </si>
 </sst>
 </file>
@@ -190,7 +208,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -217,6 +235,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1315,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E046816-9386-404B-AF3D-393A00F6F5F1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:H1"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2514,10 +2535,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2527,12 +2548,12 @@
     <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2552,13 +2573,22 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2580,14 +2610,14 @@
       <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2609,14 +2639,14 @@
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2635,14 +2665,14 @@
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2661,14 +2691,14 @@
       <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2691,14 +2721,14 @@
       <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2721,134 +2751,517 @@
       <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
+        <f>120+290+235+120+215+240+245</f>
+        <v>1465</v>
+      </c>
+      <c r="C8" s="1">
+        <f>130+235+120+215+245</f>
+        <v>945</v>
+      </c>
+      <c r="D8" s="1">
+        <f>290+390</f>
+        <v>680</v>
+      </c>
+      <c r="E8" s="1">
+        <v>350</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
+        <f>245+140+165+150+280+135</f>
+        <v>1115</v>
+      </c>
+      <c r="C9" s="1">
+        <f>195+245+165+140+150+135</f>
+        <v>1030</v>
+      </c>
+      <c r="D9" s="1">
+        <f>300+280</f>
+        <v>580</v>
+      </c>
+      <c r="E9" s="1">
+        <v>340</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
+        <f>365+200+130</f>
+        <v>695</v>
+      </c>
+      <c r="C10" s="1">
+        <f>130+200+260</f>
+        <v>590</v>
+      </c>
+      <c r="D10" s="1">
+        <f>340+365+340</f>
+        <v>1045</v>
+      </c>
+      <c r="E10" s="1">
+        <f>330+435+330+350</f>
+        <v>1445</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
+        <f>135+280+150+140+165+245</f>
+        <v>1115</v>
+      </c>
+      <c r="C11" s="1">
+        <f>195+245+165+140+150+135</f>
+        <v>1030</v>
+      </c>
+      <c r="D11" s="1">
+        <f>280+300</f>
+        <v>580</v>
+      </c>
+      <c r="E11" s="1">
+        <v>340</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
+        <f>200+185+150+460+165</f>
+        <v>1160</v>
+      </c>
+      <c r="C12" s="1">
+        <f>200+150+185+150+245+165</f>
+        <v>1095</v>
+      </c>
+      <c r="D12" s="1">
+        <v>460</v>
+      </c>
+      <c r="E12" s="1">
+        <f>410+390</f>
+        <v>800</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="1">
+        <f>475+150+170+185</f>
+        <v>980</v>
+      </c>
+      <c r="C13" s="1">
+        <f>200+120+155+150+170+185+180</f>
+        <v>1160</v>
+      </c>
+      <c r="D13" s="1">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1">
+        <f>350</f>
+        <v>350</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="1">
+        <f>220+125+150+220+155</f>
+        <v>870</v>
+      </c>
+      <c r="C14" s="1">
+        <f>220+125+170+120+240+150+220+155</f>
+        <v>1400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>350</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="1">
+        <f>270+115+200+260+155+320+170</f>
+        <v>1490</v>
+      </c>
+      <c r="C15" s="1">
+        <f>115+200+220+155+170</f>
+        <v>860</v>
+      </c>
+      <c r="D15" s="1">
+        <f>270+260+320</f>
+        <v>850</v>
+      </c>
+      <c r="E15" s="1">
+        <v>365</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B16" s="1">
+        <f>320+180+245+200</f>
+        <v>945</v>
+      </c>
+      <c r="C16" s="1">
+        <f>180+245+185+120+200</f>
+        <v>930</v>
+      </c>
+      <c r="D16" s="1">
+        <f>320+280+310</f>
+        <v>910</v>
+      </c>
+      <c r="E16" s="1">
+        <v>340</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1">
+        <f>215+130+225+225+195+120</f>
+        <v>1110</v>
+      </c>
+      <c r="C17" s="1">
+        <f>215+225+130+225+195+120+225</f>
+        <v>1335</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>420+340</f>
+        <v>760</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B18" s="1">
+        <f>140+300</f>
+        <v>440</v>
+      </c>
+      <c r="C18" s="1">
+        <f>150+235+210+140+250</f>
+        <v>985</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300</v>
+      </c>
+      <c r="E18" s="1">
+        <f>330+750+340</f>
+        <v>1420</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B19" s="1">
+        <f>125+175+160+340</f>
+        <v>800</v>
+      </c>
+      <c r="C19" s="1">
+        <f>125+175+215+160</f>
+        <v>675</v>
+      </c>
+      <c r="D19" s="1">
+        <f>255+340+340</f>
+        <v>935</v>
+      </c>
+      <c r="E19" s="1">
+        <f>365+560</f>
+        <v>925</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B20" s="1">
+        <f>365+185+160+150+265</f>
+        <v>1125</v>
+      </c>
+      <c r="C20" s="1">
+        <f>185+150+160+150</f>
+        <v>645</v>
+      </c>
+      <c r="D20" s="1">
+        <f>435+265+365</f>
+        <v>1065</v>
+      </c>
+      <c r="E20" s="1">
+        <f>435+340</f>
+        <v>775</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B21" s="1">
+        <f>175+110+195+260+270+255</f>
+        <v>1265</v>
+      </c>
+      <c r="C21" s="1">
+        <f>175+110+195+165</f>
+        <v>645</v>
+      </c>
+      <c r="D21" s="1">
+        <f>270+260</f>
+        <v>530</v>
+      </c>
+      <c r="E21" s="1">
+        <v>370</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FA3BD44-2A4C-425A-83C2-380928C8E9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A98FB-B8C0-42D6-9F6C-58A0773DB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
   <si>
     <t>Giornata</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>2/9</t>
+  </si>
+  <si>
+    <t>1/9</t>
   </si>
 </sst>
 </file>
@@ -2537,8 +2540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3215,45 +3218,345 @@
       <c r="A22" s="4">
         <v>21</v>
       </c>
+      <c r="B22" s="1">
+        <f>250+680+215+130+150</f>
+        <v>1425</v>
+      </c>
+      <c r="C22" s="1">
+        <f>215+215+245+130+150</f>
+        <v>955</v>
+      </c>
+      <c r="D22" s="1">
+        <f>370+680+250</f>
+        <v>1300</v>
+      </c>
+      <c r="E22" s="1">
+        <v>340</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
+      <c r="B23" s="1">
+        <f>210+200+155+185+300+140</f>
+        <v>1190</v>
+      </c>
+      <c r="C23" s="1">
+        <f>210+155+200+185+160+140</f>
+        <v>1050</v>
+      </c>
+      <c r="D23" s="1">
+        <f>300+290</f>
+        <v>590</v>
+      </c>
+      <c r="E23" s="1">
+        <v>340</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
+      <c r="B24" s="1">
+        <f>145+215+185+220</f>
+        <v>765</v>
+      </c>
+      <c r="C24" s="1">
+        <f>220+215+185+140+145</f>
+        <v>905</v>
+      </c>
+      <c r="D24" s="1">
+        <f>265</f>
+        <v>265</v>
+      </c>
+      <c r="E24" s="1">
+        <f>340+300+350</f>
+        <v>990</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
+      <c r="B25" s="1">
+        <f>105+130+180</f>
+        <v>415</v>
+      </c>
+      <c r="C25" s="1">
+        <f>200+180+130+105</f>
+        <v>615</v>
+      </c>
+      <c r="D25" s="1">
+        <f>485</f>
+        <v>485</v>
+      </c>
+      <c r="E25" s="1">
+        <f>340+340+365+300</f>
+        <v>1345</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
+      <c r="B26" s="1">
+        <f>420+220+150+560+185</f>
+        <v>1535</v>
+      </c>
+      <c r="C26" s="1">
+        <f>185+220+150</f>
+        <v>555</v>
+      </c>
+      <c r="D26" s="1">
+        <f>370+560+420</f>
+        <v>1350</v>
+      </c>
+      <c r="E26" s="1">
+        <f>410+330+330</f>
+        <v>1070</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
+      <c r="B27" s="1">
+        <f>210+145</f>
+        <v>355</v>
+      </c>
+      <c r="C27" s="1">
+        <f>210+175+145</f>
+        <v>530</v>
+      </c>
+      <c r="D27" s="1">
+        <f>310+580</f>
+        <v>890</v>
+      </c>
+      <c r="E27" s="1">
+        <f>410+330+420+340</f>
+        <v>1500</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
+      <c r="B28" s="1">
+        <f>180+160+240+185</f>
+        <v>765</v>
+      </c>
+      <c r="C28" s="1">
+        <f>160+180+210+140+160+240+230+185</f>
+        <v>1505</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>390</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
+      <c r="B29" s="1">
+        <f>220+115</f>
+        <v>335</v>
+      </c>
+      <c r="C29" s="1">
+        <f>115+220+255</f>
+        <v>590</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <f>350+365+390+365+775+315</f>
+        <v>2560</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f>150+175+245+580</f>
+        <v>1150</v>
+      </c>
+      <c r="C30" s="1">
+        <f>215+150+175+245</f>
+        <v>785</v>
+      </c>
+      <c r="D30" s="1">
+        <f>580+290+300</f>
+        <v>1170</v>
+      </c>
+      <c r="E30" s="1">
+        <v>350</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87A98FB-B8C0-42D6-9F6C-58A0773DB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD4642-A448-416D-BF7A-971B15D7D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2541,7 +2541,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FD4642-A448-416D-BF7A-971B15D7D8B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E4D93-7B43-4C27-9B5F-64BFB7358F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="28">
   <si>
     <t>Giornata</t>
   </si>
@@ -123,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,8 +156,14 @@
       <name val="Bahnschrift SemiLight Condensed"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +184,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -241,6 +265,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -565,19 +598,19 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -606,7 +639,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -627,7 +660,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -648,7 +681,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -668,7 +701,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -687,7 +720,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -707,7 +740,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -728,7 +761,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -749,7 +782,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -770,7 +803,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -787,7 +820,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -808,7 +841,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -825,7 +858,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -842,7 +875,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -859,7 +892,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -876,7 +909,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -893,7 +926,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -909,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -926,7 +959,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -943,7 +976,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -960,7 +993,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -979,7 +1012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -996,7 +1029,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1013,7 +1046,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1030,7 +1063,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1047,7 +1080,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1064,7 +1097,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1081,7 +1114,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1098,7 +1131,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1115,7 +1148,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1132,7 +1165,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1149,7 +1182,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1170,7 +1203,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1187,7 +1220,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1208,7 +1241,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1228,7 +1261,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1248,7 +1281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1269,7 +1302,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1290,7 +1323,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1311,7 +1344,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1339,23 +1372,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E046816-9386-404B-AF3D-393A00F6F5F1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1414,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1389,7 +1422,7 @@
         <f>144+160+170+240+145</f>
         <v>859</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <f>144+162+136+160+170+150+240+200+145</f>
         <v>1507</v>
       </c>
@@ -1410,7 +1443,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1425,7 +1458,7 @@
       <c r="D3" s="1">
         <v>0</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="13">
         <f>330+370+380+360+340+400</f>
         <v>2180</v>
       </c>
@@ -1439,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1454,7 +1487,7 @@
       <c r="D4" s="1">
         <v>380</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="13">
         <f>327+350+365+350</f>
         <v>1392</v>
       </c>
@@ -1468,7 +1501,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1482,7 +1515,7 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="13">
         <f>440+320+360+650+330</f>
         <v>2100</v>
       </c>
@@ -1496,15 +1529,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="13">
         <f>270+220+375+160</f>
         <v>1025</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="13">
         <f>255+220+180+160+260</f>
         <v>1075</v>
       </c>
@@ -1512,7 +1545,7 @@
         <f>375</f>
         <v>375</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="13">
         <f>330+320+350+320</f>
         <v>1320</v>
       </c>
@@ -1526,7 +1559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1534,7 +1567,7 @@
         <f>129+155+325+162</f>
         <v>771</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="13">
         <f>129+155+145+260+162+170</f>
         <v>1021</v>
       </c>
@@ -1542,7 +1575,7 @@
         <f>325</f>
         <v>325</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="13">
         <f>400+320+525</f>
         <v>1245</v>
       </c>
@@ -1556,11 +1589,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="13">
         <f>457+180+380+275</f>
         <v>1292</v>
       </c>
@@ -1568,7 +1601,7 @@
         <f>185+180</f>
         <v>365</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="13">
         <f>325+340+275+450+380+457+340+320</f>
         <v>2887</v>
       </c>
@@ -1585,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1593,7 +1626,7 @@
         <f>162+140+210+205+145</f>
         <v>862</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <f>162+155+140+210+205+145+215</f>
         <v>1232</v>
       </c>
@@ -1615,7 +1648,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1623,7 +1656,7 @@
         <f>150+240+195+215</f>
         <v>800</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="13">
         <f>175+215+195+240+150+150</f>
         <v>1125</v>
       </c>
@@ -1631,7 +1664,7 @@
         <f>300</f>
         <v>300</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="13">
         <f>350+390+340</f>
         <v>1080</v>
       </c>
@@ -1645,7 +1678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1661,7 +1694,7 @@
         <f>270</f>
         <v>270</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="13">
         <f>350+375+325</f>
         <v>1050</v>
       </c>
@@ -1675,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1683,11 +1716,11 @@
         <f>136+215+145+210+220</f>
         <v>926</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <f>136+215+145+220+210+225+220</f>
         <v>1371</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="13">
         <f>350+340+380</f>
         <v>1070</v>
       </c>
@@ -1704,7 +1737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1712,11 +1745,11 @@
         <f>129+210+120+380</f>
         <v>839</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <f>129+210+120+170+190+183</f>
         <v>1002</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="13">
         <f>320+380+575</f>
         <v>1275</v>
       </c>
@@ -1734,11 +1767,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="13">
         <f>320+122+300+215+300</f>
         <v>1257</v>
       </c>
@@ -1746,7 +1779,7 @@
         <f>215+122+215+185</f>
         <v>737</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="13">
         <f>300+350+300+320</f>
         <v>1270</v>
       </c>
@@ -1764,11 +1797,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="13">
         <f>129+330+150+135+160+167</f>
         <v>1071</v>
       </c>
@@ -1780,7 +1813,7 @@
         <f>320</f>
         <v>320</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="13">
         <f>375+325+350</f>
         <v>1050</v>
       </c>
@@ -1794,15 +1827,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="13">
         <f>255+150+225+195+165+183</f>
         <v>1173</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="13">
         <f>255+150+275+225+238+195+165+183</f>
         <v>1686</v>
       </c>
@@ -1823,7 +1856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1839,7 +1872,7 @@
         <f>485+365</f>
         <v>850</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="13">
         <f>365+370+350+390</f>
         <v>1475</v>
       </c>
@@ -1853,7 +1886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1868,7 +1901,7 @@
       <c r="D18" s="1">
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="13">
         <f>410+310+410+300+360</f>
         <v>1790</v>
       </c>
@@ -1882,7 +1915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1890,7 +1923,7 @@
         <f>195+130+130+205+210</f>
         <v>870</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="13">
         <f>195+260+130+190+130+205+210</f>
         <v>1320</v>
       </c>
@@ -1912,7 +1945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1920,11 +1953,11 @@
         <f>215+270</f>
         <v>485</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="13">
         <f>215+125+220+170+270</f>
         <v>1000</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="13">
         <f>970+435</f>
         <v>1405</v>
       </c>
@@ -1942,7 +1975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1954,7 +1987,7 @@
         <f>180+140+130+170</f>
         <v>620</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="13">
         <f>560+630+485</f>
         <v>1675</v>
       </c>
@@ -1972,7 +2005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1984,7 +2017,7 @@
         <f>145+190+240+130+145</f>
         <v>850</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="13">
         <f>435+365+265</f>
         <v>1065</v>
       </c>
@@ -2002,7 +2035,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2018,7 +2051,7 @@
         <f>320+330</f>
         <v>650</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="13">
         <f>330+310+330+460</f>
         <v>1430</v>
       </c>
@@ -2032,7 +2065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2040,7 +2073,7 @@
         <f>140+170</f>
         <v>310</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="13">
         <f>170+160+165+140+220+220+150</f>
         <v>1225</v>
       </c>
@@ -2062,11 +2095,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="13">
         <f>460+340+215+135+535</f>
         <v>1685</v>
       </c>
@@ -2074,7 +2107,7 @@
         <f>140+215+210+135+170</f>
         <v>870</v>
       </c>
-      <c r="D25" s="1">
+      <c r="D25" s="13">
         <f>535+340+460+290</f>
         <v>1625</v>
       </c>
@@ -2092,11 +2125,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="13">
         <f>225+180+290+136+265+190</f>
         <v>1286</v>
       </c>
@@ -2104,11 +2137,11 @@
         <f>190+136+180+225</f>
         <v>731</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="13">
         <f>560+265+290</f>
         <v>1115</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="13">
         <f>350*3</f>
         <v>1050</v>
       </c>
@@ -2122,11 +2155,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="13">
         <f>775+160+130</f>
         <v>1065</v>
       </c>
@@ -2134,11 +2167,11 @@
         <f>130+180+160+235</f>
         <v>705</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27" s="13">
         <f>775+290+525</f>
         <v>1590</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="13">
         <f>350+350+580</f>
         <v>1280</v>
       </c>
@@ -2152,11 +2185,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="13">
         <f>300+150+280+360+135+170</f>
         <v>1395</v>
       </c>
@@ -2164,7 +2197,7 @@
         <f>170+135+150+180</f>
         <v>635</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28" s="13">
         <f>360+280+300+370</f>
         <v>1310</v>
       </c>
@@ -2182,7 +2215,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2190,7 +2223,7 @@
         <f>150+220+130+265</f>
         <v>765</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="13">
         <f>150+220+210+150+130+265</f>
         <v>1125</v>
       </c>
@@ -2212,7 +2245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2228,7 +2261,7 @@
         <f>330+535</f>
         <v>865</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="13">
         <f>460+340+435+435</f>
         <v>1670</v>
       </c>
@@ -2242,7 +2275,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2254,11 +2287,11 @@
         <f>210+180+180</f>
         <v>570</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D31" s="13">
         <f>730+320</f>
         <v>1050</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="13">
         <f>290+435+330+370+330</f>
         <v>1755</v>
       </c>
@@ -2272,19 +2305,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="13">
         <f>230+150+170+350+310+260</f>
         <v>1470</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="13">
         <f>260+155+170+150+245+230</f>
         <v>1210</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="13">
         <f>310+420+350</f>
         <v>1080</v>
       </c>
@@ -2302,7 +2335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2317,7 +2350,7 @@
       <c r="D33" s="1">
         <v>0</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="13">
         <f>310+680+300+280</f>
         <v>1570</v>
       </c>
@@ -2331,7 +2364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2339,14 +2372,14 @@
         <f>130+150+155+260</f>
         <v>695</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="13">
         <f>260+155+155+180+150+130</f>
         <v>1030</v>
       </c>
       <c r="D34" s="1">
         <v>0</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="13">
         <f>510+310+370+370</f>
         <v>1560</v>
       </c>
@@ -2360,7 +2393,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2368,7 +2401,7 @@
         <f>180+240+180+215+140</f>
         <v>955</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="13">
         <f>180+235+240+180+215+140</f>
         <v>1190</v>
       </c>
@@ -2390,11 +2423,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="13">
         <f>460+420+140+180+320+130</f>
         <v>1650</v>
       </c>
@@ -2402,7 +2435,7 @@
         <f>140+180+130</f>
         <v>450</v>
       </c>
-      <c r="D36" s="1">
+      <c r="D36" s="13">
         <f>460+420+280+320</f>
         <v>1480</v>
       </c>
@@ -2420,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2436,7 +2469,7 @@
         <f>485+330</f>
         <v>815</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="13">
         <f>390+310+300</f>
         <v>1000</v>
       </c>
@@ -2450,7 +2483,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2462,11 +2495,11 @@
         <f>205+180+120</f>
         <v>505</v>
       </c>
-      <c r="D38" s="1">
+      <c r="D38" s="13">
         <f>280+340+290+280</f>
         <v>1190</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="13">
         <f>330+350+390</f>
         <v>1070</v>
       </c>
@@ -2480,7 +2513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2488,11 +2521,11 @@
         <f>175+160+145+105+255</f>
         <v>840</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="13">
         <f>245+185+105+145+160+175+160</f>
         <v>1175</v>
       </c>
-      <c r="D39" s="1">
+      <c r="D39" s="13">
         <f>245+270+255+250</f>
         <v>1020</v>
       </c>
@@ -2509,7 +2542,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2540,23 +2573,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2591,7 +2624,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2599,7 +2632,7 @@
         <f>185+200+200+200</f>
         <v>785</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="13">
         <f>145+185+200+210+215+200+205</f>
         <v>1360</v>
       </c>
@@ -2613,14 +2646,23 @@
       <c r="F2" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2635,21 +2677,30 @@
       <c r="D3" s="1">
         <v>500</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="11">
         <f>325+350+375+300+325</f>
         <v>1675</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G3" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="H3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2661,6 +2712,10 @@
         <f>150+191+255+120</f>
         <v>716</v>
       </c>
+      <c r="D4" s="13">
+        <f>460+680+315</f>
+        <v>1455</v>
+      </c>
       <c r="E4" s="1">
         <f>350+300</f>
         <v>650</v>
@@ -2668,14 +2723,23 @@
       <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2687,6 +2751,10 @@
         <f>153+230+175+153+140</f>
         <v>851</v>
       </c>
+      <c r="D5" s="1">
+        <f>280+280</f>
+        <v>560</v>
+      </c>
       <c r="E5" s="1">
         <f>450+350</f>
         <v>800</v>
@@ -2694,14 +2762,23 @@
       <c r="F5" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G5" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H5" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2713,7 +2790,7 @@
         <f>175+225</f>
         <v>400</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="11">
         <f>280+263+340+340+433</f>
         <v>1656</v>
       </c>
@@ -2724,14 +2801,23 @@
       <c r="F6" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="G6" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2743,33 +2829,42 @@
         <f>238+238+205</f>
         <v>681</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="11">
         <f>650+380+290</f>
         <v>1320</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="11">
         <f>325+350+300</f>
         <v>975</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>20</v>
       </c>
+      <c r="G7" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H7" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="11">
         <f>120+290+235+120+215+240+245</f>
         <v>1465</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="13">
         <f>130+235+120+215+245</f>
         <v>945</v>
       </c>
@@ -2783,22 +2878,31 @@
       <c r="F8" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G8" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="H8" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="11">
         <f>245+140+165+150+280+135</f>
         <v>1115</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="13">
         <f>195+245+165+140+150+135</f>
         <v>1030</v>
       </c>
@@ -2812,14 +2916,23 @@
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H9" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2831,33 +2944,42 @@
         <f>130+200+260</f>
         <v>590</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="11">
         <f>340+365+340</f>
         <v>1045</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="11">
         <f>330+435+330+350</f>
         <v>1445</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G10" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H10" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="11">
         <f>135+280+150+140+165+245</f>
         <v>1115</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="13">
         <f>195+245+165+140+150+135</f>
         <v>1030</v>
       </c>
@@ -2871,22 +2993,31 @@
       <c r="F11" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G11" s="8" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="11">
         <f>200+185+150+460+165</f>
         <v>1160</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="13">
         <f>200+150+185+150+245+165</f>
         <v>1095</v>
       </c>
@@ -2900,22 +3031,31 @@
       <c r="F12" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G12" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="11">
         <f>475+150+170+185</f>
         <v>980</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="13">
         <f>200+120+155+150+170+185+180</f>
         <v>1160</v>
       </c>
@@ -2929,14 +3069,23 @@
       <c r="F13" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G13" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="H13" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I13" s="9" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2944,7 +3093,7 @@
         <f>220+125+150+220+155</f>
         <v>870</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="13">
         <f>220+125+170+120+240+150+220+155</f>
         <v>1400</v>
       </c>
@@ -2957,18 +3106,27 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="G14" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="8" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="11">
         <f>270+115+200+260+155+320+170</f>
         <v>1490</v>
       </c>
@@ -2986,26 +3144,35 @@
       <c r="F15" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G15" s="8" t="s">
+        <v>19</v>
+      </c>
       <c r="H15" s="8" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="11">
         <f>320+180+245+200</f>
         <v>945</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="13">
         <f>180+245+185+120+200</f>
         <v>930</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="11">
         <f>320+280+310</f>
         <v>910</v>
       </c>
@@ -3015,22 +3182,31 @@
       <c r="F16" s="8" t="s">
         <v>16</v>
       </c>
+      <c r="G16" s="8" t="s">
+        <v>21</v>
+      </c>
       <c r="H16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="11">
         <f>215+130+225+225+195+120</f>
         <v>1110</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="13">
         <f>215+225+130+225+195+120+225</f>
         <v>1335</v>
       </c>
@@ -3060,7 +3236,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3068,14 +3244,14 @@
         <f>140+300</f>
         <v>440</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="13">
         <f>150+235+210+140+250</f>
         <v>985</v>
       </c>
       <c r="D18" s="1">
         <v>300</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="11">
         <f>330+750+340</f>
         <v>1420</v>
       </c>
@@ -3098,7 +3274,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3110,11 +3286,11 @@
         <f>125+175+215+160</f>
         <v>675</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="11">
         <f>255+340+340</f>
         <v>935</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="11">
         <f>365+560</f>
         <v>925</v>
       </c>
@@ -3137,11 +3313,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="11">
         <f>365+185+160+150+265</f>
         <v>1125</v>
       </c>
@@ -3149,7 +3325,7 @@
         <f>185+150+160+150</f>
         <v>645</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="11">
         <f>435+265+365</f>
         <v>1065</v>
       </c>
@@ -3176,11 +3352,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="11">
         <f>175+110+195+260+270+255</f>
         <v>1265</v>
       </c>
@@ -3214,19 +3390,19 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="11">
         <f>250+680+215+130+150</f>
         <v>1425</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="13">
         <f>215+215+245+130+150</f>
         <v>955</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="11">
         <f>370+680+250</f>
         <v>1300</v>
       </c>
@@ -3252,15 +3428,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="11">
         <f>210+200+155+185+300+140</f>
         <v>1190</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="13">
         <f>210+155+200+185+160+140</f>
         <v>1050</v>
       </c>
@@ -3290,7 +3466,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3298,7 +3474,7 @@
         <f>145+215+185+220</f>
         <v>765</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="13">
         <f>220+215+185+140+145</f>
         <v>905</v>
       </c>
@@ -3329,7 +3505,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3345,7 +3521,7 @@
         <f>485</f>
         <v>485</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="11">
         <f>340+340+365+300</f>
         <v>1345</v>
       </c>
@@ -3368,11 +3544,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="11">
         <f>420+220+150+560+185</f>
         <v>1535</v>
       </c>
@@ -3380,11 +3556,11 @@
         <f>185+220+150</f>
         <v>555</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="11">
         <f>370+560+420</f>
         <v>1350</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="11">
         <f>410+330+330</f>
         <v>1070</v>
       </c>
@@ -3407,7 +3583,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3423,7 +3599,7 @@
         <f>310+580</f>
         <v>890</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="11">
         <f>410+330+420+340</f>
         <v>1500</v>
       </c>
@@ -3446,7 +3622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3454,7 +3630,7 @@
         <f>180+160+240+185</f>
         <v>765</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="13">
         <f>160+180+210+140+160+240+230+185</f>
         <v>1505</v>
       </c>
@@ -3483,7 +3659,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3498,7 +3674,7 @@
       <c r="D29" s="1">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="11">
         <f>350+365+390+365+775+315</f>
         <v>2560</v>
       </c>
@@ -3521,11 +3697,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="11">
         <f>150+175+245+580</f>
         <v>1150</v>
       </c>
@@ -3533,7 +3709,7 @@
         <f>215+150+175+245</f>
         <v>785</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30" s="11">
         <f>580+290+300</f>
         <v>1170</v>
       </c>
@@ -3559,52 +3735,231 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <f>130+165+230+105+220</f>
+        <v>850</v>
+      </c>
+      <c r="C31" s="1">
+        <v>850</v>
+      </c>
+      <c r="D31" s="1">
+        <v>280</v>
+      </c>
+      <c r="E31" s="11">
+        <f>485+315+455</f>
+        <v>1255</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <f>205+300+280+235+180</f>
+        <v>1200</v>
+      </c>
+      <c r="C32" s="1">
+        <f>150+120+235+185+205</f>
+        <v>895</v>
+      </c>
+      <c r="D32" s="11">
+        <f>485+535+300+280</f>
+        <v>1600</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <f>180+200+200+110+215+185+115+120</f>
+        <v>1325</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1325</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>340</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <f>210+220</f>
+        <v>430</v>
+      </c>
+      <c r="C34" s="1">
+        <f>210+220+240+130</f>
+        <v>800</v>
+      </c>
+      <c r="D34" s="1">
+        <v>510</v>
+      </c>
+      <c r="E34" s="11">
+        <f>630+350+370+365</f>
+        <v>1715</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <f>145+190+195+145+410</f>
+        <v>1085</v>
+      </c>
+      <c r="C35" s="1">
+        <f>140+145+190+195+145</f>
+        <v>815</v>
+      </c>
+      <c r="D35" s="11">
+        <f>970+410</f>
+        <v>1380</v>
+      </c>
+      <c r="E35" s="11">
+        <f>730+460</f>
+        <v>1190</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <f>SUM(B2:B35)</f>
+        <v>30574</v>
+      </c>
+      <c r="C38" s="1">
+        <f>SUM(C2:C37)</f>
+        <v>30005</v>
+      </c>
+      <c r="D38" s="12">
+        <f>SUM(D2:D35)</f>
+        <v>23846</v>
+      </c>
+      <c r="E38" s="12">
+        <f>SUM(E2:E37)</f>
+        <v>27475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -3615,6 +3970,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3E4D93-7B43-4C27-9B5F-64BFB7358F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC588E41-4413-4CE0-9A58-28DC127A987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
     <sheet name="Serie A 22-23" sheetId="2" r:id="rId2"/>
     <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId3"/>
+    <sheet name="Foglio1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="65">
   <si>
     <t>Giornata</t>
   </si>
@@ -117,13 +118,124 @@
   </si>
   <si>
     <t>1/9</t>
+  </si>
+  <si>
+    <t>GOAL+UNDER 4.5</t>
+  </si>
+  <si>
+    <t>2.05</t>
+  </si>
+  <si>
+    <t>X2+O 1.5</t>
+  </si>
+  <si>
+    <t>1.47</t>
+  </si>
+  <si>
+    <t>X2+U4.5</t>
+  </si>
+  <si>
+    <t>1.52</t>
+  </si>
+  <si>
+    <t>1.95</t>
+  </si>
+  <si>
+    <t>NO G U 4.5</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>SOMM GOL 0</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOMMA GOL &gt;4 </t>
+  </si>
+  <si>
+    <t>BUDGET</t>
+  </si>
+  <si>
+    <t>TIPO SCOMMESSA</t>
+  </si>
+  <si>
+    <t>QUOTA</t>
+  </si>
+  <si>
+    <t>0 goal</t>
+  </si>
+  <si>
+    <t>percen</t>
+  </si>
+  <si>
+    <t>poss.vicita</t>
+  </si>
+  <si>
+    <t>somma gol &gt; 4</t>
+  </si>
+  <si>
+    <t>favorita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in caso di x =&gt; 0-0 </t>
+  </si>
+  <si>
+    <t>x fav + U 4,5</t>
+  </si>
+  <si>
+    <t>xfav + O 1,5</t>
+  </si>
+  <si>
+    <t>in caso di x =&gt; 1-1</t>
+  </si>
+  <si>
+    <t>in caso di x =&gt; 1-0 se fav</t>
+  </si>
+  <si>
+    <t>in caso di x =&gt; 1-0 se sfav</t>
+  </si>
+  <si>
+    <t>vince fav tra 2gol e 4 tot</t>
+  </si>
+  <si>
+    <t>vince sfav tra 2gol e 4 tot</t>
+  </si>
+  <si>
+    <t>x con gol tra 2 e 4</t>
+  </si>
+  <si>
+    <t>x con + 4 gol</t>
+  </si>
+  <si>
+    <t>1-0 fav</t>
+  </si>
+  <si>
+    <t>0-1 sfav</t>
+  </si>
+  <si>
+    <t>vince fav con +4 gol</t>
+  </si>
+  <si>
+    <t>vince sfav + 4 gol</t>
+  </si>
+  <si>
+    <t>somma gol</t>
+  </si>
+  <si>
+    <t>somma gol 3</t>
+  </si>
+  <si>
+    <t>somma gol 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -159,6 +271,11 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -598,19 +715,19 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -639,7 +756,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -660,7 +777,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -681,7 +798,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -701,7 +818,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -720,7 +837,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -740,7 +857,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -761,7 +878,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -782,7 +899,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -803,7 +920,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -820,7 +937,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -841,7 +958,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -858,7 +975,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -875,7 +992,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -892,7 +1009,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -909,7 +1026,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -926,7 +1043,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -942,7 +1059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -959,7 +1076,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -976,7 +1093,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -993,7 +1110,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1012,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1029,7 +1146,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1046,7 +1163,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1063,7 +1180,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1080,7 +1197,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1097,7 +1214,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1114,7 +1231,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1131,7 +1248,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1148,7 +1265,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1165,7 +1282,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1182,7 +1299,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1203,7 +1320,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1220,7 +1337,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1241,7 +1358,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1261,7 +1378,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1281,7 +1398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1302,7 +1419,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1323,7 +1440,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1344,7 +1461,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1372,23 +1489,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E046816-9386-404B-AF3D-393A00F6F5F1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="9"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1443,7 +1560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1472,7 +1589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1501,7 +1618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1529,7 +1646,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1559,7 +1676,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1589,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1618,7 +1735,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1648,7 +1765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1678,7 +1795,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1708,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1737,7 +1854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1767,7 +1884,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1797,7 +1914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1827,7 +1944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1856,7 +1973,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1886,7 +2003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1915,7 +2032,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1945,7 +2062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1975,7 +2092,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2005,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2035,7 +2152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2065,7 +2182,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2095,7 +2212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2125,7 +2242,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2155,7 +2272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2185,7 +2302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2215,7 +2332,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2245,7 +2362,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2275,7 +2392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2305,7 +2422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2335,7 +2452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2364,7 +2481,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2393,7 +2510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2423,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2453,7 +2570,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2483,7 +2600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2513,7 +2630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2542,7 +2659,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2571,25 +2688,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.109375" style="9"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2624,7 +2741,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2662,7 +2779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2700,7 +2817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2739,7 +2856,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2778,7 +2895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2817,7 +2934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2856,7 +2973,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2894,7 +3011,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2932,7 +3049,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2971,7 +3088,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3009,7 +3126,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3047,7 +3164,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3085,7 +3202,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3122,7 +3239,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3160,7 +3277,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3198,7 +3315,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3236,7 +3353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3274,7 +3391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3313,7 +3430,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3352,7 +3469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3390,7 +3507,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3428,7 +3545,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3466,7 +3583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3505,7 +3622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3544,7 +3661,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3583,7 +3700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3622,7 +3739,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3659,7 +3776,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3697,7 +3814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3735,7 +3852,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3772,7 +3889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3810,7 +3927,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3846,7 +3963,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3884,7 +4001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3923,17 +4040,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3954,12 +4071,12 @@
         <v>27475</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -3968,8 +4085,318 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25A02E-6716-46D4-8713-07A02FBE0746}">
+  <dimension ref="A3:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="41.28515625" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="1">
+        <v>800</v>
+      </c>
+      <c r="C3" s="1">
+        <f>SUM(C6:C22)</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1">
+        <f>((C6*$B$3)/100)*B6</f>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D16" si="0">((C7*$B$3)/100)*B7</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="C10" s="1">
+        <v>22</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>343.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="G11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C12" s="1">
+        <v>12</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>364.79999999999995</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>207.20000000000002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="1">
+        <v>3.8</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>212.79999999999998</v>
+      </c>
+      <c r="G15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC588E41-4413-4CE0-9A58-28DC127A987F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B48D1-1C59-4745-AEA2-46B17E9D4484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="90">
   <si>
     <t>Giornata</t>
   </si>
@@ -229,13 +229,88 @@
   </si>
   <si>
     <t>somma gol 2</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>ris 1-1</t>
+  </si>
+  <si>
+    <t>ris 2-2</t>
+  </si>
+  <si>
+    <t>ris 3-3</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0 0-4 altro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-2 33 4-4 </t>
+  </si>
+  <si>
+    <t>3-0 3-1 3-2</t>
+  </si>
+  <si>
+    <t>0-3 1-3 2-3</t>
+  </si>
+  <si>
+    <t>Somma gol 0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>6.80</t>
+  </si>
+  <si>
+    <t>12.50</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t>somma gol 1</t>
+  </si>
+  <si>
+    <t>somma gol 4</t>
+  </si>
+  <si>
+    <t>4.50</t>
+  </si>
+  <si>
+    <t>3.55</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -277,6 +352,12 @@
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Abadi"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -352,7 +433,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -392,6 +473,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4151,10 +4253,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25A02E-6716-46D4-8713-07A02FBE0746}">
-  <dimension ref="A3:G20"/>
+  <dimension ref="A3:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4174,7 +4276,7 @@
         <v>800</v>
       </c>
       <c r="C3" s="1">
-        <f>SUM(C6:C22)</f>
+        <f>SUM(C6:C20)</f>
         <v>95</v>
       </c>
     </row>
@@ -4206,6 +4308,9 @@
         <f>((C6*$B$3)/100)*B6</f>
         <v>560</v>
       </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -4221,6 +4326,9 @@
         <f t="shared" ref="D7:D16" si="0">((C7*$B$3)/100)*B7</f>
         <v>168</v>
       </c>
+      <c r="G7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -4236,6 +4344,9 @@
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -4251,6 +4362,9 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
+      <c r="G9" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -4266,6 +4380,9 @@
         <f t="shared" si="0"/>
         <v>343.2</v>
       </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -4282,7 +4399,7 @@
         <v>128</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -4300,7 +4417,7 @@
         <v>364.79999999999995</v>
       </c>
       <c r="G12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -4318,7 +4435,7 @@
         <v>207.20000000000002</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -4336,7 +4453,7 @@
         <v>322</v>
       </c>
       <c r="G14" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -4354,7 +4471,7 @@
         <v>212.79999999999998</v>
       </c>
       <c r="G15" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -4371,32 +4488,252 @@
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>61</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1">
+        <v>50</v>
+      </c>
+      <c r="C24" s="17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C25" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="1">
+        <v>11</v>
+      </c>
+      <c r="C26" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="1">
+        <v>13</v>
+      </c>
+      <c r="C27" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16.5</v>
+      </c>
+      <c r="C28" s="17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="1">
+        <v>26</v>
+      </c>
+      <c r="C31" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1">
+        <v>35</v>
+      </c>
+      <c r="C32" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1">
+        <v>19</v>
+      </c>
+      <c r="C33" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B34" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34" s="17">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16</v>
+      </c>
+      <c r="C35" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="20"/>
+      <c r="C36" s="17"/>
+    </row>
+    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B37" s="1">
+        <v>10</v>
+      </c>
+      <c r="C37" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="1">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="16">
+        <f>SUM(C21:C47)</f>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06B48D1-1C59-4745-AEA2-46B17E9D4484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60BDE1-05A5-434A-ACFC-6C50F3B8A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="83">
   <si>
     <t>Giornata</t>
   </si>
@@ -231,42 +231,15 @@
     <t>somma gol 2</t>
   </si>
   <si>
-    <t>0-1</t>
-  </si>
-  <si>
-    <t>0-2</t>
-  </si>
-  <si>
-    <t>0-3</t>
-  </si>
-  <si>
     <t>ris 1-1</t>
   </si>
   <si>
-    <t>ris 2-2</t>
-  </si>
-  <si>
-    <t>ris 3-3</t>
-  </si>
-  <si>
-    <t>1-0</t>
-  </si>
-  <si>
-    <t>2-0</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
     <t>2-1</t>
   </si>
   <si>
-    <t>3-0</t>
-  </si>
-  <si>
-    <t>3-1</t>
-  </si>
-  <si>
     <t>4-0 0-4 altro</t>
   </si>
   <si>
@@ -288,12 +261,6 @@
     <t>6.80</t>
   </si>
   <si>
-    <t>12.50</t>
-  </si>
-  <si>
-    <t>1-3</t>
-  </si>
-  <si>
     <t>somma gol 1</t>
   </si>
   <si>
@@ -304,6 +271,18 @@
   </si>
   <si>
     <t>3.55</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>1-0 2-0 3-0</t>
+  </si>
+  <si>
+    <t>5.30</t>
+  </si>
+  <si>
+    <t>0-1 0-2 0-3</t>
   </si>
 </sst>
 </file>
@@ -4253,10 +4232,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25A02E-6716-46D4-8713-07A02FBE0746}">
-  <dimension ref="A3:G49"/>
+  <dimension ref="A3:G41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4491,10 +4470,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C21" s="17">
         <v>5</v>
@@ -4502,233 +4481,173 @@
     </row>
     <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="C22" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C23" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>70</v>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="C23" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="1">
-        <v>50</v>
-      </c>
-      <c r="C24" s="17">
-        <v>1.5</v>
+        <v>11</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1">
-        <v>9.8000000000000007</v>
+      <c r="A25" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="C25" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
-        <v>65</v>
+      <c r="A26" s="20" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="1">
-        <v>11</v>
+        <v>6.2</v>
       </c>
       <c r="C26" s="17">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B27" s="1">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C27" s="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="1">
+        <v>11.5</v>
+      </c>
+      <c r="C28" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B28" s="1">
-        <v>16.5</v>
-      </c>
-      <c r="C28" s="17">
-        <v>3.5</v>
-      </c>
-    </row>
     <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C29" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="C31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1">
-        <v>26</v>
-      </c>
-      <c r="C31" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20" t="s">
-        <v>67</v>
-      </c>
       <c r="B32" s="1">
-        <v>35</v>
-      </c>
-      <c r="C32" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+        <v>5.4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.7</v>
+      </c>
+      <c r="C34" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1">
-        <v>19</v>
-      </c>
-      <c r="C33" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="1">
-        <v>23</v>
-      </c>
-      <c r="C34" s="17">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
+      <c r="B35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="1">
-        <v>16</v>
-      </c>
-      <c r="C35" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="C36" s="17"/>
-    </row>
-    <row r="37" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B37" s="1">
-        <v>10</v>
-      </c>
-      <c r="C37" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="1">
-        <v>10</v>
-      </c>
-      <c r="C38" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C39" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="B40" s="1">
-        <v>5.4</v>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C42" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49" s="16">
-        <f>SUM(C21:C47)</f>
-        <v>83</v>
+      <c r="C41" s="16">
+        <f>SUM(C21:C39)</f>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F60BDE1-05A5-434A-ACFC-6C50F3B8A22C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6DFA3-C286-4B4B-BA3F-307ECC43CA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
     <sheet name="Serie A 22-23" sheetId="2" r:id="rId2"/>
     <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId3"/>
-    <sheet name="Foglio1" sheetId="4" r:id="rId4"/>
+    <sheet name="Scommesse Gol rischiosa" sheetId="5" r:id="rId4"/>
+    <sheet name="Scommesse Gol non rischiosa" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,239 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Fabio Rapicano</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7248C532-ED23-4FFC-A0F0-175AA454CA8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4-2 FAV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H4" authorId="0" shapeId="0" xr:uid="{23F6D54A-8005-4F34-8ADC-7D1219E59192}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3-3 PAR</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{CDCCB2D8-A2CC-47B5-AF3E-EC00CF0E59FB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+9-0 fav
+4-2 fav</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{154124DD-D640-446E-A26C-41EB432816E9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6-0 Fav</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0" xr:uid="{159B8775-6184-4D09-AEAE-850F483899F4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5-2 FAV
+5-2 FAV</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0" xr:uid="{EDEBCC4E-B299-4943-9AA4-D616E4220099}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+4-2 fav 
+5-1 fav</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="0" shapeId="0" xr:uid="{01E1E70F-0522-4504-9902-792B8CA34877}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+6-2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{D6801A6A-526E-4C00-BD41-706E63DE7958}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+3-3 par
+6-3 fav
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{DD5B3CFA-BEDF-4748-821E-F5EF92DC996B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Fabio Rapicano:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5-1 FAV</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="72">
   <si>
     <t>Giornata</t>
   </si>
@@ -81,9 +313,6 @@
     <t>4/10</t>
   </si>
   <si>
-    <t>under 3.5</t>
-  </si>
-  <si>
     <t>8/9</t>
   </si>
   <si>
@@ -156,140 +385,113 @@
     <t xml:space="preserve">SOMMA GOL &gt;4 </t>
   </si>
   <si>
-    <t>BUDGET</t>
-  </si>
-  <si>
-    <t>TIPO SCOMMESSA</t>
-  </si>
-  <si>
-    <t>QUOTA</t>
-  </si>
-  <si>
-    <t>0 goal</t>
-  </si>
-  <si>
-    <t>percen</t>
-  </si>
-  <si>
-    <t>poss.vicita</t>
-  </si>
-  <si>
-    <t>somma gol &gt; 4</t>
-  </si>
-  <si>
-    <t>favorita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in caso di x =&gt; 0-0 </t>
-  </si>
-  <si>
-    <t>x fav + U 4,5</t>
-  </si>
-  <si>
-    <t>xfav + O 1,5</t>
-  </si>
-  <si>
-    <t>in caso di x =&gt; 1-1</t>
-  </si>
-  <si>
-    <t>in caso di x =&gt; 1-0 se fav</t>
-  </si>
-  <si>
-    <t>in caso di x =&gt; 1-0 se sfav</t>
-  </si>
-  <si>
-    <t>vince fav tra 2gol e 4 tot</t>
-  </si>
-  <si>
-    <t>vince sfav tra 2gol e 4 tot</t>
-  </si>
-  <si>
-    <t>x con gol tra 2 e 4</t>
-  </si>
-  <si>
-    <t>x con + 4 gol</t>
-  </si>
-  <si>
-    <t>1-0 fav</t>
-  </si>
-  <si>
-    <t>0-1 sfav</t>
-  </si>
-  <si>
-    <t>vince fav con +4 gol</t>
-  </si>
-  <si>
-    <t>vince sfav + 4 gol</t>
-  </si>
-  <si>
-    <t>somma gol</t>
-  </si>
-  <si>
-    <t>somma gol 3</t>
-  </si>
-  <si>
-    <t>somma gol 2</t>
-  </si>
-  <si>
-    <t>ris 1-1</t>
-  </si>
-  <si>
-    <t>1-2</t>
-  </si>
-  <si>
-    <t>2-1</t>
-  </si>
-  <si>
-    <t>4-0 0-4 altro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-2 33 4-4 </t>
-  </si>
-  <si>
-    <t>3-0 3-1 3-2</t>
-  </si>
-  <si>
-    <t>0-3 1-3 2-3</t>
-  </si>
-  <si>
-    <t>Somma gol 0</t>
-  </si>
-  <si>
-    <t>13.00</t>
-  </si>
-  <si>
-    <t>6.80</t>
-  </si>
-  <si>
-    <t>somma gol 1</t>
-  </si>
-  <si>
-    <t>somma gol 4</t>
-  </si>
-  <si>
-    <t>4.50</t>
-  </si>
-  <si>
-    <t>3.55</t>
-  </si>
-  <si>
-    <t>0-0</t>
-  </si>
-  <si>
-    <t>1-0 2-0 3-0</t>
-  </si>
-  <si>
-    <t>5.30</t>
-  </si>
-  <si>
-    <t>0-1 0-2 0-3</t>
+    <t>Quota</t>
+  </si>
+  <si>
+    <t>Percent. %</t>
+  </si>
+  <si>
+    <t>€uri da scomm.</t>
+  </si>
+  <si>
+    <t>Tipo scommessa</t>
+  </si>
+  <si>
+    <t>Possib Vincita</t>
+  </si>
+  <si>
+    <t>Guadagno</t>
+  </si>
+  <si>
+    <t>Budget Totale</t>
+  </si>
+  <si>
+    <t>under 1.5 (0-0;1-0;0-1;1-1)</t>
+  </si>
+  <si>
+    <t>2-2 ; 3-3;  4-4</t>
+  </si>
+  <si>
+    <t>0-2; 0-3</t>
+  </si>
+  <si>
+    <t>2-0; 3-0</t>
+  </si>
+  <si>
+    <t>2-1; 3-1; 4-1</t>
+  </si>
+  <si>
+    <t>1-2; 1-3; 1-4</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>5-0 vittoria favorita</t>
+  </si>
+  <si>
+    <t>5-1 vittoria favorita</t>
+  </si>
+  <si>
+    <t>5-2 vittoria favorita</t>
+  </si>
+  <si>
+    <t>6-0 vittoria favorita</t>
+  </si>
+  <si>
+    <t>6-1 vittoria favorita</t>
+  </si>
+  <si>
+    <t>6-2 vittoria favorita</t>
+  </si>
+  <si>
+    <t>4-3 sfavorita</t>
+  </si>
+  <si>
+    <t>2-4 vittoria favorita</t>
+  </si>
+  <si>
+    <t>tot perc:</t>
+  </si>
+  <si>
+    <t>tot da scomm</t>
+  </si>
+  <si>
+    <t>4-2 vittoria sfavorita</t>
+  </si>
+  <si>
+    <t>5/10</t>
+  </si>
+  <si>
+    <t>3/10</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>4-0 vittoria favorita</t>
+  </si>
+  <si>
+    <t>0-4 vittoria Sfavorita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
+  </numFmts>
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -329,18 +531,69 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Abadi"/>
+      <b/>
+      <sz val="8"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,8 +635,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -406,13 +669,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color rgb="FFFF8001"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -453,31 +752,48 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="20% - Colore 3" xfId="2" builtinId="38"/>
+    <cellStyle name="Calcolo" xfId="4" builtinId="22"/>
+    <cellStyle name="Cella collegata" xfId="5" builtinId="24"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
+    <cellStyle name="Neutrale" xfId="3" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -789,11 +1105,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -808,7 +1124,7 @@
     <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -828,16 +1144,22 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -857,8 +1179,27 @@
         <f>400+360</f>
         <v>760</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="26"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -878,8 +1219,27 @@
         <f>1700</f>
         <v>1700</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="26"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -898,8 +1258,27 @@
       <c r="E4" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="26"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -917,8 +1296,27 @@
       <c r="E5" s="1">
         <v>750</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="26"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -937,8 +1335,27 @@
       <c r="E6" s="1">
         <v>1600</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L6" s="26"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -958,8 +1375,27 @@
         <f>525+525+340</f>
         <v>1390</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" s="26"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -979,8 +1415,27 @@
         <f>390</f>
         <v>390</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="26"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1000,8 +1455,27 @@
         <f>460+435+350</f>
         <v>1245</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F9" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="26"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1017,8 +1491,27 @@
         <f>360+400+350</f>
         <v>1110</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="26"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1038,8 +1531,27 @@
         <f>350</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="26"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1055,8 +1567,27 @@
         <f>335+350+370+333</f>
         <v>1388</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F12" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1072,8 +1603,27 @@
         <f>500+380</f>
         <v>880</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F13" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1089,8 +1639,19 @@
         <f>320+433</f>
         <v>753</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1106,8 +1667,15 @@
         <f>330+380</f>
         <v>710</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="26"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1123,8 +1691,15 @@
         <f>370</f>
         <v>370</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1139,8 +1714,15 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1156,8 +1738,15 @@
         <f>350</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1173,8 +1762,15 @@
         <f>775+460+390</f>
         <v>1625</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1190,8 +1786,15 @@
         <f>370+330+340</f>
         <v>1040</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1209,8 +1812,15 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1226,8 +1836,15 @@
         <f>350+300+370+350+350</f>
         <v>1720</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1243,8 +1860,15 @@
         <f>390+370</f>
         <v>760</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1260,8 +1884,15 @@
         <f>320+420+365+370</f>
         <v>1475</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1277,8 +1908,15 @@
         <f>340+510</f>
         <v>850</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1294,8 +1932,15 @@
         <f>310+370</f>
         <v>680</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1311,8 +1956,15 @@
         <f>380</f>
         <v>380</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1328,8 +1980,15 @@
         <f>365+430+350</f>
         <v>1145</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -1345,8 +2004,15 @@
         <f>370+350+390</f>
         <v>1110</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -1362,8 +2028,15 @@
         <f>390+300+315</f>
         <v>1005</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -1379,8 +2052,15 @@
         <f>340</f>
         <v>340</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -1400,8 +2080,15 @@
         <f>410</f>
         <v>410</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -1417,8 +2104,15 @@
         <f>680+320+315+410</f>
         <v>1725</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -1438,8 +2132,15 @@
         <f>340+350</f>
         <v>690</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -1458,8 +2159,15 @@
         <f>350</f>
         <v>350</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -1478,8 +2186,15 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -1499,8 +2214,15 @@
         <f>420+420</f>
         <v>840</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -1520,8 +2242,15 @@
         <f>310+460+340+560</f>
         <v>1670</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -1541,8 +2270,15 @@
         <f>460+390+365</f>
         <v>1215</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -1563,6 +2299,7 @@
   </sheetData>
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1571,7 +2308,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2771,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2807,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -2816,10 +3553,10 @@
         <v>10</v>
       </c>
       <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -2842,22 +3579,22 @@
         <v>660</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="K2" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -2880,22 +3617,22 @@
         <v>1675</v>
       </c>
       <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="I3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -2919,22 +3656,22 @@
         <v>650</v>
       </c>
       <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="H4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -2958,22 +3695,22 @@
         <v>800</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -2997,22 +3734,22 @@
         <v>750</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="J6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -3036,22 +3773,22 @@
         <v>975</v>
       </c>
       <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="H7" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -3074,22 +3811,22 @@
         <v>350</v>
       </c>
       <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="K8" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -3112,22 +3849,22 @@
         <v>340</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
@@ -3151,22 +3888,22 @@
         <v>1445</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,22 +3926,22 @@
         <v>340</v>
       </c>
       <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="H11" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
@@ -3227,22 +3964,22 @@
         <v>800</v>
       </c>
       <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="J12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="9" t="s">
+      <c r="K12" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -3265,22 +4002,22 @@
         <v>350</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -3302,22 +4039,22 @@
         <v>0</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J14" s="9" t="s">
+      <c r="K14" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -3340,22 +4077,22 @@
         <v>365</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -3378,22 +4115,22 @@
         <v>340</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="K16" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -3416,22 +4153,22 @@
         <v>760</v>
       </c>
       <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="I17" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="J17" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="K17" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3454,22 +4191,22 @@
         <v>1420</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3493,22 +4230,22 @@
         <v>925</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I19" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -3532,22 +4269,22 @@
         <v>775</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="K20" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -3570,22 +4307,22 @@
         <v>370</v>
       </c>
       <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="I21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="K21" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -3608,22 +4345,22 @@
         <v>340</v>
       </c>
       <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="H22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="J22" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -3646,22 +4383,22 @@
         <v>340</v>
       </c>
       <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23" s="8" t="s">
+      <c r="I23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -3685,22 +4422,22 @@
         <v>990</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3724,22 +4461,22 @@
         <v>1345</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -3763,22 +4500,22 @@
         <v>1070</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3802,22 +4539,22 @@
         <v>1500</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -3839,22 +4576,22 @@
         <v>390</v>
       </c>
       <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="H28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3877,22 +4614,22 @@
         <v>2560</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -3915,22 +4652,22 @@
         <v>350</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="I30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="K30" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -3952,22 +4689,22 @@
         <v>1255</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I31" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -3990,22 +4727,22 @@
         <v>0</v>
       </c>
       <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="9" t="s">
+      <c r="K32" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -4026,22 +4763,22 @@
         <v>340</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="8" t="s">
+      <c r="I33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="J33" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -4064,22 +4801,22 @@
         <v>1715</v>
       </c>
       <c r="F34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="H34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>19</v>
-      </c>
       <c r="J34" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -4103,22 +4840,22 @@
         <v>1190</v>
       </c>
       <c r="F35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G35" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="H35" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -4168,16 +4905,16 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
@@ -4185,24 +4922,24 @@
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="8" t="s">
         <v>32</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="E49" s="1">
         <v>14</v>
@@ -4213,12 +4950,12 @@
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E52" s="1">
         <v>4</v>
@@ -4231,428 +4968,1027 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C25A02E-6716-46D4-8713-07A02FBE0746}">
-  <dimension ref="A3:G41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79493EA-4998-4071-AA78-976D82956F21}">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="14" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="1">
+      <c r="F3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(E4*$D$1)/100</f>
+        <v>320</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>848</v>
+      </c>
+      <c r="H4" s="14">
+        <f>G4-$F$25</f>
+        <v>0.39999999999997726</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(E5*$D$1)/100</f>
+        <v>57.6</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G22" si="0">F5*D5</f>
+        <v>864</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H22" si="1">G5-$F$25</f>
+        <v>16.399999999999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F22" si="2">(E6*$D$1)/100</f>
+        <v>116</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>858.40000000000009</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>10.800000000000068</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>22.399999999999977</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>32.399999999999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>870.40000000000009</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>22.800000000000068</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>22.4</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>896</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>48.399999999999977</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
+        <v>32.400000000000091</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.125</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" ref="G12" si="3">F12*D12</f>
+        <v>900</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>52.399999999999977</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="1">
+        <v>55</v>
+      </c>
+      <c r="E13" s="25">
+        <v>2</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>32.399999999999977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="1">
+        <v>175</v>
+      </c>
+      <c r="E14" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" ref="G14" si="4">F14*D14</f>
+        <v>875</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>27.399999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="E25" s="1">
+        <f>SUM(E4:E22)</f>
+        <v>105.95</v>
+      </c>
+      <c r="F25" s="14">
+        <f>SUM(F4:F22)</f>
+        <v>847.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16">
         <v>800</v>
       </c>
-      <c r="C3" s="1">
-        <f>SUM(C6:C20)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="G3" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="1">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1">
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="E4" s="1">
+        <v>40</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(E4*$D$1)/100</f>
+        <v>320</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>848</v>
+      </c>
+      <c r="H4" s="14">
+        <f>G4-$F$24</f>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(E5*$D$1)/100</f>
+        <v>57.6</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G21" si="0">F5*D5</f>
+        <v>864</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" ref="H5:H21" si="1">G5-$F$24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F21" si="2">(E6*$D$1)/100</f>
+        <v>116</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>858.40000000000009</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>-5.5999999999999091</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>870.40000000000009</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>6.4000000000000909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>22.4</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>896</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
+        <v>16.000000000000114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+      <c r="E12" s="25">
+        <v>1.125</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="1">
+        <v>150</v>
+      </c>
+      <c r="E13" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
+        <v>6.4</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="25">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1">
+        <v>200</v>
+      </c>
+      <c r="E15" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="1">
+        <v>175</v>
+      </c>
+      <c r="E16" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D6" s="1">
-        <f>((C6*$B$3)/100)*B6</f>
-        <v>560</v>
-      </c>
-      <c r="G6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C7" s="1">
-        <v>14</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:D16" si="0">((C7*$B$3)/100)*B7</f>
-        <v>168</v>
-      </c>
-      <c r="G7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.5</v>
-      </c>
-      <c r="C8" s="1">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1">
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-      <c r="G8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1">
-        <v>4</v>
-      </c>
-      <c r="C9" s="1">
+        <v>875</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="1">
+        <v>175</v>
+      </c>
+      <c r="E17" s="25">
+        <v>0.625</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="D9" s="1">
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="C10" s="1">
-        <v>22</v>
-      </c>
-      <c r="D10" s="1">
+        <v>875</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="1">
+        <v>300</v>
+      </c>
+      <c r="E18" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G18" s="14">
         <f t="shared" si="0"/>
-        <v>343.2</v>
-      </c>
-      <c r="G10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B11" s="1">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
+        <v>900</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1">
+        <v>450</v>
+      </c>
+      <c r="E19" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C12" s="1">
-        <v>12</v>
-      </c>
-      <c r="D12" s="1">
+        <v>900</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1">
+        <v>450</v>
+      </c>
+      <c r="E20" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="14">
         <f t="shared" si="0"/>
-        <v>364.79999999999995</v>
-      </c>
-      <c r="G12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="C13" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D13" s="1">
+        <v>900</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="1">
+        <v>550</v>
+      </c>
+      <c r="E21" s="25">
+        <v>0.25</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G21" s="14">
         <f t="shared" si="0"/>
-        <v>207.20000000000002</v>
-      </c>
-      <c r="G13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="C14" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>322</v>
-      </c>
-      <c r="G14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="1"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="E23" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C15" s="1">
-        <v>7</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>212.79999999999998</v>
-      </c>
-      <c r="G15" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="F23" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="1">
-        <v>2.95</v>
-      </c>
-      <c r="C16" s="1">
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="1">
-        <v>11</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="1">
-        <v>6.2</v>
-      </c>
-      <c r="C26" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27" s="1">
-        <v>16</v>
-      </c>
-      <c r="C27" s="17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="1">
-        <v>11.5</v>
-      </c>
-      <c r="C28" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C29" s="17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="1">
-        <v>10.5</v>
-      </c>
-      <c r="C31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1">
-        <v>5.4</v>
-      </c>
-      <c r="C32" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="16">
-        <f>SUM(C21:C39)</f>
-        <v>92</v>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="E24" s="1">
+        <f>SUM(E4:E21)</f>
+        <v>108</v>
+      </c>
+      <c r="F24" s="14">
+        <f>SUM(F4:F21)</f>
+        <v>864</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="6" type="noConversion"/>
+  <mergeCells count="23">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85E6DFA3-C286-4B4B-BA3F-307ECC43CA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B960C3-4DF7-46D8-AC0C-5FFF6CD94803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId3"/>
     <sheet name="Scommesse Gol rischiosa" sheetId="5" r:id="rId4"/>
     <sheet name="Scommesse Gol non rischiosa" sheetId="6" r:id="rId5"/>
+    <sheet name="modulo di calcolo" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,6 +39,20 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Fabio Rapicano</author>
+    <author>tc={76C2BEB7-B813-463A-91B9-F57E16DAF80B}</author>
+    <author>tc={5394C5A5-4F67-48A4-BD6E-55D28AD58806}</author>
+    <author>tc={37E083B4-B7D1-48DC-811B-0D78C9789871}</author>
+    <author>tc={D1FCA04E-F287-418D-8FCE-A4F5C6C5EADB}</author>
+    <author>tc={15229010-C595-473D-95F8-BD67FB6B6EF0}</author>
+    <author>tc={7F529FDA-9A89-4E96-9A14-E533F552ACD9}</author>
+    <author>tc={0579B13F-3613-447B-9738-CD8DEEC31A89}</author>
+    <author>tc={3EA51C18-A036-40F4-99F9-00966E15CC26}</author>
+    <author>tc={964C264D-9F0C-43E5-B0A3-C02110EE1B45}</author>
+    <author>tc={C4872552-B9BD-4F94-9215-47B778B5A5B2}</author>
+    <author>tc={DB2D74A9-9737-45DE-8ADB-83F11782B89A}</author>
+    <author>tc={125C0395-AAAD-4415-B5DA-C69BE34DDC41}</author>
+    <author>tc={382BB432-EAE1-44B5-A049-B106E3E8A9E7}</author>
+    <author>tc={32BA2D5E-7063-4C4B-B15F-17468EDB07EB}</author>
   </authors>
   <commentList>
     <comment ref="H3" authorId="0" shapeId="0" xr:uid="{7248C532-ED23-4FFC-A0F0-175AA454CA8D}">
@@ -261,12 +276,131 @@
         </r>
       </text>
     </comment>
+    <comment ref="H16" authorId="1" shapeId="0" xr:uid="{76C2BEB7-B813-463A-91B9-F57E16DAF80B}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+4-3 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H17" authorId="2" shapeId="0" xr:uid="{5394C5A5-4F67-48A4-BD6E-55D28AD58806}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+4-3 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H19" authorId="3" shapeId="0" xr:uid="{37E083B4-B7D1-48DC-811B-0D78C9789871}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+2-4 fav</t>
+      </text>
+    </comment>
+    <comment ref="H22" authorId="4" shapeId="0" xr:uid="{D1FCA04E-F287-418D-8FCE-A4F5C6C5EADB}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+2-4 SFAV</t>
+      </text>
+    </comment>
+    <comment ref="H25" authorId="5" shapeId="0" xr:uid="{15229010-C595-473D-95F8-BD67FB6B6EF0}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+2-4 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H27" authorId="6" shapeId="0" xr:uid="{7F529FDA-9A89-4E96-9A14-E533F552ACD9}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+7-0 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="7" shapeId="0" xr:uid="{0579B13F-3613-447B-9738-CD8DEEC31A89}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+2-4 SFAV
+Rispondi:
+3-3</t>
+      </text>
+    </comment>
+    <comment ref="H30" authorId="8" shapeId="0" xr:uid="{3EA51C18-A036-40F4-99F9-00966E15CC26}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+3-3</t>
+      </text>
+    </comment>
+    <comment ref="H31" authorId="9" shapeId="0" xr:uid="{964C264D-9F0C-43E5-B0A3-C02110EE1B45}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+1-5 SFAV</t>
+      </text>
+    </comment>
+    <comment ref="H32" authorId="10" shapeId="0" xr:uid="{C4872552-B9BD-4F94-9215-47B778B5A5B2}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+1-6 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H33" authorId="11" shapeId="0" xr:uid="{DB2D74A9-9737-45DE-8ADB-83F11782B89A}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+3-3
+6-1 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H35" authorId="12" shapeId="0" xr:uid="{125C0395-AAAD-4415-B5DA-C69BE34DDC41}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+4-3 FAV
+6-0 FAV
+4-3 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H36" authorId="13" shapeId="0" xr:uid="{382BB432-EAE1-44B5-A049-B106E3E8A9E7}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+3-5 FAV
+1-5 SFAV
+5-3 FAV</t>
+      </text>
+    </comment>
+    <comment ref="H39" authorId="14" shapeId="0" xr:uid="{32BA2D5E-7063-4C4B-B15F-17468EDB07EB}">
+      <text>
+        <t>[Commento in thread]
+La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
+Commento:
+4-4</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="75">
   <si>
     <t>Giornata</t>
   </si>
@@ -430,9 +564,6 @@
     <t>3-2</t>
   </si>
   <si>
-    <t>3-4</t>
-  </si>
-  <si>
     <t>5-0 vittoria favorita</t>
   </si>
   <si>
@@ -451,9 +582,6 @@
     <t>6-2 vittoria favorita</t>
   </si>
   <si>
-    <t>4-3 sfavorita</t>
-  </si>
-  <si>
     <t>2-4 vittoria favorita</t>
   </si>
   <si>
@@ -463,9 +591,6 @@
     <t>tot da scomm</t>
   </si>
   <si>
-    <t>4-2 vittoria sfavorita</t>
-  </si>
-  <si>
     <t>5/10</t>
   </si>
   <si>
@@ -482,6 +607,24 @@
   </si>
   <si>
     <t>0-4 vittoria Sfavorita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">possibili alternative </t>
+  </si>
+  <si>
+    <t>under 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (0-0;1-0;0-1;1-1)</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>senza 1-1</t>
+  </si>
+  <si>
+    <t>(0-0;1-0;0-1;1-1)</t>
   </si>
 </sst>
 </file>
@@ -593,7 +736,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -643,6 +786,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -711,7 +860,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -755,31 +904,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="8" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4"/>
@@ -787,6 +915,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Colore 3" xfId="2" builtinId="38"/>
@@ -807,6 +966,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Rapicano Fabio" id="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" userId="S::Fabio.Rapicano@corob.com::92db58b6-d190-4935-99a4-d8ed0acd4993" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1104,27 +1269,82 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="H16" dT="2023-08-10T09:21:03.51" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{76C2BEB7-B813-463A-91B9-F57E16DAF80B}">
+    <text>4-3 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H17" dT="2023-08-10T09:27:51.37" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{5394C5A5-4F67-48A4-BD6E-55D28AD58806}">
+    <text>4-3 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H19" dT="2023-08-10T09:40:15.51" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{37E083B4-B7D1-48DC-811B-0D78C9789871}">
+    <text>2-4 fav</text>
+  </threadedComment>
+  <threadedComment ref="H22" dT="2023-08-10T09:54:42.43" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{D1FCA04E-F287-418D-8FCE-A4F5C6C5EADB}">
+    <text>2-4 SFAV</text>
+  </threadedComment>
+  <threadedComment ref="H25" dT="2023-08-10T10:02:17.55" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{15229010-C595-473D-95F8-BD67FB6B6EF0}">
+    <text>2-4 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H27" dT="2023-08-10T10:09:01.84" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{7F529FDA-9A89-4E96-9A14-E533F552ACD9}">
+    <text>7-0 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H29" dT="2023-08-10T10:15:08.88" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{0579B13F-3613-447B-9738-CD8DEEC31A89}">
+    <text>2-4 SFAV</text>
+  </threadedComment>
+  <threadedComment ref="H29" dT="2023-08-10T10:15:24.22" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{DE134D66-496A-4C23-A06F-75609DBF1ACD}" parentId="{0579B13F-3613-447B-9738-CD8DEEC31A89}">
+    <text>3-3</text>
+  </threadedComment>
+  <threadedComment ref="H30" dT="2023-08-10T10:23:01.71" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{3EA51C18-A036-40F4-99F9-00966E15CC26}">
+    <text>3-3</text>
+  </threadedComment>
+  <threadedComment ref="H31" dT="2023-08-10T10:22:28.80" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{964C264D-9F0C-43E5-B0A3-C02110EE1B45}">
+    <text>1-5 SFAV</text>
+  </threadedComment>
+  <threadedComment ref="H32" dT="2023-08-10T10:25:51.05" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{C4872552-B9BD-4F94-9215-47B778B5A5B2}">
+    <text>1-6 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H33" dT="2023-08-10T10:33:05.76" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{DB2D74A9-9737-45DE-8ADB-83F11782B89A}">
+    <text>3-3
+6-1 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H35" dT="2023-08-10T10:39:31.16" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{125C0395-AAAD-4415-B5DA-C69BE34DDC41}">
+    <text>4-3 FAV
+6-0 FAV
+4-3 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H36" dT="2023-08-10T10:47:39.54" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{382BB432-EAE1-44B5-A049-B106E3E8A9E7}">
+    <text>3-5 FAV
+1-5 SFAV
+5-3 FAV</text>
+  </threadedComment>
+  <threadedComment ref="H39" dT="2023-08-10T10:55:26.37" personId="{F776A85B-59AB-4A96-8732-1B84EF6EC3E8}" id="{32BA2D5E-7063-4C4B-B15F-17468EDB07EB}">
+    <text>4-4</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="B25" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1159,7 +1379,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1183,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>8</v>
@@ -1197,9 +1417,9 @@
       <c r="K2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="26"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="19"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1232,14 +1452,14 @@
         <v>9</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="26"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L3" s="19"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1276,9 +1496,9 @@
       <c r="K4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="26"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="19"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1309,14 +1529,14 @@
         <v>11</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="26"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="L5" s="19"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1339,7 +1559,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>9</v>
@@ -1351,11 +1571,11 @@
         <v>13</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L6" s="26"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L6" s="19"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1391,11 +1611,11 @@
         <v>13</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" s="26"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L7" s="19"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1433,9 +1653,9 @@
       <c r="K8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="26"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1459,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>9</v>
@@ -1473,9 +1693,9 @@
       <c r="K9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="26"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="19"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1509,9 +1729,9 @@
       <c r="K10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="26"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="19"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1547,11 +1767,11 @@
         <v>13</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="L11" s="26"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="L11" s="19"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1568,11 +1788,11 @@
         <v>1388</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="H12" s="9" t="s">
         <v>8</v>
       </c>
@@ -1580,14 +1800,14 @@
         <v>8</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="26"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="19"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1604,10 +1824,10 @@
         <v>880</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>8</v>
@@ -1616,14 +1836,14 @@
         <v>8</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="L13" s="26"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="19"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1642,16 +1862,24 @@
       <c r="F14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="26"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L14" s="19"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1667,15 +1895,27 @@
         <f>330+380</f>
         <v>710</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="26"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="19"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1691,15 +1931,27 @@
         <f>370</f>
         <v>370</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="26"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L16" s="19"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1714,15 +1966,27 @@
       <c r="E17" s="1">
         <v>0</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="26"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F17" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L17" s="19"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -1738,15 +2002,27 @@
         <f>350</f>
         <v>350</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="26"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L18" s="19"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -1762,15 +2038,27 @@
         <f>775+460+390</f>
         <v>1625</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="26"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="19"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -1786,15 +2074,27 @@
         <f>370+330+340</f>
         <v>1040</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="26"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="19"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -1812,15 +2112,27 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="26"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F21" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" s="19"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -1836,15 +2148,27 @@
         <f>350+300+370+350+350</f>
         <v>1720</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="26"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F22" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="19"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1860,15 +2184,27 @@
         <f>390+370</f>
         <v>760</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="26"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F23" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1884,15 +2220,27 @@
         <f>320+420+365+370</f>
         <v>1475</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="26"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1908,15 +2256,27 @@
         <f>340+510</f>
         <v>850</v>
       </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="26"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -1932,15 +2292,27 @@
         <f>310+370</f>
         <v>680</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="26"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="19"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -1956,15 +2328,27 @@
         <f>380</f>
         <v>380</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="26"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F27" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L27" s="19"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -1980,15 +2364,27 @@
         <f>365+430+350</f>
         <v>1145</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="26"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F28" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L28" s="19"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2004,15 +2400,27 @@
         <f>370+350+390</f>
         <v>1110</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
-      <c r="L29" s="26"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" s="19"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2028,15 +2436,27 @@
         <f>390+300+315</f>
         <v>1005</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="26"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L30" s="19"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2052,15 +2472,27 @@
         <f>340</f>
         <v>340</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
-      <c r="L31" s="26"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L31" s="19"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2080,15 +2512,27 @@
         <f>410</f>
         <v>410</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
-      <c r="L32" s="26"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F32" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L32" s="19"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2104,15 +2548,27 @@
         <f>680+320+315+410</f>
         <v>1725</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
-      <c r="L33" s="26"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" s="19"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2132,15 +2588,27 @@
         <f>340+350</f>
         <v>690</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="26"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L34" s="19"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2159,15 +2627,27 @@
         <f>350</f>
         <v>350</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="26"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L35" s="19"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2186,15 +2666,27 @@
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="26"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F36" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="19"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2214,15 +2706,27 @@
         <f>420+420</f>
         <v>840</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
-      <c r="L37" s="26"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I37" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K37" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L37" s="19"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2242,15 +2746,27 @@
         <f>310+460+340+560</f>
         <v>1670</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
-      <c r="L38" s="26"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="I38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L38" s="19"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2270,15 +2786,27 @@
         <f>460+390+365</f>
         <v>1215</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="26"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F39" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L39" s="19"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2307,23 +2835,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E046816-9386-404B-AF3D-393A00F6F5F1}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2349,7 +2877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2378,7 +2906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2407,7 +2935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2436,7 +2964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2464,7 +2992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2494,7 +3022,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2524,7 +3052,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2553,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2583,7 +3111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2613,7 +3141,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2643,7 +3171,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2672,7 +3200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2702,7 +3230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2732,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2762,7 +3290,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2791,7 +3319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2821,7 +3349,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2850,7 +3378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2880,7 +3408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2910,7 +3438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2940,7 +3468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2970,7 +3498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3000,7 +3528,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3030,7 +3558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3060,7 +3588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3090,7 +3618,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3120,7 +3648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3150,7 +3678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3180,7 +3708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3210,7 +3738,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3240,7 +3768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3270,7 +3798,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3299,7 +3827,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3328,7 +3856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3358,7 +3886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3388,7 +3916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3418,7 +3946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3448,7 +3976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -3477,7 +4005,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -3508,23 +4036,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
   <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="9"/>
+    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.109375" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5546875" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.109375" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3559,7 +4087,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3597,7 +4125,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3635,7 +4163,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3674,7 +4202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3713,7 +4241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3752,7 +4280,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3791,7 +4319,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3829,7 +4357,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3867,7 +4395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3906,7 +4434,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3944,7 +4472,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3982,7 +4510,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4020,7 +4548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4057,7 +4585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4095,7 +4623,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4133,7 +4661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4171,7 +4699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4209,7 +4737,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4248,7 +4776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4287,7 +4815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4325,7 +4853,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4363,7 +4891,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4401,7 +4929,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4440,7 +4968,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -4479,7 +5007,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -4518,7 +5046,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -4557,7 +5085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4594,7 +5122,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4632,7 +5160,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4670,7 +5198,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4707,7 +5235,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4745,7 +5273,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4781,7 +5309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4819,7 +5347,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4858,17 +5386,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4889,12 +5417,12 @@
         <v>27475</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -4903,7 +5431,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
@@ -4917,7 +5445,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>2</v>
       </c>
@@ -4931,7 +5459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
@@ -4945,7 +5473,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -4953,7 +5481,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
@@ -4969,59 +5497,60 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79493EA-4998-4071-AA78-976D82956F21}">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1">
         <v>2.65</v>
       </c>
@@ -5037,16 +5566,25 @@
         <v>848</v>
       </c>
       <c r="H4" s="14">
-        <f>G4-$F$25</f>
-        <v>0.39999999999997726</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
+        <f t="shared" ref="H4:H14" si="0">IF(E4=0,0,G4-$F$26)</f>
+        <v>-61.200000000000045</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1">
         <v>15</v>
       </c>
@@ -5058,937 +5596,1430 @@
         <v>57.6</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G22" si="0">F5*D5</f>
+        <f t="shared" ref="G5" si="1">F5*D5</f>
         <v>864</v>
       </c>
       <c r="H5" s="14">
-        <f t="shared" ref="H5:H22" si="1">G5-$F$25</f>
-        <v>16.399999999999977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+        <f t="shared" si="0"/>
+        <v>-45.200000000000045</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="1">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7.2</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(E6*$D$1)/100</f>
+        <v>57.6</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" ref="G6:G14" si="2">F6*D6</f>
+        <v>864</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>-45.200000000000045</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="1">
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="1">
         <v>7.4</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E7" s="1">
         <v>14.5</v>
       </c>
-      <c r="F6" s="14">
-        <f t="shared" ref="F6:F22" si="2">(E6*$D$1)/100</f>
+      <c r="F7" s="14">
+        <f t="shared" ref="F7:F15" si="3">(E7*$D$1)/100</f>
         <v>116</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
+        <f t="shared" si="2"/>
+        <v>858.40000000000009</v>
+      </c>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>858.40000000000009</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="1"/>
-        <v>10.800000000000068</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+        <v>-50.799999999999955</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="1">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="1">
         <v>14.5</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>7.5</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="14">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="G8" s="14">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G7" s="14">
+        <v>870</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>870</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="1"/>
-        <v>22.399999999999977</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+        <v>-39.200000000000045</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="1">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="1">
         <v>10</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E9" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F9" s="14">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="G8" s="14">
+        <v>880</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
+        <v>-29.200000000000045</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E10" s="1">
+        <v>17</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>870.40000000000009</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>-38.799999999999955</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>960</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>50.799999999999955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>90.799999999999955</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.125</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" ref="G13" si="4">F13*D13</f>
+        <v>900</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>-9.2000000000000455</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="1">
+        <v>55</v>
+      </c>
+      <c r="E14" s="18">
+        <v>2</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
         <v>880</v>
       </c>
-      <c r="H8" s="14">
-        <f t="shared" si="1"/>
-        <v>32.399999999999977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>870.40000000000009</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="1"/>
-        <v>22.800000000000068</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="2"/>
-        <v>22.4</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="0"/>
-        <v>896</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>48.399999999999977</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="2"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="0"/>
-        <v>880.00000000000011</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="1"/>
-        <v>32.400000000000091</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="1">
-        <v>100</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1.125</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" ref="G12" si="3">F12*D12</f>
-        <v>900</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
-        <v>52.399999999999977</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="1">
-        <v>55</v>
-      </c>
-      <c r="E13" s="25">
-        <v>2</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="1"/>
-        <v>32.399999999999977</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="1">
+        <v>-29.200000000000045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="1">
         <v>175</v>
       </c>
-      <c r="E14" s="25">
+      <c r="E15" s="18">
         <v>0.625</v>
       </c>
-      <c r="F14" s="14">
-        <f t="shared" si="2"/>
+      <c r="F15" s="14">
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
-      <c r="G14" s="14">
-        <f t="shared" ref="G14" si="4">F14*D14</f>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15" si="5">F15*D15</f>
         <v>875</v>
       </c>
-      <c r="H14" s="14">
-        <f t="shared" si="1"/>
-        <v>27.399999999999977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="H15" s="14">
+        <f>IF(E15=0,0,G15-$F$26)</f>
+        <v>-34.200000000000045</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="25"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="25"/>
+      <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="25"/>
+      <c r="E18" s="18"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="25"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="25"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="25"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="25"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="E24" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="E25" s="1">
-        <f>SUM(E4:E22)</f>
-        <v>105.95</v>
-      </c>
-      <c r="F25" s="14">
-        <f>SUM(F4:F22)</f>
-        <v>847.6</v>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="E25" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="E26" s="1">
+        <f>SUM(E4:E23)</f>
+        <v>113.65</v>
+      </c>
+      <c r="F26" s="14">
+        <f>SUM(F4:F23)</f>
+        <v>909.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="25">
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
     <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:C5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>39</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(E4*$D$1)/100</f>
+        <v>312</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>936</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H19" si="0">G4-$F$22</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="1">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(E5*$D$1)/100</f>
+        <v>60</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G19" si="1">F5*D5</f>
+        <v>900</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="1">
+        <v>7.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F19" si="2">(E6*$D$1)/100</f>
+        <v>120</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="1"/>
+        <v>888</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="1">
+        <v>14.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
+        <v>928</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="1">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="1">
+        <v>6.4</v>
+      </c>
+      <c r="E9" s="1">
+        <v>17</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>870.40000000000009</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>2.4000000000000909</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="1"/>
+        <v>960</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="1">
+        <v>50</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="1">
+        <v>55</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="1"/>
+        <v>880</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1.125</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="1">
+        <v>175</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="1">
+        <v>175</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.625</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="1"/>
+        <v>875</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="1">
+        <v>300</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="1">
+        <v>450</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="1">
+        <v>450</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1">
+        <v>550</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.25</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>1100</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="E21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="E22" s="1">
+        <f>SUM(E4:E19)</f>
+        <v>108.5</v>
+      </c>
+      <c r="F22" s="14">
+        <f>SUM(F4:F19)</f>
+        <v>868</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A7:C7"/>
     <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52FE680-4557-48E1-B07B-C28811331493}">
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="13" max="13" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="16">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="16" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="1">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="E4" s="1">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F4" s="14">
         <f>(E4*$D$1)/100</f>
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="G4" s="14">
         <f>F4*D4</f>
-        <v>848</v>
+        <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f>G4-$F$24</f>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="F5" s="14">
+        <f>IF(E4=0,0,G4-$F$27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="28">
+        <v>3.5</v>
+      </c>
+      <c r="E5" s="28">
+        <v>30</v>
+      </c>
+      <c r="F5" s="29">
         <f>(E5*$D$1)/100</f>
-        <v>57.6</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5:G21" si="0">F5*D5</f>
-        <v>864</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" ref="H5:H21" si="1">G5-$F$24</f>
+        <v>240</v>
+      </c>
+      <c r="G5" s="29">
+        <f t="shared" ref="G5" si="0">F5*D5</f>
+        <v>840</v>
+      </c>
+      <c r="H5" s="29">
+        <f t="shared" ref="H5:H16" si="1">IF(E5=0,0,G5-$F$27)</f>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="1">
-        <v>7.4</v>
-      </c>
       <c r="E6" s="1">
-        <v>14.5</v>
+        <v>0</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" ref="F6:F21" si="2">(E6*$D$1)/100</f>
-        <v>116</v>
+        <f>(E6*$D$1)/100</f>
+        <v>0</v>
       </c>
       <c r="G6" s="14">
-        <f t="shared" si="0"/>
-        <v>858.40000000000009</v>
+        <f t="shared" ref="G6:G16" si="2">F6*D6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="1"/>
-        <v>-5.5999999999999091</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="1">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="E7" s="1">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="F7" s="14">
+        <f>(E7*$D$1)/100</f>
+        <v>56</v>
+      </c>
+      <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>60</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="0"/>
-        <v>870</v>
+        <v>896</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="1">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E8" s="1">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="14">
+        <f t="shared" ref="F8:F16" si="3">(E8*$D$1)/100</f>
+        <v>28</v>
+      </c>
+      <c r="G8" s="14">
         <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="0"/>
-        <v>880</v>
+        <v>980</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="1">
-        <v>6.4</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="E9" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F9" s="14">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="0"/>
-        <v>870.40000000000009</v>
+        <v>844.80000000000007</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="1"/>
-        <v>6.4000000000000909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
+        <v>2.8000000000000682</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="1">
-        <v>40</v>
+        <v>4.3</v>
       </c>
       <c r="E10" s="1">
-        <v>2.8</v>
+        <v>24.5</v>
       </c>
       <c r="F10" s="14">
+        <f t="shared" si="3"/>
+        <v>196</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="2"/>
-        <v>22.4</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="0"/>
-        <v>896</v>
+        <v>842.8</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
+        <v>0.79999999999995453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="1">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="E11" s="1">
-        <v>2.2000000000000002</v>
+        <v>6</v>
       </c>
       <c r="F11" s="14">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="2"/>
-        <v>17.600000000000001</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="0"/>
-        <v>880.00000000000011</v>
+        <v>912</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>16.000000000000114</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="1">
-        <v>100</v>
-      </c>
-      <c r="E12" s="25">
-        <v>1.125</v>
+        <v>55</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
       </c>
       <c r="F12" s="14">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="1">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="1">
-        <v>150</v>
-      </c>
-      <c r="E13" s="25">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="14">
+      <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>6.4</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="0"/>
-        <v>960</v>
+        <v>864</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="1">
         <v>100</v>
       </c>
-      <c r="E14" s="25">
-        <v>1</v>
+      <c r="E14" s="18">
+        <v>1.125</v>
       </c>
       <c r="F14" s="14">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="1"/>
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="1">
-        <v>200</v>
-      </c>
-      <c r="E15" s="25">
-        <v>0.5</v>
+        <v>11.5</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2</v>
       </c>
       <c r="F15" s="14">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="0"/>
-        <v>800</v>
+        <v>184</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="1"/>
-        <v>-64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
+        <v>-658</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="1">
         <v>175</v>
       </c>
-      <c r="E16" s="25">
+      <c r="E16" s="18">
         <v>0.625</v>
       </c>
       <c r="F16" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G16" s="14">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="0"/>
         <v>875</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="1">
-        <v>175</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.625</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="0"/>
-        <v>875</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="1">
-        <v>300</v>
-      </c>
-      <c r="E18" s="25">
-        <v>0.375</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="1">
-        <v>450</v>
-      </c>
-      <c r="E19" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="1">
-        <v>450</v>
-      </c>
-      <c r="E20" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="0"/>
-        <v>900</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="1">
-        <v>550</v>
-      </c>
-      <c r="E21" s="25">
-        <v>0.25</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="0"/>
-        <v>1100</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="1"/>
-        <v>236</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="24"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="24"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="24"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="E23" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="24" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="E24" s="1">
-        <f>SUM(E4:E21)</f>
-        <v>108</v>
-      </c>
-      <c r="F24" s="14">
-        <f>SUM(F4:F21)</f>
-        <v>864</v>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="24"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="E26" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="E27" s="1">
+        <f>SUM(E4:E24)</f>
+        <v>105.25</v>
+      </c>
+      <c r="F27" s="14">
+        <f>SUM(F4:F24)</f>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A20:C20"/>
+  <mergeCells count="26">
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A20:C20"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frapicano\Documents\MyNotes\Excel Vari\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B960C3-4DF7-46D8-AC0C-5FFF6CD94803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998DBBE5-D60C-4DFB-93EC-72E2EC0A9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -278,121 +278,233 @@
     </comment>
     <comment ref="H16" authorId="1" shapeId="0" xr:uid="{76C2BEB7-B813-463A-91B9-F57E16DAF80B}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 4-3 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H17" authorId="2" shapeId="0" xr:uid="{5394C5A5-4F67-48A4-BD6E-55D28AD58806}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 4-3 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H19" authorId="3" shapeId="0" xr:uid="{37E083B4-B7D1-48DC-811B-0D78C9789871}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 2-4 fav</t>
+        </r>
       </text>
     </comment>
     <comment ref="H22" authorId="4" shapeId="0" xr:uid="{D1FCA04E-F287-418D-8FCE-A4F5C6C5EADB}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 2-4 SFAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H25" authorId="5" shapeId="0" xr:uid="{15229010-C595-473D-95F8-BD67FB6B6EF0}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 2-4 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H27" authorId="6" shapeId="0" xr:uid="{7F529FDA-9A89-4E96-9A14-E533F552ACD9}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 7-0 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H29" authorId="7" shapeId="0" xr:uid="{0579B13F-3613-447B-9738-CD8DEEC31A89}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 2-4 SFAV
 Rispondi:
 3-3</t>
+        </r>
       </text>
     </comment>
     <comment ref="H30" authorId="8" shapeId="0" xr:uid="{3EA51C18-A036-40F4-99F9-00966E15CC26}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 3-3</t>
+        </r>
       </text>
     </comment>
     <comment ref="H31" authorId="9" shapeId="0" xr:uid="{964C264D-9F0C-43E5-B0A3-C02110EE1B45}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 1-5 SFAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H32" authorId="10" shapeId="0" xr:uid="{C4872552-B9BD-4F94-9215-47B778B5A5B2}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 1-6 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H33" authorId="11" shapeId="0" xr:uid="{DB2D74A9-9737-45DE-8ADB-83F11782B89A}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 3-3
 6-1 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H35" authorId="12" shapeId="0" xr:uid="{125C0395-AAAD-4415-B5DA-C69BE34DDC41}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 4-3 FAV
 6-0 FAV
 4-3 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H36" authorId="13" shapeId="0" xr:uid="{382BB432-EAE1-44B5-A049-B106E3E8A9E7}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 3-5 FAV
 1-5 SFAV
 5-3 FAV</t>
+        </r>
       </text>
     </comment>
     <comment ref="H39" authorId="14" shapeId="0" xr:uid="{32BA2D5E-7063-4C4B-B15F-17468EDB07EB}">
       <text>
-        <t>[Commento in thread]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>[Commento in thread]
 La versione di Excel in uso consente di leggere questo commento in thread, ma tutte le modifiche a esso apportate verranno rimosse se il file viene aperto in una versione più recente di Excel. Ulteriori informazioni: https://go.microsoft.com/fwlink/?linkid=870924
 Commento:
 4-4</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -400,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="77">
   <si>
     <t>Giornata</t>
   </si>
@@ -625,6 +737,12 @@
   </si>
   <si>
     <t>(0-0;1-0;0-1;1-1)</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>3-2;4-2;4-3 5-1 FAV</t>
   </si>
 </sst>
 </file>
@@ -634,7 +752,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -733,6 +851,17 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -860,7 +989,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -915,7 +1044,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -927,25 +1072,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20% - Colore 3" xfId="2" builtinId="38"/>
@@ -1328,23 +1470,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="9" max="9" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1379,7 +1521,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1419,7 +1561,7 @@
       </c>
       <c r="L2" s="19"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1459,7 +1601,7 @@
       </c>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1498,7 +1640,7 @@
       </c>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1536,7 +1678,7 @@
       </c>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1575,7 +1717,7 @@
       </c>
       <c r="L6" s="19"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1615,7 +1757,7 @@
       </c>
       <c r="L7" s="19"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1655,7 +1797,7 @@
       </c>
       <c r="L8" s="19"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1695,7 +1837,7 @@
       </c>
       <c r="L9" s="19"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -1731,7 +1873,7 @@
       </c>
       <c r="L10" s="19"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -1771,7 +1913,7 @@
       </c>
       <c r="L11" s="19"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -1807,7 +1949,7 @@
       </c>
       <c r="L12" s="19"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -1843,7 +1985,7 @@
       </c>
       <c r="L13" s="19"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1879,7 +2021,7 @@
       </c>
       <c r="L14" s="19"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1915,7 +2057,7 @@
       </c>
       <c r="L15" s="19"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1951,7 +2093,7 @@
       </c>
       <c r="L16" s="19"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1986,7 +2128,7 @@
       </c>
       <c r="L17" s="19"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2022,7 +2164,7 @@
       </c>
       <c r="L18" s="19"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2058,7 +2200,7 @@
       </c>
       <c r="L19" s="19"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2094,7 +2236,7 @@
       </c>
       <c r="L20" s="19"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2132,7 +2274,7 @@
       </c>
       <c r="L21" s="19"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2168,7 +2310,7 @@
       </c>
       <c r="L22" s="19"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2204,7 +2346,7 @@
       </c>
       <c r="L23" s="19"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2240,7 +2382,7 @@
       </c>
       <c r="L24" s="19"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2276,7 +2418,7 @@
       </c>
       <c r="L25" s="19"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2312,7 +2454,7 @@
       </c>
       <c r="L26" s="19"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2348,7 +2490,7 @@
       </c>
       <c r="L27" s="19"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2384,7 +2526,7 @@
       </c>
       <c r="L28" s="19"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2420,7 +2562,7 @@
       </c>
       <c r="L29" s="19"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2456,7 +2598,7 @@
       </c>
       <c r="L30" s="19"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2492,7 +2634,7 @@
       </c>
       <c r="L31" s="19"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2532,7 +2674,7 @@
       </c>
       <c r="L32" s="19"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2568,7 +2710,7 @@
       </c>
       <c r="L33" s="19"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2608,7 +2750,7 @@
       </c>
       <c r="L34" s="19"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2647,7 +2789,7 @@
       </c>
       <c r="L35" s="19"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2686,7 +2828,7 @@
       </c>
       <c r="L36" s="19"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2726,7 +2868,7 @@
       </c>
       <c r="L37" s="19"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2766,7 +2908,7 @@
       </c>
       <c r="L38" s="19"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2806,7 +2948,7 @@
       </c>
       <c r="L39" s="19"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -2839,19 +2981,19 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" style="8" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="9"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" style="8" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2877,7 +3019,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2906,7 +3048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2935,7 +3077,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2964,7 +3106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2992,7 +3134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3022,7 +3164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3052,7 +3194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3081,7 +3223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3111,7 +3253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3141,7 +3283,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3171,7 +3313,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3200,7 +3342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3230,7 +3372,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3260,7 +3402,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3290,7 +3432,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3319,7 +3461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3349,7 +3491,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3378,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3408,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3438,7 +3580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3468,7 +3610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3498,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3528,7 +3670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3558,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3588,7 +3730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3618,7 +3760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3648,7 +3790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -3678,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -3708,7 +3850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -3738,7 +3880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -3768,7 +3910,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -3798,7 +3940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -3827,7 +3969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -3856,7 +3998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -3886,7 +4028,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -3916,7 +4058,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -3946,7 +4088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -3976,7 +4118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4005,7 +4147,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -4040,19 +4182,19 @@
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5546875" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.109375" style="9"/>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4087,7 +4229,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4125,7 +4267,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -4163,7 +4305,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -4202,7 +4344,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -4241,7 +4383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -4280,7 +4422,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -4319,7 +4461,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -4357,7 +4499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -4395,7 +4537,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -4434,7 +4576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -4472,7 +4614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -4510,7 +4652,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -4548,7 +4690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -4585,7 +4727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -4623,7 +4765,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -4661,7 +4803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -4699,7 +4841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -4737,7 +4879,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -4776,7 +4918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -4815,7 +4957,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -4853,7 +4995,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -4891,7 +5033,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -4929,7 +5071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -4968,7 +5110,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5007,7 +5149,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -5046,7 +5188,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -5085,7 +5227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -5122,7 +5264,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -5160,7 +5302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5198,7 +5340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -5235,7 +5377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -5273,7 +5415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -5309,7 +5451,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -5347,7 +5489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -5386,17 +5528,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -5417,12 +5559,12 @@
         <v>27475</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -5431,7 +5573,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C44" s="1" t="s">
         <v>27</v>
       </c>
@@ -5445,7 +5587,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C46" s="1">
         <v>2</v>
       </c>
@@ -5459,7 +5601,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="1" t="s">
         <v>34</v>
       </c>
@@ -5473,7 +5615,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="1">
         <v>1</v>
       </c>
@@ -5481,7 +5623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
       <c r="D52" s="1" t="s">
         <v>38</v>
       </c>
@@ -5500,35 +5642,35 @@
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -5545,12 +5687,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1">
         <v>2.65</v>
       </c>
@@ -5579,12 +5721,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="1">
         <v>15</v>
       </c>
@@ -5604,12 +5746,12 @@
         <v>-45.200000000000045</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="1">
         <v>15</v>
       </c>
@@ -5629,12 +5771,12 @@
         <v>-45.200000000000045</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="1">
         <v>7.4</v>
       </c>
@@ -5654,12 +5796,12 @@
         <v>-50.799999999999955</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="1">
         <v>14.5</v>
       </c>
@@ -5679,12 +5821,12 @@
         <v>-39.200000000000045</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="1">
         <v>10</v>
       </c>
@@ -5704,12 +5846,12 @@
         <v>-29.200000000000045</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1">
         <v>6.4</v>
       </c>
@@ -5729,12 +5871,12 @@
         <v>-38.799999999999955</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
       <c r="D11" s="1">
         <v>40</v>
       </c>
@@ -5754,12 +5896,12 @@
         <v>50.799999999999955</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
       <c r="D12" s="1">
         <v>50</v>
       </c>
@@ -5779,12 +5921,12 @@
         <v>90.799999999999955</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="1">
         <v>100</v>
       </c>
@@ -5804,12 +5946,12 @@
         <v>-9.2000000000000455</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
       <c r="D14" s="1">
         <v>55</v>
       </c>
@@ -5829,12 +5971,12 @@
         <v>-29.200000000000045</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
       <c r="D15" s="1">
         <v>175</v>
       </c>
@@ -5854,96 +5996,96 @@
         <v>-34.200000000000045</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="1"/>
       <c r="E16" s="18"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="1"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="1"/>
       <c r="E18" s="18"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="1"/>
       <c r="E19" s="18"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="1"/>
       <c r="E22" s="18"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="1"/>
       <c r="E23" s="18"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="24"/>
       <c r="G24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
       <c r="E25" s="17" t="s">
         <v>61</v>
       </c>
@@ -5951,10 +6093,10 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="E26" s="1">
         <f>SUM(E4:E23)</f>
         <v>113.65</v>
@@ -5966,11 +6108,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
@@ -5984,13 +6128,11 @@
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A19:C19"/>
     <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5999,37 +6141,37 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -6046,443 +6188,480 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="F4" s="14">
         <f>(E4*$D$1)/100</f>
-        <v>312</v>
+        <v>88</v>
       </c>
       <c r="G4" s="14">
         <f>F4*D4</f>
-        <v>936</v>
+        <v>880</v>
       </c>
       <c r="H4" s="14">
-        <f t="shared" ref="H4:H19" si="0">G4-$F$22</f>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+        <f>G4-$F$25</f>
+        <v>122.39999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
       <c r="D5" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F5" s="14">
         <f>(E5*$D$1)/100</f>
+        <v>64</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" ref="G5:G20" si="0">F5*D5</f>
+        <v>832</v>
+      </c>
+      <c r="H5" s="14">
+        <f>G5-$F$25</f>
+        <v>74.399999999999977</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="1">
+        <v>9.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>11</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" ref="F6:F20" si="1">(E6*$D$1)/100</f>
+        <v>88</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>827.2</v>
+      </c>
+      <c r="H6" s="14">
+        <f>G6-$F$25</f>
+        <v>69.600000000000023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="1">
+        <v>24</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="H7" s="14">
+        <f>G7-$F$25</f>
+        <v>106.39999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="1">
+        <v>17</v>
+      </c>
+      <c r="E8" s="1">
+        <v>6</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>816</v>
+      </c>
+      <c r="H8" s="14">
+        <f>G8-$F$25</f>
+        <v>58.399999999999977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="1">
+        <v>24</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="F9" s="14">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>864</v>
+      </c>
+      <c r="H9" s="14">
+        <f>G9-$F$25</f>
+        <v>106.39999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="1">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>880</v>
+      </c>
+      <c r="H10" s="14">
+        <f>G10-$F$25</f>
+        <v>122.39999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="1">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="14">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>960</v>
+      </c>
+      <c r="H11" s="14">
+        <f>G11-$F$25</f>
+        <v>202.39999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="1">
+        <v>50</v>
+      </c>
+      <c r="E12" s="18">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="14">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="H12" s="14">
+        <f>G12-$F$25</f>
+        <v>242.39999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5:G19" si="1">F5*D5</f>
-        <v>900</v>
-      </c>
-      <c r="H5" s="14">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="1">
+        <v>150</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>15</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" ref="F6:F19" si="2">(E6*$D$1)/100</f>
-        <v>120</v>
-      </c>
-      <c r="G6" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="14">
+        <f>G13-$F$25</f>
+        <v>442.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14">
         <f t="shared" si="1"/>
-        <v>888</v>
-      </c>
-      <c r="H6" s="14">
+        <v>8</v>
+      </c>
+      <c r="G14" s="14">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E7" s="1">
-        <v>8</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="2"/>
-        <v>64</v>
-      </c>
-      <c r="G7" s="14">
+        <v>800</v>
+      </c>
+      <c r="H14" s="14">
+        <f>G14-$F$25</f>
+        <v>42.399999999999977</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="1">
+        <v>150</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14">
         <f t="shared" si="1"/>
-        <v>928</v>
-      </c>
-      <c r="H7" s="14">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="1">
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <v>11</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="2"/>
-        <v>88</v>
-      </c>
-      <c r="G8" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H15" s="14">
+        <f>G15-$F$25</f>
+        <v>442.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="1">
+        <v>350</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="14">
         <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-      <c r="H8" s="14">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
         <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="E9" s="1">
-        <v>17</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>136</v>
-      </c>
-      <c r="G9" s="14">
+        <v>1400</v>
+      </c>
+      <c r="H16" s="14">
+        <f>G16-$F$25</f>
+        <v>642.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="1">
+        <v>300</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="14">
         <f t="shared" si="1"/>
-        <v>870.40000000000009</v>
-      </c>
-      <c r="H9" s="14">
+        <v>4</v>
+      </c>
+      <c r="G17" s="14">
         <f t="shared" si="0"/>
-        <v>2.4000000000000909</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="1">
-        <v>40</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="H17" s="14">
+        <f>G17-$F$25</f>
+        <v>442.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="1">
+        <v>95</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" si="0"/>
+        <v>912</v>
+      </c>
+      <c r="H18" s="14">
+        <f>G18-$F$25</f>
+        <v>154.39999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E19" s="18">
         <v>24</v>
       </c>
-      <c r="G10" s="14">
+      <c r="F19" s="14">
         <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="1">
-        <v>50</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G11" s="14">
+        <v>192</v>
+      </c>
+      <c r="G19" s="14">
+        <f>F19*D19</f>
+        <v>883.19999999999993</v>
+      </c>
+      <c r="H19" s="14">
+        <f>G19-$F$25</f>
+        <v>125.59999999999991</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1">
+        <v>8</v>
+      </c>
+      <c r="E20" s="18">
+        <v>13</v>
+      </c>
+      <c r="F20" s="14">
         <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="1">
-        <v>55</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1.125</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="1">
-        <v>175</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>875</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="1">
-        <v>175</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>875</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="1">
-        <v>300</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.375</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="1">
-        <v>450</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="1">
-        <v>450</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="G20" s="14">
+        <f>F20*D20</f>
+        <v>832</v>
+      </c>
+      <c r="H20" s="14">
+        <f>G20-$F$25</f>
+        <v>74.399999999999977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="1">
-        <v>550</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.25</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>1100</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>232</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="G20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="E21" s="17" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F24" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="E22" s="1">
-        <f>SUM(E4:E19)</f>
-        <v>108.5</v>
-      </c>
-      <c r="F22" s="14">
-        <f>SUM(F4:F19)</f>
-        <v>868</v>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="1">
+        <f>SUM(E4:E24)</f>
+        <v>94.7</v>
+      </c>
+      <c r="F25" s="14">
+        <f>SUM(F4:F24)</f>
+        <v>757.6</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
@@ -6492,13 +6671,11 @@
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -6507,38 +6684,38 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52FE680-4557-48E1-B07B-C28811331493}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="16.33203125" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="13" max="13" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
       <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -6555,18 +6732,16 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="1"/>
       <c r="F4" s="14">
         <f>(E4*$D$1)/100</f>
         <v>0</v>
@@ -6576,448 +6751,529 @@
         <v>0</v>
       </c>
       <c r="H4" s="14">
-        <f>IF(E4=0,0,G4-$F$27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="30" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="27" t="s">
+        <f>IF(E4=0,0,G4-$F$30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="28">
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20">
+        <v>0</v>
+      </c>
+      <c r="F5" s="21">
+        <f>(E5*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G6" si="0">F5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="21">
+        <f t="shared" ref="H5:H20" si="1">IF(E5=0,0,G5-$F$30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21">
+        <f>(E6*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="21">
+        <f t="shared" ref="H6" si="2">IF(E6=0,0,G6-$F$30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <v>0</v>
+      </c>
+      <c r="F7" s="21">
+        <f>(E7*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21">
+        <f t="shared" ref="G7:G18" si="3">F7*D7</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
+        <v>0</v>
+      </c>
+      <c r="F8" s="21">
+        <f>(E8*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="1">
         <v>3.5</v>
       </c>
-      <c r="E5" s="28">
-        <v>30</v>
-      </c>
-      <c r="F5" s="29">
-        <f>(E5*$D$1)/100</f>
-        <v>240</v>
-      </c>
-      <c r="G5" s="29">
-        <f t="shared" ref="G5" si="0">F5*D5</f>
-        <v>840</v>
-      </c>
-      <c r="H5" s="29">
-        <f t="shared" ref="H5:H16" si="1">IF(E5=0,0,G5-$F$27)</f>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="1">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
-        <f>(E6*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" ref="G6:G16" si="2">F6*D6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="1">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14">
-        <f>(E7*$D$1)/100</f>
-        <v>56</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="2"/>
-        <v>896</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="1"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="1">
-        <v>35</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" ref="F8:F16" si="3">(E8*$D$1)/100</f>
-        <v>28</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="2"/>
-        <v>980</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="1"/>
-        <v>138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="1">
-        <v>4.4000000000000004</v>
-      </c>
       <c r="E9" s="1">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F9" s="14">
+        <f t="shared" ref="F9:F18" si="4">(E9*$D$1)/100</f>
+        <v>232</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="2"/>
-        <v>844.80000000000007</v>
+        <v>812</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="1"/>
-        <v>2.8000000000000682</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="1">
-        <v>4.3</v>
+        <v>3.75</v>
       </c>
       <c r="E10" s="1">
-        <v>24.5</v>
+        <v>27</v>
       </c>
       <c r="F10" s="14">
+        <f t="shared" si="4"/>
+        <v>216</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="3"/>
-        <v>196</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="2"/>
-        <v>842.8</v>
+        <v>810</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="1"/>
-        <v>0.79999999999995453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="1">
-        <v>19</v>
+        <v>4.7</v>
       </c>
       <c r="E11" s="1">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="F11" s="14">
+        <f t="shared" si="4"/>
+        <v>176</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="3"/>
-        <v>48</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="2"/>
-        <v>912</v>
+        <v>827.2</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="1"/>
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>203.20000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
       <c r="D12" s="1">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E12" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="2"/>
-        <v>880</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
       <c r="D13" s="1">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E13" s="1">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F13" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="3"/>
-        <v>36</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="2"/>
-        <v>864</v>
+        <v>0</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1.125</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1">
+        <v>0</v>
       </c>
       <c r="F14" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="1"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="1">
-        <v>11.5</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="1"/>
       <c r="E15" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="2"/>
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="1"/>
-        <v>-658</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
       <c r="D16" s="1">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="E16" s="18">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
         <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="2"/>
-        <v>875</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="24"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="24"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="24"/>
-      <c r="B20" s="24"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="35">
+        <v>0</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="33">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f>(E19*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" ref="G19:G20" si="5">F19*D19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <f>IF(E19=0,0,G19-$F$30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ref="F19:F20" si="6">(E20*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
       <c r="F21" s="14"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="1"/>
       <c r="E22" s="18"/>
       <c r="F22" s="14"/>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="1"/>
       <c r="E23" s="18"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="23"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="1"/>
       <c r="E24" s="18"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
       <c r="G25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="E26" s="17" t="s">
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="G28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="E29" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="17" t="s">
+      <c r="F29" s="17" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="E27" s="1">
-        <f>SUM(E4:E24)</f>
-        <v>105.25</v>
-      </c>
-      <c r="F27" s="14">
-        <f>SUM(F4:F24)</f>
-        <v>842</v>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="E30" s="1">
+        <f>SUM(E4:E27)</f>
+        <v>78</v>
+      </c>
+      <c r="F30" s="14">
+        <f>SUM(F4:F27)</f>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="29">
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998DBBE5-D60C-4DFB-93EC-72E2EC0A9363}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA3B1C-600A-4989-B077-679D3A1F9EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20370" windowHeight="10740" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId3"/>
     <sheet name="Scommesse Gol rischiosa" sheetId="5" r:id="rId4"/>
     <sheet name="Scommesse Gol non rischiosa" sheetId="6" r:id="rId5"/>
-    <sheet name="modulo di calcolo" sheetId="7" r:id="rId6"/>
+    <sheet name="modulo di calcolo FAV IN CASA" sheetId="7" r:id="rId6"/>
+    <sheet name="modulo di calcolo FAV FUORI" sheetId="8" r:id="rId7"/>
+    <sheet name="FAV IN CA 2.0" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -512,7 +514,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
   <si>
     <t>Giornata</t>
   </si>
@@ -736,13 +738,121 @@
     <t>senza 1-1</t>
   </si>
   <si>
-    <t>(0-0;1-0;0-1;1-1)</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>3-2;4-2;4-3 5-1 FAV</t>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>3-0</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>4-0</t>
+  </si>
+  <si>
+    <t>4-1</t>
+  </si>
+  <si>
+    <t>4-2</t>
+  </si>
+  <si>
+    <t>4-3</t>
+  </si>
+  <si>
+    <t>5-0</t>
+  </si>
+  <si>
+    <t>5-1</t>
+  </si>
+  <si>
+    <t>6-0</t>
+  </si>
+  <si>
+    <t>6-1</t>
+  </si>
+  <si>
+    <t>6-2</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>1-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2-3</t>
+  </si>
+  <si>
+    <t>SFAV X2+ nogoal</t>
+  </si>
+  <si>
+    <t>FAVORITA IN CASA</t>
+  </si>
+  <si>
+    <t>FAVORITA FUORI CASA</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>1-4</t>
+  </si>
+  <si>
+    <t>2-4</t>
+  </si>
+  <si>
+    <t>3-4</t>
+  </si>
+  <si>
+    <t>0-5</t>
+  </si>
+  <si>
+    <t>1-5</t>
+  </si>
+  <si>
+    <t>0-6</t>
+  </si>
+  <si>
+    <t>1-6</t>
+  </si>
+  <si>
+    <t>2-6</t>
+  </si>
+  <si>
+    <t>1X + nogoal</t>
+  </si>
+  <si>
+    <t>1XMULTI 1-2 (1-1;10;2,0)</t>
+  </si>
+  <si>
+    <t>NO GOAL + OVER 4.5</t>
+  </si>
+  <si>
+    <t>GOAL+0VER 4.5</t>
+  </si>
+  <si>
+    <t>1+NOGOAL+ O 1.5</t>
+  </si>
+  <si>
+    <t>0-0</t>
+  </si>
+  <si>
+    <t>2-2</t>
   </si>
 </sst>
 </file>
@@ -752,7 +862,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -861,6 +971,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -919,12 +1043,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -980,6 +1104,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -989,7 +1126,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1044,13 +1181,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="8" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1072,20 +1245,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1470,8 +1651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2978,7 +3159,7 @@
   <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5656,21 +5837,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -5688,11 +5869,11 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="1">
         <v>2.65</v>
       </c>
@@ -5722,11 +5903,11 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="1">
         <v>15</v>
       </c>
@@ -5747,11 +5928,11 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1">
         <v>15</v>
       </c>
@@ -5772,11 +5953,11 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1">
         <v>7.4</v>
       </c>
@@ -5797,11 +5978,11 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1">
         <v>14.5</v>
       </c>
@@ -5822,11 +6003,11 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="1">
         <v>10</v>
       </c>
@@ -5847,11 +6028,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39"/>
       <c r="D10" s="1">
         <v>6.4</v>
       </c>
@@ -5872,11 +6053,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="1">
         <v>40</v>
       </c>
@@ -5897,11 +6078,11 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="1">
         <v>50</v>
       </c>
@@ -5922,11 +6103,11 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
       <c r="D13" s="1">
         <v>100</v>
       </c>
@@ -5947,11 +6128,11 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="1">
         <v>55</v>
       </c>
@@ -5972,11 +6153,11 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
       <c r="D15" s="1">
         <v>175</v>
       </c>
@@ -5997,9 +6178,9 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1"/>
       <c r="E16" s="18"/>
       <c r="F16" s="14"/>
@@ -6007,9 +6188,9 @@
       <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
@@ -6017,9 +6198,9 @@
       <c r="H17" s="14"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1"/>
       <c r="E18" s="18"/>
       <c r="F18" s="14"/>
@@ -6027,9 +6208,9 @@
       <c r="H18" s="14"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23"/>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1"/>
       <c r="E19" s="18"/>
       <c r="F19" s="14"/>
@@ -6037,9 +6218,9 @@
       <c r="H19" s="14"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="14"/>
@@ -6047,9 +6228,9 @@
       <c r="H20" s="14"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
       <c r="F21" s="14"/>
@@ -6057,9 +6238,9 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
       <c r="D22" s="1"/>
       <c r="E22" s="18"/>
       <c r="F22" s="14"/>
@@ -6067,9 +6248,9 @@
       <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="1"/>
       <c r="E23" s="18"/>
       <c r="F23" s="14"/>
@@ -6077,15 +6258,15 @@
       <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="G24" s="14"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
       <c r="E25" s="17" t="s">
         <v>61</v>
       </c>
@@ -6094,9 +6275,9 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="24"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="E26" s="1">
         <f>SUM(E4:E23)</f>
         <v>113.65</v>
@@ -6143,8 +6324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6157,21 +6338,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="15">
         <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -6189,11 +6370,11 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
       <c r="D4" s="1">
         <v>10</v>
       </c>
@@ -6209,16 +6390,16 @@
         <v>880</v>
       </c>
       <c r="H4" s="14">
-        <f>G4-$F$25</f>
+        <f t="shared" ref="H4:H20" si="0">G4-$F$25</f>
         <v>122.39999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
       <c r="D5" s="1">
         <v>13</v>
       </c>
@@ -6230,20 +6411,20 @@
         <v>64</v>
       </c>
       <c r="G5" s="14">
-        <f t="shared" ref="G5:G20" si="0">F5*D5</f>
+        <f t="shared" ref="G5:G18" si="1">F5*D5</f>
         <v>832</v>
       </c>
       <c r="H5" s="14">
-        <f>G5-$F$25</f>
+        <f t="shared" si="0"/>
         <v>74.399999999999977</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
       <c r="D6" s="1">
         <v>9.4</v>
       </c>
@@ -6251,24 +6432,24 @@
         <v>11</v>
       </c>
       <c r="F6" s="14">
-        <f t="shared" ref="F6:F20" si="1">(E6*$D$1)/100</f>
+        <f t="shared" ref="F6:F20" si="2">(E6*$D$1)/100</f>
         <v>88</v>
       </c>
       <c r="G6" s="14">
+        <f t="shared" si="1"/>
+        <v>827.2</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>827.2</v>
-      </c>
-      <c r="H6" s="14">
-        <f>G6-$F$25</f>
         <v>69.600000000000023</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="1">
         <v>24</v>
       </c>
@@ -6276,24 +6457,24 @@
         <v>4.5</v>
       </c>
       <c r="F7" s="14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G7" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G7" s="14">
+        <v>864</v>
+      </c>
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
-        <v>864</v>
-      </c>
-      <c r="H7" s="14">
-        <f>G7-$F$25</f>
         <v>106.39999999999998</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39"/>
       <c r="D8" s="1">
         <v>17</v>
       </c>
@@ -6301,24 +6482,24 @@
         <v>6</v>
       </c>
       <c r="F8" s="14">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="G8" s="14">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="G8" s="14">
+        <v>816</v>
+      </c>
+      <c r="H8" s="14">
         <f t="shared" si="0"/>
-        <v>816</v>
-      </c>
-      <c r="H8" s="14">
-        <f>G8-$F$25</f>
         <v>58.399999999999977</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39"/>
       <c r="D9" s="1">
         <v>24</v>
       </c>
@@ -6326,24 +6507,24 @@
         <v>4.5</v>
       </c>
       <c r="F9" s="14">
+        <f t="shared" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="G9" s="14">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="G9" s="14">
+        <v>864</v>
+      </c>
+      <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>864</v>
-      </c>
-      <c r="H9" s="14">
-        <f>G9-$F$25</f>
         <v>106.39999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
       <c r="D10" s="1">
         <v>55</v>
       </c>
@@ -6351,24 +6532,24 @@
         <v>2</v>
       </c>
       <c r="F10" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="G10" s="14">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="G10" s="14">
+        <v>880</v>
+      </c>
+      <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>880</v>
-      </c>
-      <c r="H10" s="14">
-        <f>G10-$F$25</f>
         <v>122.39999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
       <c r="D11" s="1">
         <v>40</v>
       </c>
@@ -6376,24 +6557,24 @@
         <v>3</v>
       </c>
       <c r="F11" s="14">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="G11" s="14">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
+        <v>960</v>
+      </c>
+      <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>960</v>
-      </c>
-      <c r="H11" s="14">
-        <f>G11-$F$25</f>
         <v>202.39999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="1">
         <v>50</v>
       </c>
@@ -6401,24 +6582,24 @@
         <v>2.5</v>
       </c>
       <c r="F12" s="14">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="14">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="G12" s="14">
+        <v>1000</v>
+      </c>
+      <c r="H12" s="14">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="H12" s="14">
-        <f>G12-$F$25</f>
         <v>242.39999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="1">
         <v>150</v>
       </c>
@@ -6426,24 +6607,24 @@
         <v>1</v>
       </c>
       <c r="F13" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G13" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H13" s="14">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="H13" s="14">
-        <f>G13-$F$25</f>
         <v>442.4</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
       <c r="D14" s="1">
         <v>100</v>
       </c>
@@ -6451,24 +6632,24 @@
         <v>1</v>
       </c>
       <c r="F14" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G14" s="14">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G14" s="14">
+        <v>800</v>
+      </c>
+      <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>800</v>
-      </c>
-      <c r="H14" s="14">
-        <f>G14-$F$25</f>
         <v>42.399999999999977</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="1">
         <v>150</v>
       </c>
@@ -6476,24 +6657,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="14">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
         <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="G15" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="H15" s="14">
-        <f>G15-$F$25</f>
         <v>442.4</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="1">
         <v>350</v>
       </c>
@@ -6501,24 +6682,24 @@
         <v>0.5</v>
       </c>
       <c r="F16" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="14">
+        <v>1400</v>
+      </c>
+      <c r="H16" s="14">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-      <c r="H16" s="14">
-        <f>G16-$F$25</f>
         <v>642.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="1">
         <v>300</v>
       </c>
@@ -6526,24 +6707,24 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="G17" s="14">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="G17" s="14">
+        <v>1200</v>
+      </c>
+      <c r="H17" s="14">
         <f t="shared" si="0"/>
-        <v>1200</v>
-      </c>
-      <c r="H17" s="14">
-        <f>G17-$F$25</f>
         <v>442.4</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="1">
         <v>95</v>
       </c>
@@ -6551,24 +6732,24 @@
         <v>1.2</v>
       </c>
       <c r="F18" s="14">
+        <f t="shared" si="2"/>
+        <v>9.6</v>
+      </c>
+      <c r="G18" s="14">
         <f t="shared" si="1"/>
-        <v>9.6</v>
-      </c>
-      <c r="G18" s="14">
+        <v>912</v>
+      </c>
+      <c r="H18" s="14">
         <f t="shared" si="0"/>
-        <v>912</v>
-      </c>
-      <c r="H18" s="14">
-        <f>G18-$F$25</f>
         <v>154.39999999999998</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="1">
         <v>4.5999999999999996</v>
       </c>
@@ -6576,7 +6757,7 @@
         <v>24</v>
       </c>
       <c r="F19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192</v>
       </c>
       <c r="G19" s="14">
@@ -6584,16 +6765,16 @@
         <v>883.19999999999993</v>
       </c>
       <c r="H19" s="14">
-        <f>G19-$F$25</f>
+        <f t="shared" si="0"/>
         <v>125.59999999999991</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="1">
         <v>8</v>
       </c>
@@ -6601,7 +6782,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>104</v>
       </c>
       <c r="G20" s="14">
@@ -6609,16 +6790,16 @@
         <v>832</v>
       </c>
       <c r="H20" s="14">
-        <f>G20-$F$25</f>
+        <f t="shared" si="0"/>
         <v>74.399999999999977</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="1"/>
       <c r="E21" s="18"/>
       <c r="F21" s="14"/>
@@ -6626,9 +6807,9 @@
       <c r="H21" s="14"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="1"/>
       <c r="E22" s="18"/>
       <c r="F22" s="14"/>
@@ -6684,10 +6865,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52FE680-4557-48E1-B07B-C28811331493}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6697,25 +6878,47 @@
     <col min="6" max="6" width="16.140625" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" customWidth="1"/>
     <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
       <c r="D1" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="16" t="s">
         <v>39</v>
       </c>
@@ -6731,549 +6934,2243 @@
       <c r="H3" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="1">
-        <v>12</v>
-      </c>
-      <c r="E4" s="1"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="22">
+        <v>6.6</v>
+      </c>
+      <c r="E4" s="22">
+        <v>16</v>
+      </c>
       <c r="F4" s="14">
         <f>(E4*$D$1)/100</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4" s="14">
         <f>F4*D4</f>
-        <v>0</v>
+        <v>105.6</v>
       </c>
       <c r="H4" s="14">
-        <f>IF(E4=0,0,G4-$F$30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20">
-        <v>0</v>
-      </c>
-      <c r="F5" s="21">
+        <f t="shared" ref="H4:H22" si="0">IF(E4=0,0,G4-$F$29)</f>
+        <v>21.599999999999994</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="E5" s="22">
+        <v>10</v>
+      </c>
+      <c r="F5" s="20">
         <f>(E5*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="21">
-        <f t="shared" ref="G5:G6" si="0">F5*D5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
-        <f t="shared" ref="H5:H20" si="1">IF(E5=0,0,G5-$F$30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="20">
-        <v>5.2</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="21">
+        <v>10</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:G22" si="1">F5*D5</f>
+        <v>105</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="E6" s="22">
+        <v>10</v>
+      </c>
+      <c r="F6" s="20">
         <f>(E6*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="21">
+        <v>10</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="H6" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
-        <f t="shared" ref="H6" si="2">IF(E6=0,0,G6-$F$30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20">
-        <v>0</v>
-      </c>
-      <c r="F7" s="21">
+        <v>21</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="22">
+        <v>25</v>
+      </c>
+      <c r="E7" s="22">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20">
         <f>(E7*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="21">
-        <f t="shared" ref="G7:G18" si="3">F7*D7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+        <v>5</v>
+      </c>
+      <c r="G7" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20">
-        <v>0</v>
-      </c>
-      <c r="F8" s="21">
+        <v>125</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="22">
+        <v>25</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20">
         <f>(E8*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G8" s="21">
+        <v>5</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="1"/>
+        <v>125</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="22">
+        <v>45</v>
+      </c>
+      <c r="E9" s="22">
+        <v>3</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" ref="F9:F18" si="2">(E9*$D$1)/100</f>
+        <v>3</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="1"/>
+        <v>135</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="46"/>
+      <c r="L14" s="46"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="46"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
+      <c r="M16" s="46"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="22">
+        <v>3.05</v>
+      </c>
+      <c r="E19" s="22">
+        <v>35</v>
+      </c>
+      <c r="F19" s="14">
+        <v>35</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>106.75</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>22.75</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="M19" s="44"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ref="F20:F22" si="3">(E20*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="44"/>
+      <c r="L20" s="44"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="22">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H8" s="21">
+      <c r="G21" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="E9" s="1">
-        <v>29</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" ref="F9:F18" si="4">(E9*$D$1)/100</f>
-        <v>232</v>
-      </c>
-      <c r="G9" s="14">
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="32"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="22">
+        <v>0</v>
+      </c>
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="14">
         <f t="shared" si="3"/>
-        <v>812</v>
-      </c>
-      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
         <f t="shared" si="1"/>
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="1">
-        <v>3.75</v>
-      </c>
-      <c r="E10" s="1">
-        <v>27</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="4"/>
-        <v>216</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="3"/>
-        <v>810</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="1"/>
-        <v>186</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="E11" s="1">
-        <v>22</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="4"/>
-        <v>176</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="3"/>
-        <v>827.2</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="1"/>
-        <v>203.20000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="1">
-        <v>0</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="1">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="18">
-        <v>0</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="35">
-        <v>0</v>
-      </c>
-      <c r="E18" s="32">
-        <v>0</v>
-      </c>
-      <c r="F18" s="33">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="33">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0</v>
-      </c>
-      <c r="F19" s="14">
-        <f>(E19*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" ref="G19:G20" si="5">F19*D19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="14">
-        <f>IF(E19=0,0,G19-$F$30)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="1">
-        <v>0</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" ref="F19:F20" si="6">(E20*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="32"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="31"/>
+      <c r="R22" s="31"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="1"/>
       <c r="E23" s="18"/>
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="23"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="37"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="1"/>
       <c r="E24" s="18"/>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="K24" s="37"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="37"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="1"/>
       <c r="E25" s="18"/>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="37"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="1"/>
       <c r="E26" s="18"/>
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="14"/>
+      <c r="K26" s="37"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="37"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="G28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="E29" s="17" t="s">
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="38"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="14"/>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="E28" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F28" s="17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="E30" s="1">
-        <f>SUM(E4:E27)</f>
-        <v>78</v>
-      </c>
-      <c r="F30" s="14">
-        <f>SUM(F4:F27)</f>
-        <v>624</v>
-      </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="38"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="36"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="E29" s="1">
+        <f>SUM(E4:E26)</f>
+        <v>84</v>
+      </c>
+      <c r="F29" s="14">
+        <f>SUM(F4:F28)</f>
+        <v>84</v>
+      </c>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="38"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="31"/>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
+  <mergeCells count="57">
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="K12:M12"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="K26:M26"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="K29:M29"/>
     <mergeCell ref="A21:C21"/>
     <mergeCell ref="A22:C22"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K22:M22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E946F3-ECAB-417F-8907-DAE2E3B82620}">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="28">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="22">
+        <v>0</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(E4*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H22" si="0">IF(E4=0,0,G4-$F$29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <f>(E5*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" ref="G5:G22" si="1">F5*D5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="26">
+        <v>4.33</v>
+      </c>
+      <c r="E6" s="26">
+        <v>25</v>
+      </c>
+      <c r="F6" s="20">
+        <f>(E6*$D$1)/100</f>
+        <v>50</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="1"/>
+        <v>216.5</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="0"/>
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f>(E7*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="26">
+        <v>5</v>
+      </c>
+      <c r="E8" s="26">
+        <v>25</v>
+      </c>
+      <c r="F8" s="20">
+        <f>(E8*$D$1)/100</f>
+        <v>50</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="22">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" ref="F9:F18" si="2">(E9*$D$1)/100</f>
+        <v>22</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="45" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="45"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="22">
+        <v>4.5</v>
+      </c>
+      <c r="E14" s="23">
+        <v>25</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="1"/>
+        <v>225</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="45" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="22">
+        <v>12</v>
+      </c>
+      <c r="E15" s="23">
+        <v>10</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="26">
+        <v>0</v>
+      </c>
+      <c r="E18" s="27">
+        <v>0</v>
+      </c>
+      <c r="F18" s="21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="37" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f>(E19*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" ref="F20:F22" si="3">(E20*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="22">
+        <v>0</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="22">
+        <v>11</v>
+      </c>
+      <c r="E22" s="23">
+        <v>10</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="H22" s="14">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="22">
+        <v>29</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" ref="F23" si="4">(E23*$D$1)/100</f>
+        <v>12</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" ref="G23" si="5">F23*D23</f>
+        <v>348</v>
+      </c>
+      <c r="H23" s="14">
+        <f t="shared" ref="H23" si="6">IF(E23=0,0,G23-$F$29)</f>
+        <v>124</v>
+      </c>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="E28" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="E29" s="1">
+        <f>SUM(E4:E26)</f>
+        <v>112</v>
+      </c>
+      <c r="F29" s="14">
+        <f>SUM(F4:F26)</f>
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDBC5F4-83AB-49EA-8EFC-4D52A935F0AA}">
+  <dimension ref="A1:R25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
+      <c r="Q2" s="49"/>
+      <c r="R2" s="49"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="22">
+        <v>12.5</v>
+      </c>
+      <c r="E4" s="22">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14">
+        <f>(E4*$D$1)/100</f>
+        <v>8</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>100</v>
+      </c>
+      <c r="H4" s="14">
+        <f>IF(E4=0,0,G4-$F$23)</f>
+        <v>-21</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="46"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="22">
+        <v>7.2</v>
+      </c>
+      <c r="E5" s="22">
+        <v>16</v>
+      </c>
+      <c r="F5" s="14">
+        <f>(E5*$D$1)/100</f>
+        <v>16</v>
+      </c>
+      <c r="G5" s="14">
+        <f>F5*D5</f>
+        <v>115.2</v>
+      </c>
+      <c r="H5" s="14">
+        <f>IF(E5=0,0,G5-$F$23)</f>
+        <v>-5.7999999999999972</v>
+      </c>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46"/>
+      <c r="M5" s="46"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="22">
+        <v>6.8</v>
+      </c>
+      <c r="E6" s="22">
+        <v>15</v>
+      </c>
+      <c r="F6" s="20">
+        <f>(E6*$D$1)/100</f>
+        <v>15</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G16" si="0">F6*D6</f>
+        <v>102</v>
+      </c>
+      <c r="H6" s="14">
+        <f>IF(E6=0,0,G6-$F$23)</f>
+        <v>-19</v>
+      </c>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
+      <c r="M6" s="46"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="22">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="E7" s="22">
+        <v>12</v>
+      </c>
+      <c r="F7" s="20">
+        <f>(E7*$D$1)/100</f>
+        <v>12</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>105.60000000000001</v>
+      </c>
+      <c r="H7" s="14">
+        <f>IF(E7=0,0,G7-$F$23)</f>
+        <v>-15.399999999999991</v>
+      </c>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="45" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="22">
+        <v>22</v>
+      </c>
+      <c r="E8" s="22">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20">
+        <f>(E8*$D$1)/100</f>
+        <v>5</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" ref="G8" si="1">F8*D8</f>
+        <v>110</v>
+      </c>
+      <c r="H8" s="14">
+        <f>IF(E8=0,0,G8-$F$23)</f>
+        <v>-11</v>
+      </c>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="22">
+        <v>9.6</v>
+      </c>
+      <c r="E9" s="22">
+        <v>11</v>
+      </c>
+      <c r="F9" s="20">
+        <f>(E9*$D$1)/100</f>
+        <v>11</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="0"/>
+        <v>105.6</v>
+      </c>
+      <c r="H9" s="14">
+        <f>IF(E9=0,0,G9-$F$23)</f>
+        <v>-15.400000000000006</v>
+      </c>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="22">
+        <v>17.5</v>
+      </c>
+      <c r="E10" s="22">
+        <v>6</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" ref="F10:F13" si="2">(E10*$D$1)/100</f>
+        <v>6</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H10" s="14">
+        <f>IF(E10=0,0,G10-$F$23)</f>
+        <v>-16</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="22">
+        <v>24</v>
+      </c>
+      <c r="E11" s="22">
+        <v>5</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H11" s="14">
+        <f>IF(E11=0,0,G11-$F$23)</f>
+        <v>-1</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" s="45"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="22">
+        <v>5.8</v>
+      </c>
+      <c r="E12" s="22">
+        <v>13</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="0"/>
+        <v>75.399999999999991</v>
+      </c>
+      <c r="H12" s="14">
+        <f>IF(E12=0,0,G12-$F$23)</f>
+        <v>-45.600000000000009</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="22">
+        <v>5.4</v>
+      </c>
+      <c r="E13" s="22">
+        <v>20</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="G13" s="14">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="H13" s="14">
+        <f>IF(E13=0,0,G13-$F$23)</f>
+        <v>-13</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="22">
+        <v>30</v>
+      </c>
+      <c r="E14" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="F14" s="14">
+        <f t="shared" ref="F14:F16" si="3">(E14*$D$1)/100</f>
+        <v>3.5</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="H14" s="14">
+        <f>IF(E14=0,0,G14-$F$23)</f>
+        <v>-16</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="22">
+        <v>25</v>
+      </c>
+      <c r="E15" s="22">
+        <v>5</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H15" s="14">
+        <f>IF(E15=0,0,G15-$F$23)</f>
+        <v>4</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="22">
+        <v>80</v>
+      </c>
+      <c r="E16" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="H16" s="14">
+        <f>IF(E16=0,0,G16-$F$23)</f>
+        <v>-1</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="37"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="K18" s="37"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="K20" s="37"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="G21" s="14"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="E22" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="O22" s="36"/>
+      <c r="P22" s="36"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="E23" s="1">
+        <f>SUM(E4:E20)</f>
+        <v>121</v>
+      </c>
+      <c r="F23" s="14">
+        <f>SUM(F4:F22)</f>
+        <v>121</v>
+      </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="31"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="45">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="K13:M13"/>
     <mergeCell ref="A11:C11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Excel Vari/scommesseVarie.xlsx
+++ b/Excel Vari/scommesseVarie.xlsx
@@ -8,19 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rappi\Desktop\MyNotes\Excel Vari\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCAA3B1C-600A-4989-B077-679D3A1F9EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B88081D-456C-439C-AA44-744FAD599144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20370" windowHeight="10740" firstSheet="6" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Premier League 22-23" sheetId="1" r:id="rId1"/>
-    <sheet name="Serie A 22-23" sheetId="2" r:id="rId2"/>
-    <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId3"/>
-    <sheet name="Scommesse Gol rischiosa" sheetId="5" r:id="rId4"/>
-    <sheet name="Scommesse Gol non rischiosa" sheetId="6" r:id="rId5"/>
-    <sheet name="modulo di calcolo FAV IN CASA" sheetId="7" r:id="rId6"/>
-    <sheet name="modulo di calcolo FAV FUORI" sheetId="8" r:id="rId7"/>
-    <sheet name="FAV IN CA 2.0" sheetId="9" r:id="rId8"/>
+    <sheet name="Bundesliga 22-23" sheetId="3" r:id="rId1"/>
+    <sheet name="Premier League 22-23" sheetId="1" r:id="rId2"/>
+    <sheet name="Serie A 22-23" sheetId="2" r:id="rId3"/>
+    <sheet name="modulo di calcolo FAV FUORI" sheetId="8" r:id="rId4"/>
+    <sheet name="FAV IN CA 2.0" sheetId="10" r:id="rId5"/>
+    <sheet name="FAV FUORI CA 2.0" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -514,7 +512,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="95">
   <si>
     <t>Giornata</t>
   </si>
@@ -654,51 +652,12 @@
     <t>Budget Totale</t>
   </si>
   <si>
-    <t>under 1.5 (0-0;1-0;0-1;1-1)</t>
-  </si>
-  <si>
-    <t>2-2 ; 3-3;  4-4</t>
-  </si>
-  <si>
-    <t>0-2; 0-3</t>
-  </si>
-  <si>
-    <t>2-0; 3-0</t>
-  </si>
-  <si>
-    <t>2-1; 3-1; 4-1</t>
-  </si>
-  <si>
-    <t>1-2; 1-3; 1-4</t>
-  </si>
-  <si>
     <t>2-3</t>
   </si>
   <si>
     <t>3-2</t>
   </si>
   <si>
-    <t>5-0 vittoria favorita</t>
-  </si>
-  <si>
-    <t>5-1 vittoria favorita</t>
-  </si>
-  <si>
-    <t>5-2 vittoria favorita</t>
-  </si>
-  <si>
-    <t>6-0 vittoria favorita</t>
-  </si>
-  <si>
-    <t>6-1 vittoria favorita</t>
-  </si>
-  <si>
-    <t>6-2 vittoria favorita</t>
-  </si>
-  <si>
-    <t>2-4 vittoria favorita</t>
-  </si>
-  <si>
     <t>tot perc:</t>
   </si>
   <si>
@@ -717,27 +676,9 @@
     <t>1/10</t>
   </si>
   <si>
-    <t>4-0 vittoria favorita</t>
-  </si>
-  <si>
-    <t>0-4 vittoria Sfavorita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">possibili alternative </t>
-  </si>
-  <si>
-    <t>under 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (0-0;1-0;0-1;1-1)</t>
-  </si>
-  <si>
     <t>1-1</t>
   </si>
   <si>
-    <t>senza 1-1</t>
-  </si>
-  <si>
     <t>1-0</t>
   </si>
   <si>
@@ -756,30 +697,6 @@
     <t>4-0</t>
   </si>
   <si>
-    <t>4-1</t>
-  </si>
-  <si>
-    <t>4-2</t>
-  </si>
-  <si>
-    <t>4-3</t>
-  </si>
-  <si>
-    <t>5-0</t>
-  </si>
-  <si>
-    <t>5-1</t>
-  </si>
-  <si>
-    <t>6-0</t>
-  </si>
-  <si>
-    <t>6-1</t>
-  </si>
-  <si>
-    <t>6-2</t>
-  </si>
-  <si>
     <t>1-2</t>
   </si>
   <si>
@@ -789,15 +706,6 @@
     <t>1-3</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2-3</t>
-  </si>
-  <si>
-    <t>SFAV X2+ nogoal</t>
-  </si>
-  <si>
-    <t>FAVORITA IN CASA</t>
-  </si>
-  <si>
     <t>FAVORITA FUORI CASA</t>
   </si>
   <si>
@@ -834,9 +742,6 @@
     <t>2-6</t>
   </si>
   <si>
-    <t>1X + nogoal</t>
-  </si>
-  <si>
     <t>1XMULTI 1-2 (1-1;10;2,0)</t>
   </si>
   <si>
@@ -853,6 +758,45 @@
   </si>
   <si>
     <t>2-2</t>
+  </si>
+  <si>
+    <t>X2MULTI 1-2 (1-1;0-1;0-2)</t>
+  </si>
+  <si>
+    <t>2+NOGOAL+ O 1.5</t>
+  </si>
+  <si>
+    <t>CON LIVE SI ASPETTA CHE CRESCA</t>
+  </si>
+  <si>
+    <t>1X + multigol 1-3</t>
+  </si>
+  <si>
+    <t>x2-U 1,5</t>
+  </si>
+  <si>
+    <t>1-0;2-0;2-1</t>
+  </si>
+  <si>
+    <t>3-3</t>
+  </si>
+  <si>
+    <t>0 GOAL</t>
+  </si>
+  <si>
+    <t>1 GOAL</t>
+  </si>
+  <si>
+    <t>2 GOAL</t>
+  </si>
+  <si>
+    <t>3GOAL</t>
+  </si>
+  <si>
+    <t>4GOAL</t>
+  </si>
+  <si>
+    <t>&gt;4 GOAL</t>
   </si>
 </sst>
 </file>
@@ -862,7 +806,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -988,6 +932,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -1048,7 +999,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1117,6 +1068,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1126,7 +1088,7 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1216,57 +1178,62 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="1" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1648,10 +1615,1473 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
+  <dimension ref="A1:K52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
+    <col min="9" max="11" width="9.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>185+200+200+200</f>
+        <v>785</v>
+      </c>
+      <c r="C2" s="13">
+        <f>145+185+200+210+215+200+205</f>
+        <v>1360</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1">
+        <f>320+340</f>
+        <v>660</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f>155+117</f>
+        <v>272</v>
+      </c>
+      <c r="C3" s="1">
+        <f>225+155+117</f>
+        <v>497</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="11">
+        <f>325+350+375+300+325</f>
+        <v>1675</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f>325+150</f>
+        <v>475</v>
+      </c>
+      <c r="C4" s="1">
+        <f>150+191+255+120</f>
+        <v>716</v>
+      </c>
+      <c r="D4" s="13">
+        <f>460+680+315</f>
+        <v>1455</v>
+      </c>
+      <c r="E4" s="1">
+        <f>350+300</f>
+        <v>650</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f>140+153+153</f>
+        <v>446</v>
+      </c>
+      <c r="C5" s="1">
+        <f>153+230+175+153+140</f>
+        <v>851</v>
+      </c>
+      <c r="D5" s="1">
+        <f>280+280</f>
+        <v>560</v>
+      </c>
+      <c r="E5" s="1">
+        <f>450+350</f>
+        <v>800</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f>175+340</f>
+        <v>515</v>
+      </c>
+      <c r="C6" s="1">
+        <f>175+225</f>
+        <v>400</v>
+      </c>
+      <c r="D6" s="11">
+        <f>280+263+340+340+433</f>
+        <v>1656</v>
+      </c>
+      <c r="E6" s="1">
+        <f>400+350</f>
+        <v>750</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f>681</f>
+        <v>681</v>
+      </c>
+      <c r="C7" s="1">
+        <f>238+238+205</f>
+        <v>681</v>
+      </c>
+      <c r="D7" s="11">
+        <f>650+380+290</f>
+        <v>1320</v>
+      </c>
+      <c r="E7" s="11">
+        <f>325+350+300</f>
+        <v>975</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <f>120+290+235+120+215+240+245</f>
+        <v>1465</v>
+      </c>
+      <c r="C8" s="13">
+        <f>130+235+120+215+245</f>
+        <v>945</v>
+      </c>
+      <c r="D8" s="1">
+        <f>290+390</f>
+        <v>680</v>
+      </c>
+      <c r="E8" s="1">
+        <v>350</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <f>245+140+165+150+280+135</f>
+        <v>1115</v>
+      </c>
+      <c r="C9" s="13">
+        <f>195+245+165+140+150+135</f>
+        <v>1030</v>
+      </c>
+      <c r="D9" s="1">
+        <f>300+280</f>
+        <v>580</v>
+      </c>
+      <c r="E9" s="1">
+        <v>340</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f>365+200+130</f>
+        <v>695</v>
+      </c>
+      <c r="C10" s="1">
+        <f>130+200+260</f>
+        <v>590</v>
+      </c>
+      <c r="D10" s="11">
+        <f>340+365+340</f>
+        <v>1045</v>
+      </c>
+      <c r="E10" s="11">
+        <f>330+435+330+350</f>
+        <v>1445</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <f>135+280+150+140+165+245</f>
+        <v>1115</v>
+      </c>
+      <c r="C11" s="13">
+        <f>195+245+165+140+150+135</f>
+        <v>1030</v>
+      </c>
+      <c r="D11" s="1">
+        <f>280+300</f>
+        <v>580</v>
+      </c>
+      <c r="E11" s="1">
+        <v>340</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <f>200+185+150+460+165</f>
+        <v>1160</v>
+      </c>
+      <c r="C12" s="13">
+        <f>200+150+185+150+245+165</f>
+        <v>1095</v>
+      </c>
+      <c r="D12" s="1">
+        <v>460</v>
+      </c>
+      <c r="E12" s="1">
+        <f>410+390</f>
+        <v>800</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <f>475+150+170+185</f>
+        <v>980</v>
+      </c>
+      <c r="C13" s="13">
+        <f>200+120+155+150+170+185+180</f>
+        <v>1160</v>
+      </c>
+      <c r="D13" s="1">
+        <v>250</v>
+      </c>
+      <c r="E13" s="1">
+        <f>350</f>
+        <v>350</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f>220+125+150+220+155</f>
+        <v>870</v>
+      </c>
+      <c r="C14" s="13">
+        <f>220+125+170+120+240+150+220+155</f>
+        <v>1400</v>
+      </c>
+      <c r="D14" s="1">
+        <v>350</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11">
+        <f>270+115+200+260+155+320+170</f>
+        <v>1490</v>
+      </c>
+      <c r="C15" s="1">
+        <f>115+200+220+155+170</f>
+        <v>860</v>
+      </c>
+      <c r="D15" s="1">
+        <f>270+260+320</f>
+        <v>850</v>
+      </c>
+      <c r="E15" s="1">
+        <v>365</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="11">
+        <f>320+180+245+200</f>
+        <v>945</v>
+      </c>
+      <c r="C16" s="13">
+        <f>180+245+185+120+200</f>
+        <v>930</v>
+      </c>
+      <c r="D16" s="11">
+        <f>320+280+310</f>
+        <v>910</v>
+      </c>
+      <c r="E16" s="1">
+        <v>340</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="11">
+        <f>215+130+225+225+195+120</f>
+        <v>1110</v>
+      </c>
+      <c r="C17" s="13">
+        <f>215+225+130+225+195+120+225</f>
+        <v>1335</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <f>420+340</f>
+        <v>760</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f>140+300</f>
+        <v>440</v>
+      </c>
+      <c r="C18" s="13">
+        <f>150+235+210+140+250</f>
+        <v>985</v>
+      </c>
+      <c r="D18" s="1">
+        <v>300</v>
+      </c>
+      <c r="E18" s="11">
+        <f>330+750+340</f>
+        <v>1420</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f>125+175+160+340</f>
+        <v>800</v>
+      </c>
+      <c r="C19" s="1">
+        <f>125+175+215+160</f>
+        <v>675</v>
+      </c>
+      <c r="D19" s="11">
+        <f>255+340+340</f>
+        <v>935</v>
+      </c>
+      <c r="E19" s="11">
+        <f>365+560</f>
+        <v>925</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11">
+        <f>365+185+160+150+265</f>
+        <v>1125</v>
+      </c>
+      <c r="C20" s="1">
+        <f>185+150+160+150</f>
+        <v>645</v>
+      </c>
+      <c r="D20" s="11">
+        <f>435+265+365</f>
+        <v>1065</v>
+      </c>
+      <c r="E20" s="1">
+        <f>435+340</f>
+        <v>775</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>20</v>
+      </c>
+      <c r="B21" s="11">
+        <f>175+110+195+260+270+255</f>
+        <v>1265</v>
+      </c>
+      <c r="C21" s="1">
+        <f>175+110+195+165</f>
+        <v>645</v>
+      </c>
+      <c r="D21" s="1">
+        <f>270+260</f>
+        <v>530</v>
+      </c>
+      <c r="E21" s="1">
+        <v>370</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11">
+        <f>250+680+215+130+150</f>
+        <v>1425</v>
+      </c>
+      <c r="C22" s="13">
+        <f>215+215+245+130+150</f>
+        <v>955</v>
+      </c>
+      <c r="D22" s="11">
+        <f>370+680+250</f>
+        <v>1300</v>
+      </c>
+      <c r="E22" s="1">
+        <v>340</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11">
+        <f>210+200+155+185+300+140</f>
+        <v>1190</v>
+      </c>
+      <c r="C23" s="13">
+        <f>210+155+200+185+160+140</f>
+        <v>1050</v>
+      </c>
+      <c r="D23" s="1">
+        <f>300+290</f>
+        <v>590</v>
+      </c>
+      <c r="E23" s="1">
+        <v>340</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f>145+215+185+220</f>
+        <v>765</v>
+      </c>
+      <c r="C24" s="13">
+        <f>220+215+185+140+145</f>
+        <v>905</v>
+      </c>
+      <c r="D24" s="1">
+        <f>265</f>
+        <v>265</v>
+      </c>
+      <c r="E24" s="1">
+        <f>340+300+350</f>
+        <v>990</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f>105+130+180</f>
+        <v>415</v>
+      </c>
+      <c r="C25" s="1">
+        <f>200+180+130+105</f>
+        <v>615</v>
+      </c>
+      <c r="D25" s="1">
+        <f>485</f>
+        <v>485</v>
+      </c>
+      <c r="E25" s="11">
+        <f>340+340+365+300</f>
+        <v>1345</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11">
+        <f>420+220+150+560+185</f>
+        <v>1535</v>
+      </c>
+      <c r="C26" s="1">
+        <f>185+220+150</f>
+        <v>555</v>
+      </c>
+      <c r="D26" s="11">
+        <f>370+560+420</f>
+        <v>1350</v>
+      </c>
+      <c r="E26" s="11">
+        <f>410+330+330</f>
+        <v>1070</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K26" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f>210+145</f>
+        <v>355</v>
+      </c>
+      <c r="C27" s="1">
+        <f>210+175+145</f>
+        <v>530</v>
+      </c>
+      <c r="D27" s="1">
+        <f>310+580</f>
+        <v>890</v>
+      </c>
+      <c r="E27" s="11">
+        <f>410+330+420+340</f>
+        <v>1500</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f>180+160+240+185</f>
+        <v>765</v>
+      </c>
+      <c r="C28" s="13">
+        <f>160+180+210+140+160+240+230+185</f>
+        <v>1505</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>390</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K28" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f>220+115</f>
+        <v>335</v>
+      </c>
+      <c r="C29" s="1">
+        <f>115+220+255</f>
+        <v>590</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="11">
+        <f>350+365+390+365+775+315</f>
+        <v>2560</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11">
+        <f>150+175+245+580</f>
+        <v>1150</v>
+      </c>
+      <c r="C30" s="1">
+        <f>215+150+175+245</f>
+        <v>785</v>
+      </c>
+      <c r="D30" s="11">
+        <f>580+290+300</f>
+        <v>1170</v>
+      </c>
+      <c r="E30" s="1">
+        <v>350</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f>130+165+230+105+220</f>
+        <v>850</v>
+      </c>
+      <c r="C31" s="1">
+        <v>850</v>
+      </c>
+      <c r="D31" s="1">
+        <v>280</v>
+      </c>
+      <c r="E31" s="11">
+        <f>485+315+455</f>
+        <v>1255</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11">
+        <f>205+300+280+235+180</f>
+        <v>1200</v>
+      </c>
+      <c r="C32" s="1">
+        <f>150+120+235+185+205</f>
+        <v>895</v>
+      </c>
+      <c r="D32" s="11">
+        <f>485+535+300+280</f>
+        <v>1600</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K32" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11">
+        <f>180+200+200+110+215+185+115+120</f>
+        <v>1325</v>
+      </c>
+      <c r="C33" s="13">
+        <v>1325</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>340</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H33" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f>210+220</f>
+        <v>430</v>
+      </c>
+      <c r="C34" s="1">
+        <f>210+220+240+130</f>
+        <v>800</v>
+      </c>
+      <c r="D34" s="1">
+        <v>510</v>
+      </c>
+      <c r="E34" s="11">
+        <f>630+350+370+365</f>
+        <v>1715</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
+        <v>34</v>
+      </c>
+      <c r="B35" s="11">
+        <f>145+190+195+145+410</f>
+        <v>1085</v>
+      </c>
+      <c r="C35" s="1">
+        <f>140+145+190+195+145</f>
+        <v>815</v>
+      </c>
+      <c r="D35" s="11">
+        <f>970+410</f>
+        <v>1380</v>
+      </c>
+      <c r="E35" s="11">
+        <f>730+460</f>
+        <v>1190</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K35" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f>SUM(B2:B35)</f>
+        <v>30574</v>
+      </c>
+      <c r="C38" s="1">
+        <f>SUM(C2:C37)</f>
+        <v>30005</v>
+      </c>
+      <c r="D38" s="12">
+        <f>SUM(D2:D35)</f>
+        <v>23846</v>
+      </c>
+      <c r="E38" s="12">
+        <f>SUM(E2:E37)</f>
+        <v>27475</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="1">
+        <v>2</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView topLeftCell="B16" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -1726,7 +3156,7 @@
         <v>9</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>8</v>
@@ -1775,10 +3205,10 @@
         <v>9</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L3" s="19"/>
     </row>
@@ -1852,10 +3282,10 @@
         <v>11</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L5" s="19"/>
     </row>
@@ -1882,7 +3312,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H6" s="9" t="s">
         <v>9</v>
@@ -1894,7 +3324,7 @@
         <v>13</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L6" s="19"/>
     </row>
@@ -1934,7 +3364,7 @@
         <v>13</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L7" s="19"/>
     </row>
@@ -2002,7 +3432,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>9</v>
@@ -2090,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L11" s="19"/>
     </row>
@@ -2111,10 +3541,10 @@
         <v>1388</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>8</v>
@@ -2123,7 +3553,7 @@
         <v>8</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K12" s="9" t="s">
         <v>11</v>
@@ -2147,10 +3577,10 @@
         <v>880</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>8</v>
@@ -2159,7 +3589,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="K13" s="9" t="s">
         <v>11</v>
@@ -2195,10 +3625,10 @@
         <v>9</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L14" s="19"/>
     </row>
@@ -2222,7 +3652,7 @@
         <v>12</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>8</v>
@@ -2270,7 +3700,7 @@
         <v>11</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L16" s="19"/>
     </row>
@@ -2302,7 +3732,7 @@
         <v>9</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>14</v>
@@ -2365,7 +3795,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H19" s="9" t="s">
         <v>9</v>
@@ -2374,7 +3804,7 @@
         <v>9</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>12</v>
@@ -2410,7 +3840,7 @@
         <v>8</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K20" s="9" t="s">
         <v>13</v>
@@ -2436,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>8</v>
@@ -2448,7 +3878,7 @@
         <v>9</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K21" s="9" t="s">
         <v>13</v>
@@ -2472,7 +3902,7 @@
         <v>1720</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>14</v>
@@ -2484,7 +3914,7 @@
         <v>9</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K22" s="9" t="s">
         <v>13</v>
@@ -2508,10 +3938,10 @@
         <v>760</v>
       </c>
       <c r="F23" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H23" s="9" t="s">
         <v>8</v>
@@ -2520,7 +3950,7 @@
         <v>9</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K23" s="9" t="s">
         <v>13</v>
@@ -2559,7 +3989,7 @@
         <v>13</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L24" s="19"/>
     </row>
@@ -2583,7 +4013,7 @@
         <v>12</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="H25" s="9" t="s">
         <v>9</v>
@@ -2592,7 +4022,7 @@
         <v>9</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K25" s="9" t="s">
         <v>13</v>
@@ -2619,7 +4049,7 @@
         <v>12</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="H26" s="9" t="s">
         <v>8</v>
@@ -2628,7 +4058,7 @@
         <v>9</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>13</v>
@@ -2655,7 +4085,7 @@
         <v>12</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H27" s="9" t="s">
         <v>9</v>
@@ -2664,7 +4094,7 @@
         <v>13</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K27" s="9" t="s">
         <v>13</v>
@@ -2691,7 +4121,7 @@
         <v>12</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H28" s="9" t="s">
         <v>8</v>
@@ -2700,10 +4130,10 @@
         <v>8</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L28" s="19"/>
     </row>
@@ -2763,7 +4193,7 @@
         <v>9</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>9</v>
@@ -2775,7 +4205,7 @@
         <v>13</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="L30" s="19"/>
     </row>
@@ -2799,7 +4229,7 @@
         <v>13</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>9</v>
@@ -2808,10 +4238,10 @@
         <v>11</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L31" s="19"/>
     </row>
@@ -2875,7 +4305,7 @@
         <v>9</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>11</v>
@@ -2887,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L33" s="19"/>
     </row>
@@ -2915,7 +4345,7 @@
         <v>11</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H34" s="9" t="s">
         <v>8</v>
@@ -2966,7 +4396,7 @@
         <v>11</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L35" s="19"/>
     </row>
@@ -2993,7 +4423,7 @@
         <v>12</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>13</v>
@@ -3002,10 +4432,10 @@
         <v>13</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="L36" s="19"/>
     </row>
@@ -3042,7 +4472,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="K37" s="9" t="s">
         <v>13</v>
@@ -3125,7 +4555,7 @@
         <v>13</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="L39" s="19"/>
     </row>
@@ -3154,12 +4584,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E046816-9386-404B-AF3D-393A00F6F5F1}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9:M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3174,7 +4604,7 @@
     <col min="8" max="8" width="9.140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3199,8 +4629,26 @@
       <c r="H1" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="36" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -3228,8 +4676,26 @@
       <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="18">
+        <v>0</v>
+      </c>
+      <c r="J2" s="18">
+        <v>2</v>
+      </c>
+      <c r="K2" s="18">
+        <v>1</v>
+      </c>
+      <c r="L2" s="18">
+        <v>4</v>
+      </c>
+      <c r="M2" s="18">
+        <v>0</v>
+      </c>
+      <c r="N2" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -3257,8 +4723,26 @@
       <c r="H3" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="18">
+        <v>4</v>
+      </c>
+      <c r="J3" s="18">
+        <v>2</v>
+      </c>
+      <c r="K3" s="18">
+        <v>2</v>
+      </c>
+      <c r="L3" s="18">
+        <v>1</v>
+      </c>
+      <c r="M3" s="18">
+        <v>1</v>
+      </c>
+      <c r="N3" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -3286,8 +4770,26 @@
       <c r="H4" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="18">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18">
+        <v>1</v>
+      </c>
+      <c r="K4" s="18">
+        <v>3</v>
+      </c>
+      <c r="L4" s="18">
+        <v>2</v>
+      </c>
+      <c r="M4" s="18">
+        <v>3</v>
+      </c>
+      <c r="N4" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -3314,8 +4816,26 @@
       <c r="H5" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="18">
+        <v>1</v>
+      </c>
+      <c r="J5" s="18">
+        <v>1</v>
+      </c>
+      <c r="K5" s="18">
+        <v>5</v>
+      </c>
+      <c r="L5" s="18">
+        <v>1</v>
+      </c>
+      <c r="M5" s="18">
+        <v>2</v>
+      </c>
+      <c r="N5" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -3344,8 +4864,26 @@
       <c r="H6" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="18">
+        <v>1</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+      <c r="K6" s="18">
+        <v>2</v>
+      </c>
+      <c r="L6" s="18">
+        <v>2</v>
+      </c>
+      <c r="M6" s="18">
+        <v>3</v>
+      </c>
+      <c r="N6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -3374,8 +4912,26 @@
       <c r="H7" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="18">
+        <v>0</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+      <c r="K7" s="18">
+        <v>3</v>
+      </c>
+      <c r="L7" s="18">
+        <v>3</v>
+      </c>
+      <c r="M7" s="18">
+        <v>1</v>
+      </c>
+      <c r="N7" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -3403,8 +4959,26 @@
       <c r="H8" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="18">
+        <v>0</v>
+      </c>
+      <c r="J8" s="18">
+        <v>4</v>
+      </c>
+      <c r="K8" s="18">
+        <v>1</v>
+      </c>
+      <c r="L8" s="18">
+        <v>3</v>
+      </c>
+      <c r="M8" s="18">
+        <v>2</v>
+      </c>
+      <c r="N8" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -3433,8 +5007,26 @@
       <c r="H9" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="18">
+        <v>0</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+      <c r="K9" s="18">
+        <v>1</v>
+      </c>
+      <c r="L9" s="18">
+        <v>4</v>
+      </c>
+      <c r="M9" s="18">
+        <v>3</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -3463,8 +5055,26 @@
       <c r="H10" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="18">
+        <v>0</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0</v>
+      </c>
+      <c r="K10" s="18">
+        <v>4</v>
+      </c>
+      <c r="L10" s="18">
+        <v>3</v>
+      </c>
+      <c r="M10" s="18">
+        <v>2</v>
+      </c>
+      <c r="N10" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -3493,8 +5103,26 @@
       <c r="H11" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="18">
+        <v>1</v>
+      </c>
+      <c r="J11" s="18">
+        <v>3</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="18">
+        <v>2</v>
+      </c>
+      <c r="M11" s="18">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -3522,8 +5150,26 @@
       <c r="H12" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="18">
+        <v>0</v>
+      </c>
+      <c r="J12" s="18">
+        <v>3</v>
+      </c>
+      <c r="K12" s="18">
+        <v>2</v>
+      </c>
+      <c r="L12" s="18">
+        <v>2</v>
+      </c>
+      <c r="M12" s="18">
+        <v>1</v>
+      </c>
+      <c r="N12" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -3552,8 +5198,26 @@
       <c r="H13" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="18">
+        <v>1</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="18">
+        <v>4</v>
+      </c>
+      <c r="M13" s="18">
+        <v>3</v>
+      </c>
+      <c r="N13" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -3582,8 +5246,26 @@
       <c r="H14" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="18">
+        <v>0</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2</v>
+      </c>
+      <c r="K14" s="18">
+        <v>4</v>
+      </c>
+      <c r="L14" s="18">
+        <v>3</v>
+      </c>
+      <c r="M14" s="18">
+        <v>1</v>
+      </c>
+      <c r="N14" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -3612,8 +5294,26 @@
       <c r="H15" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="18">
+        <v>1</v>
+      </c>
+      <c r="J15" s="18">
+        <v>2</v>
+      </c>
+      <c r="K15" s="18">
+        <v>3</v>
+      </c>
+      <c r="L15" s="18">
+        <v>2</v>
+      </c>
+      <c r="M15" s="18">
+        <v>0</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -3641,8 +5341,26 @@
       <c r="H16" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="18">
+        <v>0</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0</v>
+      </c>
+      <c r="K16" s="18">
+        <v>2</v>
+      </c>
+      <c r="L16" s="18">
+        <v>5</v>
+      </c>
+      <c r="M16" s="18">
+        <v>0</v>
+      </c>
+      <c r="N16" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -3671,8 +5389,26 @@
       <c r="H17" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>3</v>
+      </c>
+      <c r="K17" s="18">
+        <v>3</v>
+      </c>
+      <c r="L17" s="18">
+        <v>3</v>
+      </c>
+      <c r="M17" s="18">
+        <v>1</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -3700,8 +5436,26 @@
       <c r="H18" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="18">
+        <v>1</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+      <c r="K18" s="18">
+        <v>3</v>
+      </c>
+      <c r="L18" s="18">
+        <v>2</v>
+      </c>
+      <c r="M18" s="18">
+        <v>3</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -3730,8 +5484,26 @@
       <c r="H19" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="18">
+        <v>0</v>
+      </c>
+      <c r="J19" s="18">
+        <v>3</v>
+      </c>
+      <c r="K19" s="18">
+        <v>2</v>
+      </c>
+      <c r="L19" s="18">
+        <v>1</v>
+      </c>
+      <c r="M19" s="18">
+        <v>1</v>
+      </c>
+      <c r="N19" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -3760,8 +5532,26 @@
       <c r="H20" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="18">
+        <v>0</v>
+      </c>
+      <c r="J20" s="18">
+        <v>3</v>
+      </c>
+      <c r="K20" s="18">
+        <v>5</v>
+      </c>
+      <c r="L20" s="18">
+        <v>0</v>
+      </c>
+      <c r="M20" s="18">
+        <v>1</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -3790,8 +5580,26 @@
       <c r="H21" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="18">
+        <v>0</v>
+      </c>
+      <c r="J21" s="18">
+        <v>0</v>
+      </c>
+      <c r="K21" s="18">
+        <v>5</v>
+      </c>
+      <c r="L21" s="18">
+        <v>3</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -3820,8 +5628,26 @@
       <c r="H22" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="18">
+        <v>0</v>
+      </c>
+      <c r="J22" s="18">
+        <v>3</v>
+      </c>
+      <c r="K22" s="18">
+        <v>3</v>
+      </c>
+      <c r="L22" s="18">
+        <v>3</v>
+      </c>
+      <c r="M22" s="18">
+        <v>1</v>
+      </c>
+      <c r="N22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -3850,8 +5676,26 @@
       <c r="H23" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="18">
+        <v>1</v>
+      </c>
+      <c r="J23" s="18">
+        <v>4</v>
+      </c>
+      <c r="K23" s="18">
+        <v>2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1</v>
+      </c>
+      <c r="M23" s="18">
+        <v>2</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -3880,8 +5724,26 @@
       <c r="H24" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="18">
+        <v>0</v>
+      </c>
+      <c r="J24" s="18">
+        <v>2</v>
+      </c>
+      <c r="K24" s="18">
+        <v>4</v>
+      </c>
+      <c r="L24" s="18">
+        <v>2</v>
+      </c>
+      <c r="M24" s="18">
+        <v>2</v>
+      </c>
+      <c r="N24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -3910,8 +5772,26 @@
       <c r="H25" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="18">
+        <v>0</v>
+      </c>
+      <c r="J25" s="18">
+        <v>3</v>
+      </c>
+      <c r="K25" s="18">
+        <v>2</v>
+      </c>
+      <c r="L25" s="18">
+        <v>3</v>
+      </c>
+      <c r="M25" s="18">
+        <v>1</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -3940,8 +5820,26 @@
       <c r="H26" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="18">
+        <v>3</v>
+      </c>
+      <c r="J26" s="18">
+        <v>2</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1</v>
+      </c>
+      <c r="L26" s="18">
+        <v>2</v>
+      </c>
+      <c r="M26" s="18">
+        <v>0</v>
+      </c>
+      <c r="N26" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -3970,8 +5868,26 @@
       <c r="H27" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="18">
+        <v>1</v>
+      </c>
+      <c r="J27" s="18">
+        <v>1</v>
+      </c>
+      <c r="K27" s="18">
+        <v>5</v>
+      </c>
+      <c r="L27" s="18">
+        <v>1</v>
+      </c>
+      <c r="M27" s="18">
+        <v>0</v>
+      </c>
+      <c r="N27" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -4000,8 +5916,26 @@
       <c r="H28" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="18">
+        <v>0</v>
+      </c>
+      <c r="J28" s="18">
+        <v>4</v>
+      </c>
+      <c r="K28" s="18">
+        <v>1</v>
+      </c>
+      <c r="L28" s="18">
+        <v>1</v>
+      </c>
+      <c r="M28" s="18">
+        <v>4</v>
+      </c>
+      <c r="N28" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -4030,8 +5964,26 @@
       <c r="H29" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="18">
+        <v>0</v>
+      </c>
+      <c r="J29" s="18">
+        <v>3</v>
+      </c>
+      <c r="K29" s="18">
+        <v>3</v>
+      </c>
+      <c r="L29" s="18">
+        <v>2</v>
+      </c>
+      <c r="M29" s="18">
+        <v>2</v>
+      </c>
+      <c r="N29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -4060,8 +6012,26 @@
       <c r="H30" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="18">
+        <v>1</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+      <c r="K30" s="18">
+        <v>3</v>
+      </c>
+      <c r="L30" s="18">
+        <v>3</v>
+      </c>
+      <c r="M30" s="18">
+        <v>1</v>
+      </c>
+      <c r="N30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -4090,8 +6060,26 @@
       <c r="H31" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="18">
+        <v>1</v>
+      </c>
+      <c r="J31" s="18">
+        <v>3</v>
+      </c>
+      <c r="K31" s="18">
+        <v>4</v>
+      </c>
+      <c r="L31" s="18">
+        <v>2</v>
+      </c>
+      <c r="M31" s="18">
+        <v>0</v>
+      </c>
+      <c r="N31" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -4120,8 +6108,26 @@
       <c r="H32" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="18">
+        <v>0</v>
+      </c>
+      <c r="J32" s="18">
+        <v>2</v>
+      </c>
+      <c r="K32" s="18">
+        <v>2</v>
+      </c>
+      <c r="L32" s="18">
+        <v>4</v>
+      </c>
+      <c r="M32" s="18">
+        <v>1</v>
+      </c>
+      <c r="N32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -4149,8 +6155,26 @@
       <c r="H33" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="18">
+        <v>0</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
+      <c r="K33" s="18">
+        <v>5</v>
+      </c>
+      <c r="L33" s="18">
+        <v>2</v>
+      </c>
+      <c r="M33" s="18">
+        <v>1</v>
+      </c>
+      <c r="N33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -4178,8 +6202,26 @@
       <c r="H34" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="18">
+        <v>0</v>
+      </c>
+      <c r="J34" s="18">
+        <v>0</v>
+      </c>
+      <c r="K34" s="18">
+        <v>5</v>
+      </c>
+      <c r="L34" s="18">
+        <v>1</v>
+      </c>
+      <c r="M34" s="18">
+        <v>1</v>
+      </c>
+      <c r="N34" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -4208,8 +6250,26 @@
       <c r="H35" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="18">
+        <v>0</v>
+      </c>
+      <c r="J35" s="18">
+        <v>2</v>
+      </c>
+      <c r="K35" s="18">
+        <v>7</v>
+      </c>
+      <c r="L35" s="18">
+        <v>1</v>
+      </c>
+      <c r="M35" s="18">
+        <v>0</v>
+      </c>
+      <c r="N35" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -4238,8 +6298,26 @@
       <c r="H36" s="9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="18">
+        <v>1</v>
+      </c>
+      <c r="J36" s="18">
+        <v>2</v>
+      </c>
+      <c r="K36" s="18">
+        <v>5</v>
+      </c>
+      <c r="L36" s="18">
+        <v>0</v>
+      </c>
+      <c r="M36" s="18">
+        <v>1</v>
+      </c>
+      <c r="N36" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -4268,8 +6346,26 @@
       <c r="H37" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="18">
+        <v>1</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
+      <c r="K37" s="18">
+        <v>1</v>
+      </c>
+      <c r="L37" s="18">
+        <v>1</v>
+      </c>
+      <c r="M37" s="18">
+        <v>3</v>
+      </c>
+      <c r="N37" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -4298,8 +6394,26 @@
       <c r="H38" s="9" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="18">
+        <v>0</v>
+      </c>
+      <c r="J38" s="18">
+        <v>2</v>
+      </c>
+      <c r="K38" s="18">
+        <v>1</v>
+      </c>
+      <c r="L38" s="18">
+        <v>1</v>
+      </c>
+      <c r="M38" s="18">
+        <v>3</v>
+      </c>
+      <c r="N38" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -4327,8 +6441,26 @@
       <c r="H39" s="9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="18">
+        <v>0</v>
+      </c>
+      <c r="J39" s="18">
+        <v>2</v>
+      </c>
+      <c r="K39" s="18">
+        <v>3</v>
+      </c>
+      <c r="L39" s="18">
+        <v>1</v>
+      </c>
+      <c r="M39" s="18">
+        <v>2</v>
+      </c>
+      <c r="N39" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>5</v>
       </c>
@@ -4355,3443 +6487,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D15CB10-F428-4B79-B622-F2EC1C53ACDB}">
-  <dimension ref="A1:K52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="7" width="10.140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="8" customWidth="1"/>
-    <col min="9" max="11" width="9.140625" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <f>185+200+200+200</f>
-        <v>785</v>
-      </c>
-      <c r="C2" s="13">
-        <f>145+185+200+210+215+200+205</f>
-        <v>1360</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" s="1">
-        <f>320+340</f>
-        <v>660</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f>155+117</f>
-        <v>272</v>
-      </c>
-      <c r="C3" s="1">
-        <f>225+155+117</f>
-        <v>497</v>
-      </c>
-      <c r="D3" s="1">
-        <v>500</v>
-      </c>
-      <c r="E3" s="11">
-        <f>325+350+375+300+325</f>
-        <v>1675</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f>325+150</f>
-        <v>475</v>
-      </c>
-      <c r="C4" s="1">
-        <f>150+191+255+120</f>
-        <v>716</v>
-      </c>
-      <c r="D4" s="13">
-        <f>460+680+315</f>
-        <v>1455</v>
-      </c>
-      <c r="E4" s="1">
-        <f>350+300</f>
-        <v>650</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f>140+153+153</f>
-        <v>446</v>
-      </c>
-      <c r="C5" s="1">
-        <f>153+230+175+153+140</f>
-        <v>851</v>
-      </c>
-      <c r="D5" s="1">
-        <f>280+280</f>
-        <v>560</v>
-      </c>
-      <c r="E5" s="1">
-        <f>450+350</f>
-        <v>800</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f>175+340</f>
-        <v>515</v>
-      </c>
-      <c r="C6" s="1">
-        <f>175+225</f>
-        <v>400</v>
-      </c>
-      <c r="D6" s="11">
-        <f>280+263+340+340+433</f>
-        <v>1656</v>
-      </c>
-      <c r="E6" s="1">
-        <f>400+350</f>
-        <v>750</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f>681</f>
-        <v>681</v>
-      </c>
-      <c r="C7" s="1">
-        <f>238+238+205</f>
-        <v>681</v>
-      </c>
-      <c r="D7" s="11">
-        <f>650+380+290</f>
-        <v>1320</v>
-      </c>
-      <c r="E7" s="11">
-        <f>325+350+300</f>
-        <v>975</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11">
-        <f>120+290+235+120+215+240+245</f>
-        <v>1465</v>
-      </c>
-      <c r="C8" s="13">
-        <f>130+235+120+215+245</f>
-        <v>945</v>
-      </c>
-      <c r="D8" s="1">
-        <f>290+390</f>
-        <v>680</v>
-      </c>
-      <c r="E8" s="1">
-        <v>350</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11">
-        <f>245+140+165+150+280+135</f>
-        <v>1115</v>
-      </c>
-      <c r="C9" s="13">
-        <f>195+245+165+140+150+135</f>
-        <v>1030</v>
-      </c>
-      <c r="D9" s="1">
-        <f>300+280</f>
-        <v>580</v>
-      </c>
-      <c r="E9" s="1">
-        <v>340</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f>365+200+130</f>
-        <v>695</v>
-      </c>
-      <c r="C10" s="1">
-        <f>130+200+260</f>
-        <v>590</v>
-      </c>
-      <c r="D10" s="11">
-        <f>340+365+340</f>
-        <v>1045</v>
-      </c>
-      <c r="E10" s="11">
-        <f>330+435+330+350</f>
-        <v>1445</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <f>135+280+150+140+165+245</f>
-        <v>1115</v>
-      </c>
-      <c r="C11" s="13">
-        <f>195+245+165+140+150+135</f>
-        <v>1030</v>
-      </c>
-      <c r="D11" s="1">
-        <f>280+300</f>
-        <v>580</v>
-      </c>
-      <c r="E11" s="1">
-        <v>340</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
-        <v>11</v>
-      </c>
-      <c r="B12" s="11">
-        <f>200+185+150+460+165</f>
-        <v>1160</v>
-      </c>
-      <c r="C12" s="13">
-        <f>200+150+185+150+245+165</f>
-        <v>1095</v>
-      </c>
-      <c r="D12" s="1">
-        <v>460</v>
-      </c>
-      <c r="E12" s="1">
-        <f>410+390</f>
-        <v>800</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
-        <v>12</v>
-      </c>
-      <c r="B13" s="11">
-        <f>475+150+170+185</f>
-        <v>980</v>
-      </c>
-      <c r="C13" s="13">
-        <f>200+120+155+150+170+185+180</f>
-        <v>1160</v>
-      </c>
-      <c r="D13" s="1">
-        <v>250</v>
-      </c>
-      <c r="E13" s="1">
-        <f>350</f>
-        <v>350</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <f>220+125+150+220+155</f>
-        <v>870</v>
-      </c>
-      <c r="C14" s="13">
-        <f>220+125+170+120+240+150+220+155</f>
-        <v>1400</v>
-      </c>
-      <c r="D14" s="1">
-        <v>350</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="11">
-        <f>270+115+200+260+155+320+170</f>
-        <v>1490</v>
-      </c>
-      <c r="C15" s="1">
-        <f>115+200+220+155+170</f>
-        <v>860</v>
-      </c>
-      <c r="D15" s="1">
-        <f>270+260+320</f>
-        <v>850</v>
-      </c>
-      <c r="E15" s="1">
-        <v>365</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="11">
-        <f>320+180+245+200</f>
-        <v>945</v>
-      </c>
-      <c r="C16" s="13">
-        <f>180+245+185+120+200</f>
-        <v>930</v>
-      </c>
-      <c r="D16" s="11">
-        <f>320+280+310</f>
-        <v>910</v>
-      </c>
-      <c r="E16" s="1">
-        <v>340</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="11">
-        <f>215+130+225+225+195+120</f>
-        <v>1110</v>
-      </c>
-      <c r="C17" s="13">
-        <f>215+225+130+225+195+120+225</f>
-        <v>1335</v>
-      </c>
-      <c r="D17" s="1">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <f>420+340</f>
-        <v>760</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <f>140+300</f>
-        <v>440</v>
-      </c>
-      <c r="C18" s="13">
-        <f>150+235+210+140+250</f>
-        <v>985</v>
-      </c>
-      <c r="D18" s="1">
-        <v>300</v>
-      </c>
-      <c r="E18" s="11">
-        <f>330+750+340</f>
-        <v>1420</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <f>125+175+160+340</f>
-        <v>800</v>
-      </c>
-      <c r="C19" s="1">
-        <f>125+175+215+160</f>
-        <v>675</v>
-      </c>
-      <c r="D19" s="11">
-        <f>255+340+340</f>
-        <v>935</v>
-      </c>
-      <c r="E19" s="11">
-        <f>365+560</f>
-        <v>925</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11">
-        <f>365+185+160+150+265</f>
-        <v>1125</v>
-      </c>
-      <c r="C20" s="1">
-        <f>185+150+160+150</f>
-        <v>645</v>
-      </c>
-      <c r="D20" s="11">
-        <f>435+265+365</f>
-        <v>1065</v>
-      </c>
-      <c r="E20" s="1">
-        <f>435+340</f>
-        <v>775</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
-        <v>20</v>
-      </c>
-      <c r="B21" s="11">
-        <f>175+110+195+260+270+255</f>
-        <v>1265</v>
-      </c>
-      <c r="C21" s="1">
-        <f>175+110+195+165</f>
-        <v>645</v>
-      </c>
-      <c r="D21" s="1">
-        <f>270+260</f>
-        <v>530</v>
-      </c>
-      <c r="E21" s="1">
-        <v>370</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="11">
-        <f>250+680+215+130+150</f>
-        <v>1425</v>
-      </c>
-      <c r="C22" s="13">
-        <f>215+215+245+130+150</f>
-        <v>955</v>
-      </c>
-      <c r="D22" s="11">
-        <f>370+680+250</f>
-        <v>1300</v>
-      </c>
-      <c r="E22" s="1">
-        <v>340</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11">
-        <f>210+200+155+185+300+140</f>
-        <v>1190</v>
-      </c>
-      <c r="C23" s="13">
-        <f>210+155+200+185+160+140</f>
-        <v>1050</v>
-      </c>
-      <c r="D23" s="1">
-        <f>300+290</f>
-        <v>590</v>
-      </c>
-      <c r="E23" s="1">
-        <v>340</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <f>145+215+185+220</f>
-        <v>765</v>
-      </c>
-      <c r="C24" s="13">
-        <f>220+215+185+140+145</f>
-        <v>905</v>
-      </c>
-      <c r="D24" s="1">
-        <f>265</f>
-        <v>265</v>
-      </c>
-      <c r="E24" s="1">
-        <f>340+300+350</f>
-        <v>990</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <f>105+130+180</f>
-        <v>415</v>
-      </c>
-      <c r="C25" s="1">
-        <f>200+180+130+105</f>
-        <v>615</v>
-      </c>
-      <c r="D25" s="1">
-        <f>485</f>
-        <v>485</v>
-      </c>
-      <c r="E25" s="11">
-        <f>340+340+365+300</f>
-        <v>1345</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
-        <v>25</v>
-      </c>
-      <c r="B26" s="11">
-        <f>420+220+150+560+185</f>
-        <v>1535</v>
-      </c>
-      <c r="C26" s="1">
-        <f>185+220+150</f>
-        <v>555</v>
-      </c>
-      <c r="D26" s="11">
-        <f>370+560+420</f>
-        <v>1350</v>
-      </c>
-      <c r="E26" s="11">
-        <f>410+330+330</f>
-        <v>1070</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K26" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <f>210+145</f>
-        <v>355</v>
-      </c>
-      <c r="C27" s="1">
-        <f>210+175+145</f>
-        <v>530</v>
-      </c>
-      <c r="D27" s="1">
-        <f>310+580</f>
-        <v>890</v>
-      </c>
-      <c r="E27" s="11">
-        <f>410+330+420+340</f>
-        <v>1500</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <f>180+160+240+185</f>
-        <v>765</v>
-      </c>
-      <c r="C28" s="13">
-        <f>160+180+210+140+160+240+230+185</f>
-        <v>1505</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0</v>
-      </c>
-      <c r="E28" s="1">
-        <v>390</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <f>220+115</f>
-        <v>335</v>
-      </c>
-      <c r="C29" s="1">
-        <f>115+220+255</f>
-        <v>590</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="11">
-        <f>350+365+390+365+775+315</f>
-        <v>2560</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H29" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="11">
-        <f>150+175+245+580</f>
-        <v>1150</v>
-      </c>
-      <c r="C30" s="1">
-        <f>215+150+175+245</f>
-        <v>785</v>
-      </c>
-      <c r="D30" s="11">
-        <f>580+290+300</f>
-        <v>1170</v>
-      </c>
-      <c r="E30" s="1">
-        <v>350</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H30" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <f>130+165+230+105+220</f>
-        <v>850</v>
-      </c>
-      <c r="C31" s="1">
-        <v>850</v>
-      </c>
-      <c r="D31" s="1">
-        <v>280</v>
-      </c>
-      <c r="E31" s="11">
-        <f>485+315+455</f>
-        <v>1255</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="11">
-        <f>205+300+280+235+180</f>
-        <v>1200</v>
-      </c>
-      <c r="C32" s="1">
-        <f>150+120+235+185+205</f>
-        <v>895</v>
-      </c>
-      <c r="D32" s="11">
-        <f>485+535+300+280</f>
-        <v>1600</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J32" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K32" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="11">
-        <f>180+200+200+110+215+185+115+120</f>
-        <v>1325</v>
-      </c>
-      <c r="C33" s="13">
-        <v>1325</v>
-      </c>
-      <c r="D33" s="1">
-        <v>0</v>
-      </c>
-      <c r="E33" s="1">
-        <v>340</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J33" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <f>210+220</f>
-        <v>430</v>
-      </c>
-      <c r="C34" s="1">
-        <f>210+220+240+130</f>
-        <v>800</v>
-      </c>
-      <c r="D34" s="1">
-        <v>510</v>
-      </c>
-      <c r="E34" s="11">
-        <f>630+350+370+365</f>
-        <v>1715</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
-        <v>34</v>
-      </c>
-      <c r="B35" s="11">
-        <f>145+190+195+145+410</f>
-        <v>1085</v>
-      </c>
-      <c r="C35" s="1">
-        <f>140+145+190+195+145</f>
-        <v>815</v>
-      </c>
-      <c r="D35" s="11">
-        <f>970+410</f>
-        <v>1380</v>
-      </c>
-      <c r="E35" s="11">
-        <f>730+460</f>
-        <v>1190</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <f>SUM(B2:B35)</f>
-        <v>30574</v>
-      </c>
-      <c r="C38" s="1">
-        <f>SUM(C2:C37)</f>
-        <v>30005</v>
-      </c>
-      <c r="D38" s="12">
-        <f>SUM(D2:D35)</f>
-        <v>23846</v>
-      </c>
-      <c r="E38" s="12">
-        <f>SUM(E2:E37)</f>
-        <v>27475</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C46" s="1">
-        <v>2</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="1">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="1">
-        <v>1</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="D52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79493EA-4998-4071-AA78-976D82956F21}">
-  <dimension ref="A1:O26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="1">
-        <v>2.65</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40</v>
-      </c>
-      <c r="F4" s="14">
-        <f>(E4*$D$1)/100</f>
-        <v>320</v>
-      </c>
-      <c r="G4" s="14">
-        <f>F4*D4</f>
-        <v>848</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H14" si="0">IF(E4=0,0,G4-$F$26)</f>
-        <v>-61.200000000000045</v>
-      </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="1">
-        <v>15</v>
-      </c>
-      <c r="E5" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="F5" s="14">
-        <f>(E5*$D$1)/100</f>
-        <v>57.6</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5" si="1">F5*D5</f>
-        <v>864</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>-45.200000000000045</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="1">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="F6" s="14">
-        <f>(E6*$D$1)/100</f>
-        <v>57.6</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" ref="G6:G14" si="2">F6*D6</f>
-        <v>864</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>-45.200000000000045</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="1">
-        <v>7.4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" ref="F7:F15" si="3">(E7*$D$1)/100</f>
-        <v>116</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="2"/>
-        <v>858.40000000000009</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>-50.799999999999955</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="1">
-        <v>14.5</v>
-      </c>
-      <c r="E8" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="3"/>
-        <v>60</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="2"/>
-        <v>870</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>-39.200000000000045</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="1">
-        <v>10</v>
-      </c>
-      <c r="E9" s="1">
-        <v>11</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="3"/>
-        <v>88</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>-29.200000000000045</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="1">
-        <v>6.4</v>
-      </c>
-      <c r="E10" s="1">
-        <v>17</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="2"/>
-        <v>870.40000000000009</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>-38.799999999999955</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="1">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="2"/>
-        <v>960</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>50.799999999999955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="1">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="2"/>
-        <v>1000</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>90.799999999999955</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="40" t="s">
-        <v>68</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="1">
-        <v>100</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1.125</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" ref="G13" si="4">F13*D13</f>
-        <v>900</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>-9.2000000000000455</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="1">
-        <v>55</v>
-      </c>
-      <c r="E14" s="18">
-        <v>2</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="3"/>
-        <v>16</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="2"/>
-        <v>880</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>-29.200000000000045</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="1">
-        <v>175</v>
-      </c>
-      <c r="E15" s="18">
-        <v>0.625</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" ref="G15" si="5">F15*D15</f>
-        <v>875</v>
-      </c>
-      <c r="H15" s="14">
-        <f>IF(E15=0,0,G15-$F$26)</f>
-        <v>-34.200000000000045</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
-      <c r="G24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="E25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="E26" s="1">
-        <f>SUM(E4:E23)</f>
-        <v>113.65</v>
-      </c>
-      <c r="F26" s="14">
-        <f>SUM(F4:F23)</f>
-        <v>909.2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336C925-1790-44E9-9359-7928D5D7A779}">
-  <dimension ref="A1:H25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="15">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="1">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14">
-        <f>(E4*$D$1)/100</f>
-        <v>88</v>
-      </c>
-      <c r="G4" s="14">
-        <f>F4*D4</f>
-        <v>880</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H20" si="0">G4-$F$25</f>
-        <v>122.39999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="1">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8</v>
-      </c>
-      <c r="F5" s="14">
-        <f>(E5*$D$1)/100</f>
-        <v>64</v>
-      </c>
-      <c r="G5" s="14">
-        <f t="shared" ref="G5:G18" si="1">F5*D5</f>
-        <v>832</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>74.399999999999977</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="1">
-        <v>9.4</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="14">
-        <f t="shared" ref="F6:F20" si="2">(E6*$D$1)/100</f>
-        <v>88</v>
-      </c>
-      <c r="G6" s="14">
-        <f t="shared" si="1"/>
-        <v>827.2</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>69.600000000000023</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="1">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F7" s="14">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="G7" s="14">
-        <f t="shared" si="1"/>
-        <v>864</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>106.39999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="39"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="1">
-        <v>17</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="2"/>
-        <v>48</v>
-      </c>
-      <c r="G8" s="14">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>58.399999999999977</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="1">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="G9" s="14">
-        <f t="shared" si="1"/>
-        <v>864</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>106.39999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="40" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="1">
-        <v>55</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="G10" s="14">
-        <f t="shared" si="1"/>
-        <v>880</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>122.39999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="40"/>
-      <c r="D11" s="1">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1">
-        <v>3</v>
-      </c>
-      <c r="F11" s="14">
-        <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="G11" s="14">
-        <f t="shared" si="1"/>
-        <v>960</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>202.39999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="1">
-        <v>50</v>
-      </c>
-      <c r="E12" s="18">
-        <v>2.5</v>
-      </c>
-      <c r="F12" s="14">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G12" s="14">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>242.39999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="1">
-        <v>150</v>
-      </c>
-      <c r="E13" s="18">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>442.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="1">
-        <v>100</v>
-      </c>
-      <c r="E14" s="18">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G14" s="14">
-        <f t="shared" si="1"/>
-        <v>800</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>42.399999999999977</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="1">
-        <v>150</v>
-      </c>
-      <c r="E15" s="18">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="G15" s="14">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="0"/>
-        <v>442.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="1">
-        <v>350</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G16" s="14">
-        <f t="shared" si="1"/>
-        <v>1400</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>642.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="1">
-        <v>300</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="14">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="G17" s="14">
-        <f t="shared" si="1"/>
-        <v>1200</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
-        <v>442.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="1">
-        <v>95</v>
-      </c>
-      <c r="E18" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="F18" s="14">
-        <f t="shared" si="2"/>
-        <v>9.6</v>
-      </c>
-      <c r="G18" s="14">
-        <f t="shared" si="1"/>
-        <v>912</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
-        <v>154.39999999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="E19" s="18">
-        <v>24</v>
-      </c>
-      <c r="F19" s="14">
-        <f t="shared" si="2"/>
-        <v>192</v>
-      </c>
-      <c r="G19" s="14">
-        <f>F19*D19</f>
-        <v>883.19999999999993</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>125.59999999999991</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="1">
-        <v>8</v>
-      </c>
-      <c r="E20" s="18">
-        <v>13</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" si="2"/>
-        <v>104</v>
-      </c>
-      <c r="G20" s="14">
-        <f>F20*D20</f>
-        <v>832</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>74.399999999999977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="1">
-        <f>SUM(E4:E24)</f>
-        <v>94.7</v>
-      </c>
-      <c r="F25" s="14">
-        <f>SUM(F4:F24)</f>
-        <v>757.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52FE680-4557-48E1-B07B-C28811331493}">
-  <dimension ref="A1:R31"/>
-  <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.140625" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
-    <col min="16" max="16" width="15.42578125" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="15">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="22">
-        <v>6.6</v>
-      </c>
-      <c r="E4" s="22">
-        <v>16</v>
-      </c>
-      <c r="F4" s="14">
-        <f>(E4*$D$1)/100</f>
-        <v>16</v>
-      </c>
-      <c r="G4" s="14">
-        <f>F4*D4</f>
-        <v>105.6</v>
-      </c>
-      <c r="H4" s="14">
-        <f t="shared" ref="H4:H22" si="0">IF(E4=0,0,G4-$F$29)</f>
-        <v>21.599999999999994</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-    </row>
-    <row r="5" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="22">
-        <v>10.5</v>
-      </c>
-      <c r="E5" s="22">
-        <v>10</v>
-      </c>
-      <c r="F5" s="20">
-        <f>(E5*$D$1)/100</f>
-        <v>10</v>
-      </c>
-      <c r="G5" s="20">
-        <f t="shared" ref="G5:G22" si="1">F5*D5</f>
-        <v>105</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="30"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
-      <c r="R5" s="31"/>
-    </row>
-    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="22">
-        <v>10.5</v>
-      </c>
-      <c r="E6" s="22">
-        <v>10</v>
-      </c>
-      <c r="F6" s="20">
-        <f>(E6*$D$1)/100</f>
-        <v>10</v>
-      </c>
-      <c r="G6" s="20">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="H6" s="14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
-      <c r="R6" s="31"/>
-    </row>
-    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="22">
-        <v>25</v>
-      </c>
-      <c r="E7" s="22">
-        <v>5</v>
-      </c>
-      <c r="F7" s="20">
-        <f>(E7*$D$1)/100</f>
-        <v>5</v>
-      </c>
-      <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-    </row>
-    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="22">
-        <v>25</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
-        <f>(E8*$D$1)/100</f>
-        <v>5</v>
-      </c>
-      <c r="G8" s="20">
-        <f t="shared" si="1"/>
-        <v>125</v>
-      </c>
-      <c r="H8" s="14">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
-      <c r="R8" s="31"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="22">
-        <v>45</v>
-      </c>
-      <c r="E9" s="22">
-        <v>3</v>
-      </c>
-      <c r="F9" s="20">
-        <f t="shared" ref="F9:F18" si="2">(E9*$D$1)/100</f>
-        <v>3</v>
-      </c>
-      <c r="G9" s="20">
-        <f t="shared" si="1"/>
-        <v>135</v>
-      </c>
-      <c r="H9" s="14">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
-      <c r="R9" s="31"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="22">
-        <v>0</v>
-      </c>
-      <c r="E10" s="22">
-        <v>0</v>
-      </c>
-      <c r="F10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="22">
-        <v>0</v>
-      </c>
-      <c r="E11" s="22">
-        <v>0</v>
-      </c>
-      <c r="F11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="22">
-        <v>0</v>
-      </c>
-      <c r="E12" s="22">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="22">
-        <v>0</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="46"/>
-      <c r="L13" s="46"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>83</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="22">
-        <v>0</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0</v>
-      </c>
-      <c r="F14" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="46"/>
-      <c r="M14" s="46"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="22">
-        <v>0</v>
-      </c>
-      <c r="E15" s="22">
-        <v>0</v>
-      </c>
-      <c r="F15" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="46"/>
-      <c r="L15" s="46"/>
-      <c r="M15" s="46"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="32"/>
-      <c r="P15" s="31"/>
-      <c r="Q15" s="31"/>
-      <c r="R15" s="31"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="22">
-        <v>0</v>
-      </c>
-      <c r="E16" s="22">
-        <v>0</v>
-      </c>
-      <c r="F16" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="46"/>
-      <c r="L16" s="46"/>
-      <c r="M16" s="46"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="31"/>
-      <c r="R16" s="31"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="22">
-        <v>0</v>
-      </c>
-      <c r="E17" s="22">
-        <v>0</v>
-      </c>
-      <c r="F17" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="46"/>
-      <c r="L17" s="46"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="30"/>
-      <c r="O17" s="32"/>
-      <c r="P17" s="31"/>
-      <c r="Q17" s="31"/>
-      <c r="R17" s="31"/>
-    </row>
-    <row r="18" spans="1:18" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="22">
-        <v>0</v>
-      </c>
-      <c r="E18" s="22">
-        <v>0</v>
-      </c>
-      <c r="F18" s="21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K18" s="46"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="30"/>
-      <c r="O18" s="32"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="31"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="22">
-        <v>3.05</v>
-      </c>
-      <c r="E19" s="22">
-        <v>35</v>
-      </c>
-      <c r="F19" s="14">
-        <v>35</v>
-      </c>
-      <c r="G19" s="14">
-        <f t="shared" si="1"/>
-        <v>106.75</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="0"/>
-        <v>22.75</v>
-      </c>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="44"/>
-      <c r="N19" s="30"/>
-      <c r="O19" s="32"/>
-      <c r="P19" s="31"/>
-      <c r="Q19" s="31"/>
-      <c r="R19" s="31"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="22">
-        <v>0</v>
-      </c>
-      <c r="E20" s="22">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14">
-        <f t="shared" ref="F20:F22" si="3">(E20*$D$1)/100</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="30"/>
-      <c r="O20" s="32"/>
-      <c r="P20" s="31"/>
-      <c r="Q20" s="31"/>
-      <c r="R20" s="31"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="22">
-        <v>0</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0</v>
-      </c>
-      <c r="F21" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="30"/>
-      <c r="O21" s="32"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
-      <c r="D22" s="22">
-        <v>0</v>
-      </c>
-      <c r="E22" s="22">
-        <v>0</v>
-      </c>
-      <c r="F22" s="14">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="30"/>
-      <c r="O22" s="32"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="G27" s="14"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
-      <c r="M27" s="38"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="14"/>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="E28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
-      <c r="M28" s="38"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="36"/>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="E29" s="1">
-        <f>SUM(E4:E26)</f>
-        <v>84</v>
-      </c>
-      <c r="F29" s="14">
-        <f>SUM(F4:F28)</f>
-        <v>84</v>
-      </c>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-      <c r="M29" s="38"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="31"/>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-    </row>
-  </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="K7:M7"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K9:M9"/>
-    <mergeCell ref="K10:M10"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="K26:M26"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="K25:M25"/>
-    <mergeCell ref="K22:M22"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E946F3-ECAB-417F-8907-DAE2E3B82620}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7807,26 +6508,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
       <c r="D1" s="28">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
@@ -7851,13 +6552,13 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="22">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="E4" s="22">
         <v>0</v>
@@ -7876,11 +6577,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
+      <c r="A5" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="26">
         <v>0</v>
       </c>
@@ -7892,176 +6593,176 @@
         <v>0</v>
       </c>
       <c r="G5" s="20">
-        <f t="shared" ref="G5:G22" si="1">F5*D5</f>
+        <f t="shared" ref="G5" si="1">F5*D5</f>
         <v>0</v>
       </c>
       <c r="H5" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H5" si="2">IF(E5=0,0,G5-$F$29)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="26">
-        <v>4.33</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="E6" s="26">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="F6" s="20">
         <f>(E6*$D$1)/100</f>
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" si="1"/>
-        <v>216.5</v>
+        <f t="shared" ref="G6:G22" si="3">F6*D6</f>
+        <v>105.60000000000001</v>
       </c>
       <c r="H6" s="20">
         <f t="shared" si="0"/>
-        <v>-7.5</v>
+        <v>105.60000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
+      <c r="A7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="26">
-        <v>0</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="E7" s="26">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="F7" s="20">
         <f>(E7*$D$1)/100</f>
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>105.8</v>
       </c>
       <c r="H7" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>105.8</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>90</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
+      <c r="A8" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
       <c r="D8" s="26">
-        <v>5</v>
+        <v>11.5</v>
       </c>
       <c r="E8" s="26">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8" s="20">
         <f>(E8*$D$1)/100</f>
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" si="1"/>
-        <v>250</v>
+        <f t="shared" si="3"/>
+        <v>115</v>
       </c>
       <c r="H8" s="20">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
+      <c r="A9" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="22">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E9" s="22">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F9" s="20">
-        <f t="shared" ref="F9:F18" si="2">(E9*$D$1)/100</f>
-        <v>22</v>
+        <f t="shared" ref="F9:F18" si="4">(E9*$D$1)/100</f>
+        <v>4</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>112</v>
       </c>
       <c r="I9" s="24"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="22">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>112</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="22">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E11" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F11" s="20">
-        <f t="shared" si="2"/>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>100</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="22">
         <v>0</v>
       </c>
@@ -8069,11 +6770,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="14">
@@ -8084,11 +6785,11 @@
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
+      <c r="A13" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
       <c r="D13" s="22">
         <v>0</v>
       </c>
@@ -8096,11 +6797,11 @@
         <v>0</v>
       </c>
       <c r="F13" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="14">
@@ -8111,65 +6812,65 @@
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
-        <v>101</v>
-      </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
+      <c r="A14" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="22">
-        <v>4.5</v>
+        <v>35</v>
       </c>
       <c r="E14" s="23">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="F14" s="20">
-        <f t="shared" si="2"/>
-        <v>50</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="1"/>
-        <v>225</v>
+        <f t="shared" si="3"/>
+        <v>105</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="45" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
+      <c r="A15" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="22">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E15" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" si="2"/>
-        <v>20</v>
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="1"/>
-        <v>240</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
+      <c r="A16" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="22">
         <v>0</v>
       </c>
@@ -8177,11 +6878,11 @@
         <v>0</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H16" s="14">
@@ -8192,11 +6893,11 @@
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
+      <c r="A17" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="22">
         <v>0</v>
       </c>
@@ -8204,11 +6905,11 @@
         <v>0</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H17" s="14">
@@ -8219,11 +6920,11 @@
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10" s="25" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
+      <c r="A18" s="38" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="26">
         <v>0</v>
       </c>
@@ -8231,11 +6932,11 @@
         <v>0</v>
       </c>
       <c r="F18" s="21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G18" s="21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H18" s="20">
@@ -8244,11 +6945,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="22">
         <v>0</v>
       </c>
@@ -8260,7 +6961,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H19" s="14">
@@ -8271,38 +6972,38 @@
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="22">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E20" s="23">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F20" s="14">
-        <f t="shared" ref="F20:F22" si="3">(E20*$D$1)/100</f>
-        <v>0</v>
+        <f t="shared" ref="F20:F22" si="5">(E20*$D$1)/100</f>
+        <v>5</v>
       </c>
       <c r="G20" s="14">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>110</v>
       </c>
       <c r="H20" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="I20" s="24"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="22">
         <v>0</v>
       </c>
@@ -8310,11 +7011,11 @@
         <v>0</v>
       </c>
       <c r="F21" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="14">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="14">
@@ -8325,83 +7026,117 @@
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37"/>
+      <c r="A22" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="22">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E22" s="23">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F22" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
         <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G22" s="14">
-        <f t="shared" si="1"/>
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="H22" s="14">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="I22" s="24"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="22">
-        <v>29</v>
+        <v>5.2</v>
       </c>
       <c r="E23" s="23">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F23" s="14">
-        <f t="shared" ref="F23" si="4">(E23*$D$1)/100</f>
-        <v>12</v>
+        <f t="shared" ref="F23" si="6">(E23*$D$1)/100</f>
+        <v>21</v>
       </c>
       <c r="G23" s="14">
-        <f t="shared" ref="G23" si="5">F23*D23</f>
-        <v>348</v>
+        <f t="shared" ref="G23" si="7">F23*D23</f>
+        <v>109.2</v>
       </c>
       <c r="H23" s="14">
-        <f t="shared" ref="H23" si="6">IF(E23=0,0,G23-$F$29)</f>
-        <v>124</v>
+        <f t="shared" ref="H23" si="8">IF(E23=0,0,G23-$F$29)</f>
+        <v>109.2</v>
       </c>
       <c r="I23" s="24"/>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
+      <c r="A24" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="22">
+        <v>10.5</v>
+      </c>
+      <c r="E24" s="23">
+        <v>8</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" ref="F24" si="9">(E24*$D$1)/100</f>
+        <v>8</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" ref="G24" si="10">F24*D24</f>
+        <v>84</v>
+      </c>
+      <c r="H24" s="14">
+        <f t="shared" ref="H24" si="11">IF(E24=0,0,G24-$F$29)</f>
+        <v>84</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="A25" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="22">
+        <v>90</v>
+      </c>
+      <c r="E25" s="23">
+        <v>1</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" ref="F25" si="12">(E25*$D$1)/100</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" ref="G25" si="13">F25*D25</f>
+        <v>90</v>
+      </c>
+      <c r="H25" s="14">
+        <f t="shared" ref="H25" si="14">IF(E25=0,0,G25-$F$29)</f>
+        <v>90</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="1"/>
       <c r="E26" s="18"/>
       <c r="F26" s="14"/>
@@ -8409,34 +7144,24 @@
       <c r="H26" s="14"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="G27" s="14"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="E28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>62</v>
-      </c>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="E29" s="1">
-        <f>SUM(E4:E26)</f>
-        <v>112</v>
-      </c>
-      <c r="F29" s="14">
-        <f>SUM(F4:F26)</f>
-        <v>224</v>
-      </c>
+      <c r="A29" s="44"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -8475,12 +7200,825 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB58B7-452C-43FA-9D1A-6B3D02ADB34D}">
+  <dimension ref="A1:R26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
+    <col min="17" max="17" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="22">
+        <v>5.63</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" ref="F4:F20" si="0">(E4*$D$1)/100</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <f>F4*D4</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <f t="shared" ref="H4:H17" si="1">IF(E4=0,0,G4-$F$24)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="46"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="22">
+        <v>11.4</v>
+      </c>
+      <c r="E5" s="22">
+        <v>9.5</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="G5" s="14">
+        <f>F5*D5</f>
+        <v>108.3</v>
+      </c>
+      <c r="H5" s="14">
+        <f t="shared" si="1"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
+      <c r="N5" s="30"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="31"/>
+      <c r="Q5" s="31"/>
+      <c r="R5" s="31"/>
+    </row>
+    <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="22">
+        <v>8.4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>12</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" ref="G6:G17" si="2">F6*D6</f>
+        <v>100.80000000000001</v>
+      </c>
+      <c r="H6" s="14">
+        <f t="shared" si="1"/>
+        <v>22.300000000000011</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="31"/>
+      <c r="R6" s="31"/>
+    </row>
+    <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="22">
+        <v>6.44</v>
+      </c>
+      <c r="E7" s="22">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="2"/>
+        <v>103.04</v>
+      </c>
+      <c r="H7" s="14">
+        <f t="shared" si="1"/>
+        <v>24.540000000000006</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+    </row>
+    <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="22">
+        <v>7.35</v>
+      </c>
+      <c r="E8" s="22">
+        <v>14</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="2"/>
+        <v>102.89999999999999</v>
+      </c>
+      <c r="H8" s="14">
+        <f t="shared" si="1"/>
+        <v>24.399999999999991</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="31"/>
+      <c r="R8" s="31"/>
+    </row>
+    <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="22">
+        <v>7.59</v>
+      </c>
+      <c r="E9" s="22">
+        <v>14</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="2"/>
+        <v>106.25999999999999</v>
+      </c>
+      <c r="H9" s="14">
+        <f t="shared" si="1"/>
+        <v>27.759999999999991</v>
+      </c>
+      <c r="I9" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+    </row>
+    <row r="10" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="22">
+        <v>8.33</v>
+      </c>
+      <c r="E10" s="22">
+        <v>13</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" ref="G10" si="3">F10*D10</f>
+        <v>108.29</v>
+      </c>
+      <c r="H10" s="14">
+        <f t="shared" ref="H10" si="4">IF(E10=0,0,G10-$F$24)</f>
+        <v>29.790000000000006</v>
+      </c>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="22">
+        <v>9.9</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="22">
+        <v>9.52</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="31"/>
+      <c r="Q13" s="31"/>
+      <c r="R13" s="31"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="22">
+        <v>0</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="31"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="22">
+        <v>0</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+      <c r="N15" s="30"/>
+      <c r="O15" s="32"/>
+      <c r="P15" s="31"/>
+      <c r="Q15" s="31"/>
+      <c r="R15" s="31"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="22">
+        <v>0</v>
+      </c>
+      <c r="E16" s="22">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31"/>
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="22">
+        <v>0</v>
+      </c>
+      <c r="E17" s="22">
+        <v>0</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="31"/>
+      <c r="R17" s="31"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="22">
+        <v>0</v>
+      </c>
+      <c r="E18" s="22">
+        <v>0</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="14">
+        <f t="shared" ref="G18:G20" si="5">F18*D18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <f t="shared" ref="H18:H20" si="6">IF(E18=0,0,G18-$F$24)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="48"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="22">
+        <v>0</v>
+      </c>
+      <c r="E19" s="22">
+        <v>0</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="48"/>
+      <c r="L19" s="48"/>
+      <c r="M19" s="48"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="31"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="22">
+        <v>0</v>
+      </c>
+      <c r="E20" s="22">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="14">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="46"/>
+      <c r="K20" s="48"/>
+      <c r="L20" s="48"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="G22" s="14"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="14"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="E23" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="E24" s="1">
+        <f>SUM(E4:E23)</f>
+        <v>78.5</v>
+      </c>
+      <c r="F24" s="14">
+        <f>SUM(F4:F23)</f>
+        <v>78.5</v>
+      </c>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="31"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="53">
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="K10:M10"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="K23:M23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EDBC5F4-83AB-49EA-8EFC-4D52A935F0AA}">
   <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8496,34 +8034,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
       <c r="D1" s="15">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-      <c r="P2" s="49"/>
-      <c r="Q2" s="49"/>
-      <c r="R2" s="49"/>
+      <c r="A2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
@@ -8546,9 +8084,9 @@
       <c r="H3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="29"/>
       <c r="O3" s="29"/>
       <c r="P3" s="29"/>
@@ -8556,32 +8094,32 @@
       <c r="R3" s="29"/>
     </row>
     <row r="4" spans="1:18" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
+      <c r="A4" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="22">
-        <v>12.5</v>
+        <v>8</v>
       </c>
       <c r="E4" s="22">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F4" s="14">
-        <f>(E4*$D$1)/100</f>
-        <v>8</v>
+        <f t="shared" ref="F4:F9" si="0">(E4*$D$1)/100</f>
+        <v>13</v>
       </c>
       <c r="G4" s="14">
         <f>F4*D4</f>
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H4" s="14">
-        <f>IF(E4=0,0,G4-$F$23)</f>
-        <v>-21</v>
-      </c>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
+        <f t="shared" ref="H4:H16" si="1">IF(E4=0,0,G4-$F$23)</f>
+        <v>72.5</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
       <c r="N4" s="30"/>
       <c r="O4" s="30"/>
       <c r="P4" s="31"/>
@@ -8589,32 +8127,30 @@
       <c r="R4" s="31"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
+      <c r="A5" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="22">
-        <v>7.2</v>
-      </c>
-      <c r="E5" s="22">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E5" s="22"/>
       <c r="F5" s="14">
-        <f>(E5*$D$1)/100</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G5" s="14">
         <f>F5*D5</f>
-        <v>115.2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="14">
-        <f>IF(E5=0,0,G5-$F$23)</f>
-        <v>-5.7999999999999972</v>
-      </c>
-      <c r="K5" s="46"/>
-      <c r="L5" s="46"/>
-      <c r="M5" s="46"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="47"/>
       <c r="N5" s="30"/>
       <c r="O5" s="30"/>
       <c r="P5" s="31"/>
@@ -8622,32 +8158,30 @@
       <c r="R5" s="31"/>
     </row>
     <row r="6" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
+      <c r="A6" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="22">
-        <v>6.8</v>
-      </c>
-      <c r="E6" s="22">
-        <v>15</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="E6" s="22"/>
       <c r="F6" s="20">
-        <f>(E6*$D$1)/100</f>
-        <v>15</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G6" s="20">
-        <f t="shared" ref="G6:G16" si="0">F6*D6</f>
-        <v>102</v>
+        <f t="shared" ref="G6:G16" si="2">F6*D6</f>
+        <v>0</v>
       </c>
       <c r="H6" s="14">
-        <f>IF(E6=0,0,G6-$F$23)</f>
-        <v>-19</v>
-      </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
-      <c r="M6" s="46"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="47"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="47"/>
       <c r="N6" s="30"/>
       <c r="O6" s="30"/>
       <c r="P6" s="31"/>
@@ -8655,32 +8189,28 @@
       <c r="R6" s="31"/>
     </row>
     <row r="7" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="22">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="E7" s="22">
-        <v>12</v>
-      </c>
+      <c r="A7" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="20">
-        <f>(E7*$D$1)/100</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G7" s="20">
-        <f t="shared" si="0"/>
-        <v>105.60000000000001</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H7" s="14">
-        <f>IF(E7=0,0,G7-$F$23)</f>
-        <v>-15.399999999999991</v>
-      </c>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
       <c r="N7" s="30"/>
       <c r="O7" s="30"/>
       <c r="P7" s="31"/>
@@ -8688,32 +8218,28 @@
       <c r="R7" s="31"/>
     </row>
     <row r="8" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="22">
-        <v>22</v>
-      </c>
-      <c r="E8" s="22">
-        <v>5</v>
-      </c>
+      <c r="A8" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="20">
-        <f>(E8*$D$1)/100</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G8" s="20">
-        <f t="shared" ref="G8" si="1">F8*D8</f>
-        <v>110</v>
+        <f t="shared" ref="G8" si="3">F8*D8</f>
+        <v>0</v>
       </c>
       <c r="H8" s="14">
-        <f>IF(E8=0,0,G8-$F$23)</f>
-        <v>-11</v>
-      </c>
-      <c r="K8" s="46"/>
-      <c r="L8" s="46"/>
-      <c r="M8" s="46"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
       <c r="N8" s="30"/>
       <c r="O8" s="30"/>
       <c r="P8" s="31"/>
@@ -8721,32 +8247,28 @@
       <c r="R8" s="31"/>
     </row>
     <row r="9" spans="1:18" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="22">
-        <v>9.6</v>
-      </c>
-      <c r="E9" s="22">
-        <v>11</v>
-      </c>
+      <c r="A9" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
       <c r="F9" s="20">
-        <f>(E9*$D$1)/100</f>
-        <v>11</v>
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
       <c r="G9" s="20">
-        <f t="shared" si="0"/>
-        <v>105.6</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H9" s="14">
-        <f>IF(E9=0,0,G9-$F$23)</f>
-        <v>-15.400000000000006</v>
-      </c>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
       <c r="N9" s="30"/>
       <c r="O9" s="30"/>
       <c r="P9" s="31"/>
@@ -8754,34 +8276,34 @@
       <c r="R9" s="31"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
+      <c r="A10" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="22">
-        <v>17.5</v>
+        <v>9</v>
       </c>
       <c r="E10" s="22">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="F10" s="20">
-        <f t="shared" ref="F10:F13" si="2">(E10*$D$1)/100</f>
-        <v>6</v>
+        <f t="shared" ref="F10:F13" si="4">(E10*$D$1)/100</f>
+        <v>13</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>117</v>
       </c>
       <c r="H10" s="14">
-        <f>IF(E10=0,0,G10-$F$23)</f>
-        <v>-16</v>
+        <f t="shared" si="1"/>
+        <v>85.5</v>
       </c>
       <c r="I10" s="24"/>
       <c r="J10" s="24"/>
-      <c r="K10" s="46"/>
-      <c r="L10" s="46"/>
-      <c r="M10" s="46"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
       <c r="N10" s="30"/>
       <c r="O10" s="30"/>
       <c r="P10" s="31"/>
@@ -8789,34 +8311,34 @@
       <c r="R10" s="31"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="A11" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="22">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E11" s="22">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="F11" s="20">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="G11" s="20">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <v>104.5</v>
       </c>
       <c r="H11" s="14">
-        <f>IF(E11=0,0,G11-$F$23)</f>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>73</v>
       </c>
       <c r="I11" s="24"/>
       <c r="J11" s="24"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="47"/>
+      <c r="M11" s="47"/>
       <c r="N11" s="30"/>
       <c r="O11" s="32"/>
       <c r="P11" s="31"/>
@@ -8824,34 +8346,34 @@
       <c r="R11" s="31"/>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="45" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
+      <c r="A12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="22">
         <v>5.8</v>
       </c>
       <c r="E12" s="22">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="F12" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
         <f t="shared" si="2"/>
-        <v>13</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="0"/>
-        <v>75.399999999999991</v>
+        <v>0</v>
       </c>
       <c r="H12" s="14">
-        <f>IF(E12=0,0,G12-$F$23)</f>
-        <v>-45.600000000000009</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I12" s="24"/>
       <c r="J12" s="24"/>
-      <c r="K12" s="46"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="46"/>
+      <c r="K12" s="47"/>
+      <c r="L12" s="47"/>
+      <c r="M12" s="47"/>
       <c r="N12" s="30"/>
       <c r="O12" s="32"/>
       <c r="P12" s="31"/>
@@ -8859,34 +8381,34 @@
       <c r="R12" s="31"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="22">
         <v>5.4</v>
       </c>
       <c r="E13" s="22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F13" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="G13" s="14">
-        <f t="shared" si="0"/>
-        <v>108</v>
+        <v>0</v>
       </c>
       <c r="H13" s="14">
-        <f>IF(E13=0,0,G13-$F$23)</f>
-        <v>-13</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I13" s="24"/>
       <c r="J13" s="24"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
+      <c r="K13" s="48"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
       <c r="N13" s="30"/>
       <c r="O13" s="32"/>
       <c r="P13" s="31"/>
@@ -8894,34 +8416,34 @@
       <c r="R13" s="31"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="22">
         <v>30</v>
       </c>
       <c r="E14" s="22">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F14" s="14">
-        <f t="shared" ref="F14:F16" si="3">(E14*$D$1)/100</f>
-        <v>3.5</v>
+        <f t="shared" ref="F14:F16" si="5">(E14*$D$1)/100</f>
+        <v>0</v>
       </c>
       <c r="G14" s="14">
-        <f t="shared" si="0"/>
-        <v>105</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H14" s="14">
-        <f>IF(E14=0,0,G14-$F$23)</f>
-        <v>-16</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I14" s="24"/>
       <c r="J14" s="24"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
       <c r="N14" s="30"/>
       <c r="O14" s="32"/>
       <c r="P14" s="31"/>
@@ -8929,34 +8451,34 @@
       <c r="R14" s="31"/>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="22">
         <v>25</v>
       </c>
       <c r="E15" s="22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F15" s="14">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G15" s="14">
-        <f t="shared" si="0"/>
-        <v>125</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H15" s="14">
-        <f>IF(E15=0,0,G15-$F$23)</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I15" s="24"/>
       <c r="J15" s="24"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
       <c r="N15" s="30"/>
       <c r="O15" s="32"/>
       <c r="P15" s="31"/>
@@ -8964,34 +8486,34 @@
       <c r="R15" s="31"/>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="22">
         <v>80</v>
       </c>
       <c r="E16" s="22">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="F16" s="14">
-        <f t="shared" si="3"/>
-        <v>1.5</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="G16" s="14">
-        <f t="shared" si="0"/>
-        <v>120</v>
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
-        <f>IF(E16=0,0,G16-$F$23)</f>
-        <v>-1</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="I16" s="24"/>
       <c r="J16" s="24"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
       <c r="N16" s="30"/>
       <c r="O16" s="32"/>
       <c r="P16" s="31"/>
@@ -8999,17 +8521,17 @@
       <c r="R16" s="31"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="1"/>
       <c r="E17" s="18"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="1"/>
       <c r="O17" s="18"/>
       <c r="P17" s="14"/>
@@ -9017,17 +8539,17 @@
       <c r="R17" s="14"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="1"/>
       <c r="E18" s="18"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
       <c r="N18" s="1"/>
       <c r="O18" s="18"/>
       <c r="P18" s="14"/>
@@ -9035,17 +8557,17 @@
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="1"/>
       <c r="E19" s="18"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="1"/>
       <c r="O19" s="18"/>
       <c r="P19" s="14"/>
@@ -9053,17 +8575,17 @@
       <c r="R19" s="14"/>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="1"/>
       <c r="E20" s="18"/>
       <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
       <c r="N20" s="1"/>
       <c r="O20" s="18"/>
       <c r="P20" s="14"/>
@@ -9071,58 +8593,58 @@
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
       <c r="G21" s="14"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="44"/>
+      <c r="M21" s="44"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
       <c r="Q21" s="14"/>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
       <c r="E22" s="17" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="O22" s="36"/>
-      <c r="P22" s="36"/>
+        <v>49</v>
+      </c>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
       <c r="E23" s="1">
         <f>SUM(E4:E20)</f>
-        <v>121</v>
+        <v>31.5</v>
       </c>
       <c r="F23" s="14">
         <f>SUM(F4:F22)</f>
-        <v>121</v>
-      </c>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="O23" s="34"/>
+        <v>31.5</v>
+      </c>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="O23" s="33"/>
       <c r="P23" s="31"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="45">
@@ -9164,13 +8686,13 @@
     <mergeCell ref="K7:M7"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="K9:M9"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="A3:C3"/>
     <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
